--- a/services/opengsync-app/static/resources/templates/library_prep/WES.xlsx
+++ b/services/opengsync-app/static/resources/templates/library_prep/WES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cemmat-my.sharepoint.com/personal/hriegler_cemm_at/Documents/Documents/GitHub/limbless-app/services/limbless-app/static/resources/templates/library_prep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hriegler\Documents\limbless-app\services\opengsync-app\static\resources\templates\library_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{30DB2C2D-AA9D-5244-A601-2057CAB07903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53CA81D0-E77E-43FB-A974-D7F0A6343225}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BFBCAF-362B-4B63-8A97-3F8C276224C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_Hlk114062637" localSheetId="1">Checklist!$C$122</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="181">
   <si>
     <t>R0</t>
   </si>
@@ -713,6 +713,12 @@
   <si>
     <t>VOLUME:</t>
   </si>
+  <si>
+    <t>library_kits</t>
+  </si>
+  <si>
+    <t>library_prep_type</t>
+  </si>
 </sst>
 </file>
 
@@ -722,7 +728,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -916,6 +922,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1526,7 +1540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1555,102 +1569,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1673,138 +1606,39 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1814,74 +1648,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1910,45 +1690,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1964,45 +1705,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2018,43 +1726,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2062,15 +1734,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2079,36 +1742,390 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2259,9 +2276,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2277,7 +2294,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618412C9-7461-4AAA-9909-D1E9D6119224}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2326,9 +2343,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2344,7 +2361,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCEC67A-E5F9-4DA2-ABF5-EDB26F6799BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2393,9 +2410,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2411,7 +2428,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40FFA03F-4691-494F-BEA9-F714D1EEFCB6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2460,9 +2477,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2478,7 +2495,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF767179-4D1A-47A7-98CD-3191B2FD5556}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2527,9 +2544,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2545,7 +2562,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FB7C26-7283-421F-992D-24781414070D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2594,9 +2611,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2612,7 +2629,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5C07A7-C5E0-405B-A529-6ADEEDEA2343}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2661,9 +2678,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2679,7 +2696,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34F5D4A-0EC0-4A8C-8CF6-2095D4D6864C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2728,9 +2745,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2746,7 +2763,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641A22E4-3158-4170-9126-B0CCF2282981}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2795,9 +2812,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2813,7 +2830,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C586FAC1-1154-497E-BB6D-B109A954EA44}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2862,9 +2879,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2880,7 +2897,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308DBA8F-6F58-40C9-906A-31226D54F3AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2929,7 +2946,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -2947,7 +2964,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99F8416-E4E6-4503-A5DB-4DC64F2D98F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2996,9 +3013,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3014,7 +3031,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B834CCC-73C3-4A0D-AB85-EC4248874CE8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3063,9 +3080,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3081,7 +3098,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A91D2E-8C7C-4782-88E7-8FE52251F0F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3130,7 +3147,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>79</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3148,7 +3165,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC2EC76-F603-4304-92E0-68B4F2CF2E47}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3197,9 +3214,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3215,7 +3232,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E986FB3-218C-4599-805F-E3D1B83C354B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3264,9 +3281,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3282,7 +3299,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B380AD3-A945-4991-8BB7-4DECCF32D4D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3331,9 +3348,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3349,7 +3366,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB034B0E-8F96-4B47-8CED-A9B117CCC757}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3398,9 +3415,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3416,7 +3433,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA4DD13-34C9-4947-A6D4-F1121F96EAA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3465,9 +3482,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>88</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3483,7 +3500,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F09438-4649-4A55-ACE5-5693EAB5DE14}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3534,7 +3551,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3550,7 +3567,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D55802A-FBF5-4206-85BE-E34FAB25B8F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3599,9 +3616,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3617,7 +3634,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C05DC3-5584-45B0-A7F3-335CB53CE135}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3684,7 +3701,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6678B595-4F33-499A-B5F1-5EC9B1871068}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3735,7 +3752,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3751,7 +3768,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099BD75D-BFB1-4A69-AD2C-B0D01EB2C86F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3800,9 +3817,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3818,7 +3835,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3A7B86A-FCCF-4877-B02B-3C5100D60803}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3867,9 +3884,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3885,7 +3902,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15583458-651F-424B-8E35-DE8D62D52A67}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3934,9 +3951,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3952,7 +3969,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6336E8B8-887B-42D3-97F1-AA70ADAADBED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4001,9 +4018,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>101</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4019,7 +4036,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFB6AF2-6CCE-4A92-8410-3CF59889AF61}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4129,7 +4146,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>103</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4147,7 +4164,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017F29A3-C9B6-4239-B584-25E6E8DE8A2D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4198,7 +4215,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>103</xdr:row>
-          <xdr:rowOff>298450</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4214,7 +4231,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D787BCF-A4B6-4BFF-8C0C-6D02A708C288}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4263,9 +4280,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4281,7 +4298,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB3E55A9-7452-42A7-B314-34D1B9BB313A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4330,9 +4347,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4348,7 +4365,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0FFA4B-3836-498E-96AA-15A8336DEA08}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4712,21 +4729,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CEC1DF-8ED0-B840-A178-84D3EE75C042}">
-  <dimension ref="A1:W97"/>
+  <dimension ref="A1:Y97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="9" width="13.33203125" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" customWidth="1"/>
-    <col min="22" max="22" width="15.9140625" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" customWidth="1"/>
+    <col min="3" max="11" width="13.375" customWidth="1"/>
+    <col min="23" max="23" width="13.875" customWidth="1"/>
+    <col min="24" max="24" width="15.875" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4742,62 +4759,68 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="207" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="207" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="206" t="s">
+      <c r="U1" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4822,9 +4845,11 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4849,9 +4874,11 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4876,9 +4903,11 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="4"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4903,9 +4932,11 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="4"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4930,9 +4961,11 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4957,9 +4990,11 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4984,9 +5019,11 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5011,9 +5048,11 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5038,9 +5077,11 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5065,9 +5106,11 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5092,9 +5135,11 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5119,9 +5164,11 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="4"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5146,9 +5193,11 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5173,9 +5222,11 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5200,9 +5251,11 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="4"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5227,9 +5280,11 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="4"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5254,9 +5309,11 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="4"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5281,9 +5338,11 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="4"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5308,9 +5367,11 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="4"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5335,9 +5396,11 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="4"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5362,9 +5425,11 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="4"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5389,9 +5454,11 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="4"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5416,9 +5483,11 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="4"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5443,9 +5512,11 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="4"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5470,9 +5541,11 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="4"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="4"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5497,9 +5570,11 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="4"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5524,9 +5599,11 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="4"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="4"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5551,9 +5628,11 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="4"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5578,9 +5657,11 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="4"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="4"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5605,9 +5686,11 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="4"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5632,9 +5715,11 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="4"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="4"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5659,9 +5744,11 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="4"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="4"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5686,9 +5773,11 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="4"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5713,9 +5802,11 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="4"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="4"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5740,9 +5831,11 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="4"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5767,9 +5860,11 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="4"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="4"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5794,9 +5889,11 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="4"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="4"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5821,9 +5918,11 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="4"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="4"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5848,9 +5947,11 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="4"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="4"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5875,9 +5976,11 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="4"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="4"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5902,9 +6005,11 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="4"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="4"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5929,9 +6034,11 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="4"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="4"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5956,9 +6063,11 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="4"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="4"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5983,9 +6092,11 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="4"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="4"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -6010,9 +6121,11 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="4"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="4"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -6037,9 +6150,11 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="4"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="4"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -6064,9 +6179,11 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="4"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="4"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -6091,9 +6208,11 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="4"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="4"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -6118,9 +6237,11 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="4"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="4"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -6145,9 +6266,11 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="4"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="4"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -6172,9 +6295,11 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
-      <c r="W52" s="4"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="4"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -6199,9 +6324,11 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="4"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="4"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -6226,9 +6353,11 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="4"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="4"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -6253,9 +6382,11 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
-      <c r="W55" s="4"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="4"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -6280,9 +6411,11 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-      <c r="W56" s="4"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="4"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -6307,9 +6440,11 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="4"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="4"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -6334,9 +6469,11 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-      <c r="W58" s="4"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="4"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -6361,9 +6498,11 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="4"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="4"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -6388,9 +6527,11 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-      <c r="W60" s="4"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="4"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -6415,9 +6556,11 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-      <c r="W61" s="4"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="4"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6442,9 +6585,11 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="4"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="4"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6469,9 +6614,11 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-      <c r="W63" s="4"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="4"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6496,9 +6643,11 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
-      <c r="W64" s="4"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="4"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6523,9 +6672,11 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
-      <c r="W65" s="4"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="4"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6550,9 +6701,11 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
-      <c r="W66" s="4"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="4"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6577,9 +6730,11 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
-      <c r="W67" s="4"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="4"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6604,9 +6759,11 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
-      <c r="W68" s="4"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="4"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6631,9 +6788,11 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
-      <c r="W69" s="4"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="4"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6658,9 +6817,11 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
-      <c r="W70" s="4"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="4"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6685,9 +6846,11 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
-      <c r="W71" s="4"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="4"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6712,9 +6875,11 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
-      <c r="W72" s="4"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="4"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6739,9 +6904,11 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
-      <c r="W73" s="4"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="4"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6766,9 +6933,11 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
-      <c r="W74" s="4"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="4"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6793,9 +6962,11 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
-      <c r="W75" s="4"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="4"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6820,9 +6991,11 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
-      <c r="W76" s="4"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="4"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6847,9 +7020,11 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
-      <c r="W77" s="4"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="4"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6874,9 +7049,11 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
-      <c r="W78" s="4"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="4"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6901,9 +7078,11 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
-      <c r="W79" s="4"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="4"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6928,9 +7107,11 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
-      <c r="W80" s="4"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="4"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6955,9 +7136,11 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
-      <c r="W81" s="4"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="4"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6982,9 +7165,11 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
-      <c r="W82" s="4"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="4"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -7009,9 +7194,11 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
-      <c r="W83" s="4"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="4"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -7036,9 +7223,11 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
-      <c r="W84" s="4"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="4"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -7063,9 +7252,11 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
-      <c r="W85" s="4"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="4"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -7090,9 +7281,11 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
-      <c r="W86" s="4"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="4"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -7117,9 +7310,11 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
-      <c r="W87" s="4"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="4"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7144,9 +7339,11 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
-      <c r="W88" s="4"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="4"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7171,9 +7368,11 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
-      <c r="W89" s="4"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="4"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7198,9 +7397,11 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
-      <c r="W90" s="4"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="4"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7225,9 +7426,11 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
-      <c r="W91" s="4"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="4"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7252,9 +7455,11 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
-      <c r="W92" s="4"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="4"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7279,9 +7484,11 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
-      <c r="W93" s="4"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="4"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7306,9 +7513,11 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
-      <c r="W94" s="4"/>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="4"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7333,9 +7542,11 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
-      <c r="W95" s="4"/>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="4"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7360,9 +7571,11 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
-      <c r="W96" s="4"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="4"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7387,11 +7600,13 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
-      <c r="W97" s="4"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sample Name" prompt="Informative sample identifier provided by submitter. Only use letters, numbers or underscores [A-Za-z0-9_], no other characters, please." sqref="C2:I20" xr:uid="{E7C77AA6-C299-C648-8E67-A4CE7EBBDD5F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sample Name" prompt="Informative sample identifier provided by submitter. Only use letters, numbers or underscores [A-Za-z0-9_], no other characters, please." sqref="C2:K20" xr:uid="{E7C77AA6-C299-C648-8E67-A4CE7EBBDD5F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7401,2389 +7616,2355 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67189DA6-CD88-43FE-A49A-1F084804927C}">
   <dimension ref="A1:AK129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P112" sqref="P112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="26.15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="4.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.9140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="5" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.58203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6.4140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.9140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.08203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="5" customWidth="1"/>
+    <col min="8" max="9" width="6.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="6.875" style="5" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="7.375" style="5" customWidth="1"/>
     <col min="14" max="14" width="8" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.08203125" style="5"/>
+    <col min="15" max="15" width="8.125" style="5"/>
     <col min="16" max="16" width="7.5" style="5" customWidth="1"/>
     <col min="17" max="17" width="6" style="5" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="5.375" style="5" customWidth="1"/>
     <col min="19" max="19" width="5" style="5" customWidth="1"/>
-    <col min="20" max="20" width="5.9140625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="5.08203125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="5" customWidth="1"/>
-    <col min="24" max="25" width="5.33203125" style="5" customWidth="1"/>
-    <col min="26" max="26" width="5.9140625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="5.875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="5.375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="5.125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="5.625" style="5" customWidth="1"/>
+    <col min="24" max="25" width="5.375" style="5" customWidth="1"/>
+    <col min="26" max="26" width="5.875" style="5" customWidth="1"/>
     <col min="27" max="27" width="6" style="5" customWidth="1"/>
-    <col min="28" max="28" width="5.6640625" style="5" customWidth="1"/>
-    <col min="29" max="29" width="5.33203125" style="5" customWidth="1"/>
-    <col min="30" max="31" width="8.08203125" style="5"/>
-    <col min="32" max="32" width="8.6640625" style="5" customWidth="1"/>
-    <col min="33" max="16384" width="8.08203125" style="5"/>
+    <col min="28" max="28" width="5.625" style="5" customWidth="1"/>
+    <col min="29" max="29" width="5.375" style="5" customWidth="1"/>
+    <col min="30" max="31" width="8.125" style="5"/>
+    <col min="32" max="32" width="8.625" style="5" customWidth="1"/>
+    <col min="33" max="16384" width="8.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
       <c r="Q1" s="6"/>
     </row>
-    <row r="2" spans="1:37" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13">
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="182">
         <v>20250108</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="184"/>
       <c r="J3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="206" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="13">
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="182">
         <v>3400005192</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="L4" s="17" t="s">
+      <c r="H4" s="183"/>
+      <c r="I4" s="184"/>
+      <c r="L4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="13">
         <v>1</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="AK4" s="21"/>
-    </row>
-    <row r="5" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+      <c r="O4" s="201"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="AK4" s="14"/>
+    </row>
+    <row r="5" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="13" t="s">
+      <c r="B5" s="192"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="K5" s="23" t="s">
+      <c r="H5" s="183"/>
+      <c r="I5" s="184"/>
+      <c r="K5" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="18" t="s">
+      <c r="L5" s="203"/>
+      <c r="M5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AK5" s="21"/>
-    </row>
-    <row r="6" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25" t="s">
+      <c r="AK5" s="14"/>
+    </row>
+    <row r="6" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="13" t="s">
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="AK6" s="21"/>
-    </row>
-    <row r="7" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
+      <c r="H6" s="183"/>
+      <c r="I6" s="184"/>
+      <c r="AK6" s="14"/>
+    </row>
+    <row r="7" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="13">
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="182">
         <v>3100001206</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="AK7" s="21"/>
-    </row>
-    <row r="8" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="25" t="s">
+      <c r="H7" s="183"/>
+      <c r="I7" s="184"/>
+      <c r="AK7" s="14"/>
+    </row>
+    <row r="8" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="13">
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="182">
         <v>2500004795</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="26" t="s">
+      <c r="H8" s="183"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="13">
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="182">
         <v>2500003856</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-      <c r="AK8" s="21"/>
-    </row>
-    <row r="9" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="22" t="s">
+      <c r="O8" s="183"/>
+      <c r="P8" s="184"/>
+      <c r="AK8" s="14"/>
+    </row>
+    <row r="9" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="13">
+      <c r="B9" s="192"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="182">
         <v>2500005946</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="29" t="s">
+      <c r="H9" s="183"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="193" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="13">
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="182">
         <v>2500005110</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="AK9" s="21"/>
-    </row>
-    <row r="10" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
+      <c r="O9" s="183"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="AK9" s="14"/>
+    </row>
+    <row r="10" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="33" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
+      <c r="H10" s="197"/>
+      <c r="I10" s="198"/>
+    </row>
+    <row r="11" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="13" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="36" t="s">
+      <c r="H11" s="183"/>
+      <c r="I11" s="184"/>
+    </row>
+    <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37" t="s">
+      <c r="B12" s="185"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
-    </row>
-    <row r="13" spans="1:37" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="40" t="s">
+      <c r="H12" s="187"/>
+      <c r="I12" s="188"/>
+    </row>
+    <row r="13" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17">
         <v>8</v>
       </c>
-      <c r="F13" s="42" t="b">
+      <c r="F13" s="18" t="b">
         <f>MOD(E13,8)=0</f>
         <v>1</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="18">
         <f>ROUNDDOWN((E13/8),0)</f>
         <v>1</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="18">
         <f>E13-G13*8</f>
         <v>0</v>
       </c>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:37" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="43" t="s">
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:37" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
-    </row>
-    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47" t="s">
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="191"/>
+    </row>
+    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49" t="s">
+    <row r="16" spans="1:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="50" cm="1">
+      <c r="C16" s="23" cm="1">
         <f t="array" ref="C16:R16">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!$C$2:$C$17))</f>
         <v>0</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="24">
         <v>0</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="23">
         <v>0</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="24">
         <v>0</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="23">
         <v>0</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="24">
         <v>0</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="23">
         <v>0</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="24">
         <v>0</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="23">
         <v>0</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="24">
         <v>0</v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="23">
         <v>0</v>
       </c>
-      <c r="N16" s="51">
+      <c r="N16" s="24">
         <v>0</v>
       </c>
-      <c r="O16" s="50">
+      <c r="O16" s="23">
         <v>0</v>
       </c>
-      <c r="P16" s="51">
+      <c r="P16" s="24">
         <v>0</v>
       </c>
-      <c r="Q16" s="50">
+      <c r="Q16" s="23">
         <v>0</v>
       </c>
-      <c r="R16" s="51">
+      <c r="R16" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="48"/>
-      <c r="B17" s="52" t="s">
+    <row r="17" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="53" cm="1">
-        <f t="array" ref="C17:R17">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!G2:G17))</f>
+      <c r="C17" s="26" cm="1">
+        <f t="array" ref="C17:R17">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!I2:I17))</f>
         <v>0</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="26">
         <v>0</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="26">
         <v>0</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="26">
         <v>0</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="26">
         <v>0</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="26">
         <v>0</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="26">
         <v>0</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="26">
         <v>0</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="26">
         <v>0</v>
       </c>
-      <c r="L17" s="53">
+      <c r="L17" s="26">
         <v>0</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="26">
         <v>0</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="26">
         <v>0</v>
       </c>
-      <c r="O17" s="53">
+      <c r="O17" s="26">
         <v>0</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="26">
         <v>0</v>
       </c>
-      <c r="Q17" s="53">
+      <c r="Q17" s="26">
         <v>0</v>
       </c>
-      <c r="R17" s="53">
+      <c r="R17" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="48"/>
-      <c r="B18" s="52" t="s">
+    <row r="18" spans="1:18" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="53" cm="1">
-        <f t="array" ref="C18:R18">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!H2:H17))</f>
+      <c r="C18" s="26" cm="1">
+        <f t="array" ref="C18:R18">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!J2:J17))</f>
         <v>0</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="26">
         <v>0</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="26">
         <v>0</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="26">
         <v>0</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="26">
         <v>0</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="26">
         <v>0</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="26">
         <v>0</v>
       </c>
-      <c r="J18" s="53">
+      <c r="J18" s="26">
         <v>0</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="26">
         <v>0</v>
       </c>
-      <c r="L18" s="53">
+      <c r="L18" s="26">
         <v>0</v>
       </c>
-      <c r="M18" s="53">
+      <c r="M18" s="26">
         <v>0</v>
       </c>
-      <c r="N18" s="53">
+      <c r="N18" s="26">
         <v>0</v>
       </c>
-      <c r="O18" s="53">
+      <c r="O18" s="26">
         <v>0</v>
       </c>
-      <c r="P18" s="53">
+      <c r="P18" s="26">
         <v>0</v>
       </c>
-      <c r="Q18" s="53">
+      <c r="Q18" s="26">
         <v>0</v>
       </c>
-      <c r="R18" s="53">
+      <c r="R18" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="48"/>
-      <c r="B19" s="54" t="s">
+    <row r="19" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
-    </row>
-    <row r="20" spans="1:18" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47" t="str">
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="133"/>
+    </row>
+    <row r="20" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20" t="str">
         <f>IF($F$13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*SUM(F23:F24)/8*1.1)," µL of Frag MM into each well of column 1 of MM plate"),CONCATENATE("Pipet ",(($G$13+1)*SUM((F23:F24))*1.1)," µL of FS1 into first ",$H$13," wells and ",(($G$13)*(SUM(F23:F24))*1.1)," µL into the other wells of MM plate column 1"))</f>
         <v>Pipet 11.00 µL of Frag MM into each well of column 1 of MM plate</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="M20" s="32"/>
-      <c r="O20" s="57"/>
-    </row>
-    <row r="21" spans="1:18" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="48"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="58" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="M20" s="15"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="59" t="str">
+      <c r="G21" s="158" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for 8 samples</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="O21" s="57"/>
-    </row>
-    <row r="22" spans="1:18" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47" t="s">
+      <c r="H21" s="158"/>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="40">
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="16">
         <v>40</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="61" t="s">
+      <c r="H22" s="87"/>
+      <c r="I22" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="O22" s="57"/>
-    </row>
-    <row r="23" spans="1:18" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="62" t="s">
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="40">
+      <c r="D23" s="177"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="16">
         <v>4</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="87">
         <f>F23*1.1*$E$13</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="61" t="s">
+      <c r="H23" s="87"/>
+      <c r="I23" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="O23" s="57"/>
-      <c r="Q23" s="47"/>
-    </row>
-    <row r="24" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="48"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="65" t="s">
+      <c r="O23" s="27"/>
+      <c r="Q23" s="20"/>
+    </row>
+    <row r="24" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68">
+      <c r="D24" s="180"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="30">
         <v>6</v>
       </c>
-      <c r="G24" s="69">
+      <c r="G24" s="149">
         <f>F24*1.1*$E$13</f>
         <v>52.800000000000004</v>
       </c>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70" t="s">
+      <c r="H24" s="149"/>
+      <c r="I24" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="O24" s="57"/>
-    </row>
-    <row r="25" spans="1:18" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="48"/>
-      <c r="C25" s="71" t="s">
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="C25" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74">
+      <c r="D25" s="164"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="32">
         <f>SUM(F22:F24)</f>
         <v>50</v>
       </c>
-      <c r="G25" s="75" t="s">
+      <c r="G25" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="74" t="s">
+      <c r="H25" s="150"/>
+      <c r="I25" s="32" t="s">
         <v>50</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="57"/>
-    </row>
-    <row r="26" spans="1:18" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47" t="s">
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="47" t="s">
+      <c r="E26" s="171"/>
+      <c r="F26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O26" s="57"/>
-    </row>
-    <row r="27" spans="1:18" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="48"/>
-      <c r="B27" s="47"/>
-      <c r="D27" s="77" t="s">
+      <c r="O26" s="27"/>
+    </row>
+    <row r="27" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="D27" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="O27" s="57"/>
-    </row>
-    <row r="28" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="48"/>
-      <c r="B28" s="78" t="s">
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="80"/>
-    </row>
-    <row r="29" spans="1:18" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47" t="str">
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="94"/>
+    </row>
+    <row r="29" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="str">
         <f>IF($F$13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*E34/8*1.1)," µL  of L into each well of column 2 of MM plate"),CONCATENATE("Pipet ",FIXED(($G$13+1)*E34*1.1)," µL of L into first ",$H$13," wells and ",FIXED(($G$13)*E34*1.1)," µL into the other wells of MM plate column 2"))</f>
         <v>Pipet 22.00 µL  of L into each well of column 2 of MM plate</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-    </row>
-    <row r="30" spans="1:18" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47" t="str">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20" t="str">
         <f>IF($F$13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*E33/8*1.1)," µL  of A into each well of column 2 of MM plate"),CONCATENATE("Pipet ",FIXED(($G$13+1)*E33*1.1)," µL of A into first ",$H$13," wells and ",FIXED(($G$13)*E33*1.1)," µL into the other wells of MM plate column 2"))</f>
         <v>Pipet 5.50 µL  of A into each well of column 2 of MM plate</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-    </row>
-    <row r="31" spans="1:18" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:18" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="58" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="59" t="str">
+      <c r="F31" s="158" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for 8 samples</v>
       </c>
-      <c r="G31" s="59"/>
-      <c r="I31" s="81" t="s">
+      <c r="G31" s="158"/>
+      <c r="I31" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="M31" s="82" t="s">
+      <c r="M31" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="83" t="str">
+      <c r="N31" s="173" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for 8 samples</v>
       </c>
-      <c r="O31" s="84"/>
-    </row>
-    <row r="32" spans="1:18" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="48"/>
-      <c r="B32" s="85" t="s">
+      <c r="O31" s="174"/>
+    </row>
+    <row r="32" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="40">
+      <c r="C32" s="169"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="16">
         <v>50</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="61" t="s">
+      <c r="G32" s="87"/>
+      <c r="H32" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J32" s="86" t="s">
+      <c r="J32" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="87">
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="35">
         <v>50</v>
       </c>
-      <c r="N32" s="88" t="s">
+      <c r="N32" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="89"/>
-      <c r="P32" s="90" t="s">
+      <c r="O32" s="162"/>
+      <c r="P32" s="36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="48"/>
-      <c r="B33" s="91" t="s">
+    <row r="33" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="40">
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="16">
         <v>5</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="87">
         <f>E33*1.1*$E$13</f>
         <v>44</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="61" t="s">
+      <c r="G33" s="87"/>
+      <c r="H33" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="86" t="s">
+      <c r="J33" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="87">
+      <c r="K33" s="160"/>
+      <c r="L33" s="160"/>
+      <c r="M33" s="35">
         <v>3</v>
       </c>
-      <c r="N33" s="88">
+      <c r="N33" s="161">
         <f>M33*1.1*$E$13</f>
         <v>26.400000000000002</v>
       </c>
-      <c r="O33" s="89"/>
-      <c r="P33" s="90" t="s">
+      <c r="O33" s="162"/>
+      <c r="P33" s="36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="48"/>
-      <c r="B34" s="92" t="s">
+    <row r="34" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="68">
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="30">
         <v>20</v>
       </c>
-      <c r="F34" s="69">
+      <c r="F34" s="149">
         <f>E34*1.1*$E$13</f>
         <v>176</v>
       </c>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70" t="s">
+      <c r="G34" s="149"/>
+      <c r="H34" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="93" t="s">
+      <c r="I34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="86" t="s">
+      <c r="J34" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="87">
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="35">
         <v>2</v>
       </c>
-      <c r="N34" s="88">
+      <c r="N34" s="161">
         <f>M34*1.1*$E$13</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="O34" s="89"/>
-      <c r="P34" s="90" t="s">
+      <c r="O34" s="162"/>
+      <c r="P34" s="36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="48"/>
-      <c r="B35" s="71" t="s">
+    <row r="35" spans="1:16" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74">
+      <c r="C35" s="164"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="32">
         <f>SUM(E32:E34)</f>
         <v>75</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="75"/>
-      <c r="H35" s="74" t="s">
+      <c r="G35" s="150"/>
+      <c r="H35" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="94" t="s">
+      <c r="J35" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="95">
+      <c r="K35" s="166"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="37">
         <v>20</v>
       </c>
-      <c r="N35" s="96">
+      <c r="N35" s="167">
         <f>M35*1.1*$E$13</f>
         <v>176</v>
       </c>
-      <c r="O35" s="97"/>
-      <c r="P35" s="98" t="s">
+      <c r="O35" s="168"/>
+      <c r="P35" s="38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="46"/>
-      <c r="B36" s="99" t="s">
+    <row r="36" spans="1:16" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="101" t="s">
+      <c r="J36" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="102">
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="41">
         <v>25</v>
       </c>
-      <c r="N36" s="103" t="s">
+      <c r="N36" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="O36" s="104"/>
-      <c r="P36" s="105" t="s">
+      <c r="O36" s="154"/>
+      <c r="P36" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="48"/>
-      <c r="D37" s="100" t="s">
+    <row r="37" spans="1:16" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="D37" s="40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="32"/>
-      <c r="B38" s="106" t="s">
+    <row r="38" spans="1:16" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107"/>
-      <c r="O38" s="108"/>
-    </row>
-    <row r="39" spans="1:16" s="47" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="109"/>
-      <c r="B39" s="47" t="s">
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="91"/>
+    </row>
+    <row r="39" spans="1:16" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43"/>
+      <c r="B39" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="47" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="48"/>
-      <c r="B40" s="110" t="s">
+    <row r="40" spans="1:16" s="20" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="112"/>
-    </row>
-    <row r="41" spans="1:16" s="47" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="109"/>
-      <c r="B41" s="47" t="str">
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="156"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="156"/>
+      <c r="N40" s="156"/>
+      <c r="O40" s="157"/>
+    </row>
+    <row r="41" spans="1:16" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="20" t="str">
         <f>IF($F$13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*E45/8*1.1)," µL of Equinox Library Amp Mix into each well of column 3 of MM plate"),CONCATENATE("Pipet ",FIXED(($G$13+1)*E45*1.1)," µL of Equinox Library Amp Mix into first ",$H$13," wells and ",FIXED(($G$13)*E45*1.1)," µL into the other wells of MM plate column 3"))</f>
         <v>Pipet 27.50 µL of Equinox Library Amp Mix into each well of column 3 of MM plate</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="32.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47" t="s">
+    <row r="42" spans="1:16" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="59" t="str">
+      <c r="F42" s="158" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for 8 samples</v>
       </c>
-      <c r="G42" s="59"/>
-    </row>
-    <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="48"/>
-      <c r="B43" s="113" t="s">
+      <c r="G42" s="158"/>
+    </row>
+    <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="116">
+      <c r="C43" s="119"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="44">
         <v>15</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="61" t="s">
+      <c r="G43" s="87"/>
+      <c r="H43" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="48"/>
-      <c r="B44" s="117" t="s">
+    <row r="44" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="120">
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="45">
         <v>10</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="61" t="s">
+      <c r="G44" s="87"/>
+      <c r="H44" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="48"/>
-      <c r="B45" s="121" t="s">
+    <row r="45" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="122"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="68">
+      <c r="C45" s="147"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="30">
         <v>25</v>
       </c>
-      <c r="F45" s="69">
+      <c r="F45" s="149">
         <f>E45*1.1*$E$13</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="G45" s="69"/>
-      <c r="H45" s="124" t="s">
+      <c r="G45" s="149"/>
+      <c r="H45" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="48"/>
-      <c r="E46" s="125">
+    <row r="46" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="E46" s="47">
         <v>50</v>
       </c>
-      <c r="F46" s="75" t="s">
+      <c r="F46" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="75"/>
-      <c r="H46" s="126" t="s">
+      <c r="G46" s="150"/>
+      <c r="H46" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="127" t="s">
+      <c r="I46" s="49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="128"/>
-      <c r="B47" s="99" t="s">
+    <row r="47" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="39" t="s">
         <v>74</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K47" s="129"/>
-    </row>
-    <row r="48" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="48"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="131">
+      <c r="K47" s="51"/>
+    </row>
+    <row r="48" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="53">
         <v>1</v>
       </c>
-      <c r="D48" s="131">
+      <c r="D48" s="53">
         <v>2</v>
       </c>
-      <c r="E48" s="131">
+      <c r="E48" s="53">
         <v>3</v>
       </c>
-      <c r="F48" s="131">
+      <c r="F48" s="53">
         <v>4</v>
       </c>
-      <c r="G48" s="131">
+      <c r="G48" s="53">
         <v>5</v>
       </c>
-      <c r="H48" s="131">
+      <c r="H48" s="53">
         <v>6</v>
       </c>
-      <c r="I48" s="131">
+      <c r="I48" s="53">
         <v>7</v>
       </c>
-      <c r="J48" s="131">
+      <c r="J48" s="53">
         <v>8</v>
       </c>
-      <c r="K48" s="131">
+      <c r="K48" s="53">
         <v>9</v>
       </c>
-      <c r="L48" s="131">
+      <c r="L48" s="53">
         <v>10</v>
       </c>
-      <c r="M48" s="131">
+      <c r="M48" s="53">
         <v>11</v>
       </c>
-      <c r="N48" s="131">
+      <c r="N48" s="53">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="48"/>
-      <c r="B49" s="132" t="s">
+    <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="133"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="133"/>
-      <c r="M49" s="133"/>
-      <c r="N49" s="133"/>
-    </row>
-    <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="132" t="s">
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+    </row>
+    <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="133"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="133"/>
-      <c r="N50" s="133"/>
-    </row>
-    <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="132" t="s">
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+    </row>
+    <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="133"/>
-      <c r="M51" s="133"/>
-      <c r="N51" s="133"/>
-    </row>
-    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.4">
-      <c r="B52" s="132" t="s">
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="133"/>
-      <c r="N52" s="133"/>
-    </row>
-    <row r="53" spans="1:15" ht="16" x14ac:dyDescent="0.4">
-      <c r="B53" s="132" t="s">
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="133"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="133"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="133"/>
-      <c r="M53" s="133"/>
-      <c r="N53" s="133"/>
-    </row>
-    <row r="54" spans="1:15" ht="16" x14ac:dyDescent="0.4">
-      <c r="B54" s="132" t="s">
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="133"/>
-      <c r="L54" s="133"/>
-      <c r="M54" s="133"/>
-      <c r="N54" s="133"/>
-    </row>
-    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.4">
-      <c r="B55" s="132" t="s">
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="133"/>
-      <c r="D55" s="133"/>
-      <c r="E55" s="133"/>
-      <c r="F55" s="133"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="133"/>
-      <c r="L55" s="133"/>
-      <c r="M55" s="133"/>
-      <c r="N55" s="133"/>
-    </row>
-    <row r="56" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="132" t="s">
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+    </row>
+    <row r="56" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="133"/>
-      <c r="M56" s="133"/>
-      <c r="N56" s="133"/>
-    </row>
-    <row r="57" spans="1:15" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="46"/>
-      <c r="B57" s="47" t="s">
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55"/>
+    </row>
+    <row r="57" spans="1:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="134"/>
-      <c r="G57" s="135" t="s">
+      <c r="F57" s="56"/>
+      <c r="G57" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="135"/>
-      <c r="J57" s="32"/>
-    </row>
-    <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.4">
-      <c r="A58" s="48"/>
-      <c r="G58" s="136" t="s">
+      <c r="H57" s="151"/>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="G58" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="H58" s="137"/>
-      <c r="I58" s="138" t="s">
+      <c r="H58" s="135"/>
+      <c r="I58" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="J58" s="139"/>
-    </row>
-    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.4">
-      <c r="A59" s="48"/>
-      <c r="G59" s="136" t="s">
+      <c r="J58" s="137"/>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="G59" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="H59" s="137"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="141"/>
-    </row>
-    <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.4">
-      <c r="A60" s="48"/>
-      <c r="G60" s="136" t="s">
+      <c r="H59" s="135"/>
+      <c r="I59" s="138"/>
+      <c r="J59" s="139"/>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="G60" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="H60" s="137"/>
-      <c r="I60" s="142"/>
-      <c r="J60" s="143"/>
-    </row>
-    <row r="61" spans="1:15" ht="16" x14ac:dyDescent="0.4">
-      <c r="A61" s="48"/>
-      <c r="G61" s="144" t="s">
+      <c r="H60" s="135"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="141"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="G61" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="H61" s="144"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-    </row>
-    <row r="62" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G62" s="145" t="s">
+      <c r="H61" s="142"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="H62" s="145"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-    </row>
-    <row r="63" spans="1:15" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="32"/>
-      <c r="B63" s="106" t="s">
+      <c r="H62" s="88"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+    </row>
+    <row r="63" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15"/>
+      <c r="B63" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="108"/>
-    </row>
-    <row r="64" spans="1:15" s="47" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="109"/>
-      <c r="B64" s="47" t="s">
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="91"/>
+    </row>
+    <row r="64" spans="1:15" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="43"/>
+      <c r="B64" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="128"/>
-      <c r="B65" s="78" t="s">
+    <row r="65" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="50"/>
+      <c r="B65" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="146"/>
-      <c r="D65" s="146"/>
-      <c r="E65" s="146"/>
-      <c r="F65" s="146"/>
-      <c r="G65" s="146"/>
-      <c r="H65" s="146"/>
-      <c r="I65" s="146"/>
-      <c r="J65" s="146"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="146"/>
-      <c r="M65" s="146"/>
-      <c r="N65" s="146"/>
-      <c r="O65" s="147"/>
-    </row>
-    <row r="66" spans="1:19" s="47" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="109"/>
-      <c r="B66" s="148" t="s">
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="124"/>
+      <c r="J65" s="124"/>
+      <c r="K65" s="124"/>
+      <c r="L65" s="124"/>
+      <c r="M65" s="124"/>
+      <c r="N65" s="124"/>
+      <c r="O65" s="125"/>
+    </row>
+    <row r="66" spans="1:19" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="43"/>
+      <c r="B66" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="149" t="s">
+      <c r="C66" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="40" cm="1">
+      <c r="D66" s="16" cm="1">
         <f t="array" ref="D66:S66">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!$C$3:$C$18))</f>
         <v>0</v>
       </c>
-      <c r="E66" s="40">
+      <c r="E66" s="16">
         <v>0</v>
       </c>
-      <c r="F66" s="40">
+      <c r="F66" s="16">
         <v>0</v>
       </c>
-      <c r="G66" s="40">
+      <c r="G66" s="16">
         <v>0</v>
       </c>
-      <c r="H66" s="40">
+      <c r="H66" s="16">
         <v>0</v>
       </c>
-      <c r="I66" s="40">
+      <c r="I66" s="16">
         <v>0</v>
       </c>
-      <c r="J66" s="40">
+      <c r="J66" s="16">
         <v>0</v>
       </c>
-      <c r="K66" s="40">
+      <c r="K66" s="16">
         <v>0</v>
       </c>
-      <c r="L66" s="40">
+      <c r="L66" s="16">
         <v>0</v>
       </c>
-      <c r="M66" s="40">
+      <c r="M66" s="16">
         <v>0</v>
       </c>
-      <c r="N66" s="40">
+      <c r="N66" s="16">
         <v>0</v>
       </c>
-      <c r="O66" s="40">
+      <c r="O66" s="16">
         <v>0</v>
       </c>
-      <c r="P66" s="40">
+      <c r="P66" s="16">
         <v>0</v>
       </c>
-      <c r="Q66" s="40">
+      <c r="Q66" s="16">
         <v>0</v>
       </c>
-      <c r="R66" s="40">
+      <c r="R66" s="16">
         <v>0</v>
       </c>
-      <c r="S66" s="40">
+      <c r="S66" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" s="47" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="150"/>
-      <c r="C67" s="151" t="s">
+    <row r="67" spans="1:19" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="59"/>
+      <c r="C67" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D67" s="152"/>
-      <c r="E67" s="152"/>
-      <c r="F67" s="152"/>
-      <c r="G67" s="152"/>
-      <c r="H67" s="152"/>
-      <c r="I67" s="152"/>
-      <c r="J67" s="152"/>
-      <c r="K67" s="152"/>
-      <c r="L67" s="151"/>
-      <c r="M67" s="151"/>
-      <c r="N67" s="151"/>
-      <c r="O67" s="151"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-    </row>
-    <row r="68" spans="1:19" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="153" t="s">
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="60"/>
+      <c r="N67" s="60"/>
+      <c r="O67" s="60"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+    </row>
+    <row r="68" spans="1:19" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="154"/>
-      <c r="C68" s="154"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="154"/>
-      <c r="G68" s="154"/>
-      <c r="H68" s="154"/>
-      <c r="I68" s="154"/>
-      <c r="J68" s="154"/>
-      <c r="K68" s="154"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="154"/>
-      <c r="N68" s="154"/>
-      <c r="O68" s="155"/>
-      <c r="P68" s="156" t="s">
+      <c r="B68" s="127"/>
+      <c r="C68" s="127"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="127"/>
+      <c r="H68" s="127"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="127"/>
+      <c r="K68" s="127"/>
+      <c r="L68" s="127"/>
+      <c r="M68" s="127"/>
+      <c r="N68" s="127"/>
+      <c r="O68" s="128"/>
+      <c r="P68" s="62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="157"/>
-      <c r="B69" s="158" t="s">
+    <row r="69" spans="1:19" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="63"/>
+      <c r="B69" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="159"/>
-      <c r="D69" s="159"/>
-      <c r="E69" s="159"/>
-      <c r="F69" s="159"/>
-      <c r="G69" s="159"/>
-      <c r="H69" s="159"/>
-      <c r="I69" s="159"/>
-      <c r="J69" s="159"/>
-      <c r="K69" s="159"/>
-      <c r="L69" s="159"/>
-      <c r="M69" s="159"/>
-      <c r="N69" s="159"/>
-      <c r="O69" s="159"/>
-    </row>
-    <row r="70" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="160"/>
-      <c r="B70" s="47" t="s">
+      <c r="C69" s="130"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="130"/>
+      <c r="J69" s="130"/>
+      <c r="K69" s="130"/>
+      <c r="L69" s="130"/>
+      <c r="M69" s="130"/>
+      <c r="N69" s="130"/>
+      <c r="O69" s="130"/>
+    </row>
+    <row r="70" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="64"/>
+      <c r="B70" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47" t="s">
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="O70" s="129"/>
-    </row>
-    <row r="71" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="32"/>
-      <c r="B71" s="54" t="s">
+      <c r="O70" s="51"/>
+    </row>
+    <row r="71" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15"/>
+      <c r="B71" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="55"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="56"/>
-    </row>
-    <row r="72" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="160"/>
-      <c r="B72" s="161" t="s">
+      <c r="C71" s="132"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="132"/>
+      <c r="F71" s="132"/>
+      <c r="G71" s="132"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="132"/>
+      <c r="J71" s="132"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="132"/>
+      <c r="M71" s="132"/>
+      <c r="N71" s="132"/>
+      <c r="O71" s="133"/>
+    </row>
+    <row r="72" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="64"/>
+      <c r="B72" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="161"/>
-      <c r="D72" s="161"/>
-      <c r="E72" s="161"/>
-      <c r="F72" s="161"/>
-      <c r="G72" s="161"/>
-      <c r="H72" s="161"/>
-      <c r="I72" s="161"/>
-      <c r="J72" s="161"/>
-      <c r="K72" s="161"/>
-      <c r="L72" s="161"/>
-      <c r="M72" s="161"/>
-      <c r="N72" s="32"/>
-    </row>
-    <row r="73" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="46"/>
-      <c r="B73" s="162" t="s">
+      <c r="C72" s="109"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="109"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="109"/>
+      <c r="L72" s="109"/>
+      <c r="M72" s="109"/>
+      <c r="N72" s="15"/>
+    </row>
+    <row r="73" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="161"/>
-      <c r="D73" s="161"/>
-      <c r="E73" s="113" t="s">
+      <c r="C73" s="109"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="114"/>
-      <c r="G73" s="115"/>
-      <c r="H73" s="163">
+      <c r="F73" s="119"/>
+      <c r="G73" s="120"/>
+      <c r="H73" s="65">
         <v>20</v>
       </c>
-      <c r="I73" s="164" t="s">
+      <c r="I73" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J73" s="32"/>
-    </row>
-    <row r="74" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="48"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="165" t="s">
+      <c r="J73" s="15"/>
+    </row>
+    <row r="74" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="166"/>
-      <c r="G74" s="167"/>
-      <c r="H74" s="168">
+      <c r="F74" s="122"/>
+      <c r="G74" s="123"/>
+      <c r="H74" s="66">
         <v>4</v>
       </c>
-      <c r="I74" s="164" t="s">
+      <c r="I74" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="48"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="165" t="s">
+      <c r="J74" s="15"/>
+    </row>
+    <row r="75" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="F75" s="166"/>
-      <c r="G75" s="167"/>
-      <c r="H75" s="169">
+      <c r="F75" s="122"/>
+      <c r="G75" s="123"/>
+      <c r="H75" s="67">
         <v>4</v>
       </c>
-      <c r="I75" s="164" t="s">
+      <c r="I75" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J75" s="32"/>
-    </row>
-    <row r="76" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="48"/>
-      <c r="H76" s="164">
+      <c r="J75" s="15"/>
+    </row>
+    <row r="76" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="21"/>
+      <c r="H76" s="8">
         <v>28</v>
       </c>
-      <c r="I76" s="164" t="s">
+      <c r="I76" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J76" s="32"/>
-    </row>
-    <row r="77" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="46"/>
-      <c r="B77" s="99" t="s">
+      <c r="J76" s="15"/>
+    </row>
+    <row r="77" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19"/>
+      <c r="B77" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="145" t="s">
+      <c r="D77" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="145"/>
-      <c r="F77" s="170"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-    </row>
-    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.4">
-      <c r="A78" s="48"/>
-      <c r="D78" s="145" t="s">
+      <c r="E77" s="88"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+    </row>
+    <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="D78" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="E78" s="145"/>
-      <c r="F78" s="170"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-    </row>
-    <row r="79" spans="1:19" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="48"/>
-      <c r="D79" s="145" t="s">
+      <c r="E78" s="88"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+    </row>
+    <row r="79" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="21"/>
+      <c r="D79" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E79" s="145"/>
-      <c r="F79" s="170"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-    </row>
-    <row r="80" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="46"/>
-      <c r="B80" s="47" t="s">
+      <c r="E79" s="88"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C80" s="113" t="s">
+      <c r="C80" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="114"/>
-      <c r="E80" s="115"/>
-      <c r="F80" s="163" t="s">
+      <c r="D80" s="119"/>
+      <c r="E80" s="120"/>
+      <c r="F80" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="G80" s="164" t="s">
+      <c r="G80" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I80" s="32"/>
-    </row>
-    <row r="81" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="48"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="165" t="s">
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="21"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="166"/>
-      <c r="E81" s="167"/>
-      <c r="F81" s="168">
+      <c r="D81" s="122"/>
+      <c r="E81" s="123"/>
+      <c r="F81" s="66">
         <v>5</v>
       </c>
-      <c r="G81" s="171" t="s">
+      <c r="G81" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="I81" s="32"/>
-    </row>
-    <row r="82" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="48"/>
-      <c r="C82" s="165" t="s">
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="21"/>
+      <c r="C82" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="166"/>
-      <c r="E82" s="167"/>
-      <c r="F82" s="169">
+      <c r="D82" s="122"/>
+      <c r="E82" s="123"/>
+      <c r="F82" s="67">
         <v>7</v>
       </c>
-      <c r="G82" s="171" t="s">
+      <c r="G82" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="I82" s="32"/>
-    </row>
-    <row r="83" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="48"/>
-      <c r="F83" s="164">
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="21"/>
+      <c r="F83" s="8">
         <v>12</v>
       </c>
-      <c r="G83" s="172" t="s">
+      <c r="G83" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="H83" s="127" t="s">
+      <c r="H83" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I83" s="32"/>
-    </row>
-    <row r="84" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="46"/>
-      <c r="B84" s="99" t="s">
+      <c r="I83" s="15"/>
+    </row>
+    <row r="84" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19"/>
+      <c r="B84" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D84" s="173" t="s">
+      <c r="D84" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="E84" s="173"/>
-      <c r="F84" s="170"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-    </row>
-    <row r="85" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="48"/>
-      <c r="D85" s="173" t="s">
+      <c r="E84" s="107"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+    </row>
+    <row r="85" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="21"/>
+      <c r="D85" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="E85" s="173"/>
-      <c r="F85" s="170"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-    </row>
-    <row r="86" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="46"/>
-      <c r="B86" s="162" t="s">
+      <c r="E85" s="107"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+    </row>
+    <row r="86" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="19"/>
+      <c r="B86" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="161"/>
-      <c r="D86" s="161"/>
-      <c r="E86" s="161"/>
-      <c r="F86" s="161"/>
-      <c r="G86" s="161"/>
-      <c r="H86" s="161"/>
-      <c r="I86" s="161"/>
-      <c r="J86" s="161"/>
-      <c r="K86" s="161"/>
-      <c r="L86" s="161"/>
-      <c r="M86" s="161"/>
-      <c r="N86" s="161"/>
-      <c r="O86" s="161"/>
-    </row>
-    <row r="87" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="46"/>
-      <c r="B87" s="161" t="s">
+      <c r="C86" s="109"/>
+      <c r="D86" s="109"/>
+      <c r="E86" s="109"/>
+      <c r="F86" s="109"/>
+      <c r="G86" s="109"/>
+      <c r="H86" s="109"/>
+      <c r="I86" s="109"/>
+      <c r="J86" s="109"/>
+      <c r="K86" s="109"/>
+      <c r="L86" s="109"/>
+      <c r="M86" s="109"/>
+      <c r="N86" s="109"/>
+      <c r="O86" s="109"/>
+    </row>
+    <row r="87" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19"/>
+      <c r="B87" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="C87" s="161"/>
-      <c r="D87" s="161"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="161"/>
-      <c r="G87" s="161"/>
-      <c r="H87" s="161"/>
-      <c r="I87" s="161"/>
-      <c r="J87" s="161"/>
-      <c r="K87" s="161"/>
-      <c r="L87" s="161"/>
-      <c r="M87" s="161"/>
-      <c r="N87" s="161"/>
-      <c r="O87" s="32"/>
-    </row>
-    <row r="88" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="46"/>
-      <c r="B88" s="47" t="s">
+      <c r="C87" s="109"/>
+      <c r="D87" s="109"/>
+      <c r="E87" s="109"/>
+      <c r="F87" s="109"/>
+      <c r="G87" s="109"/>
+      <c r="H87" s="109"/>
+      <c r="I87" s="109"/>
+      <c r="J87" s="109"/>
+      <c r="K87" s="109"/>
+      <c r="L87" s="109"/>
+      <c r="M87" s="109"/>
+      <c r="N87" s="109"/>
+      <c r="O87" s="15"/>
+    </row>
+    <row r="88" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="19"/>
+      <c r="B88" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="47"/>
-      <c r="L88" s="47"/>
-      <c r="M88" s="47"/>
-      <c r="N88" s="47"/>
-      <c r="O88" s="47"/>
-      <c r="P88" s="47" t="s">
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="Q88" s="174"/>
-      <c r="R88" s="175"/>
-    </row>
-    <row r="89" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="176"/>
-      <c r="B89" s="177" t="s">
+      <c r="Q88" s="110"/>
+      <c r="R88" s="111"/>
+    </row>
+    <row r="89" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="71"/>
+      <c r="B89" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="C89" s="178"/>
-      <c r="D89" s="178"/>
-      <c r="E89" s="178"/>
-      <c r="F89" s="178"/>
-      <c r="G89" s="178"/>
-      <c r="H89" s="178"/>
-      <c r="I89" s="178"/>
-      <c r="J89" s="178"/>
-      <c r="K89" s="178"/>
-      <c r="L89" s="178"/>
-      <c r="M89" s="178"/>
-      <c r="N89" s="178"/>
-      <c r="O89" s="179"/>
-    </row>
-    <row r="90" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="32"/>
-      <c r="B90" s="180" t="s">
+      <c r="C89" s="113"/>
+      <c r="D89" s="113"/>
+      <c r="E89" s="113"/>
+      <c r="F89" s="113"/>
+      <c r="G89" s="113"/>
+      <c r="H89" s="113"/>
+      <c r="I89" s="113"/>
+      <c r="J89" s="113"/>
+      <c r="K89" s="113"/>
+      <c r="L89" s="113"/>
+      <c r="M89" s="113"/>
+      <c r="N89" s="113"/>
+      <c r="O89" s="114"/>
+    </row>
+    <row r="90" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="15"/>
+      <c r="B90" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="181"/>
-      <c r="D90" s="181"/>
-      <c r="E90" s="181"/>
-      <c r="F90" s="181"/>
-      <c r="G90" s="181"/>
-      <c r="H90" s="181"/>
-      <c r="I90" s="181"/>
-      <c r="J90" s="181"/>
-      <c r="K90" s="181"/>
-      <c r="L90" s="181"/>
-      <c r="M90" s="181"/>
-      <c r="N90" s="181"/>
-      <c r="O90" s="182"/>
-    </row>
-    <row r="91" spans="1:18" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="46"/>
-      <c r="B91" s="47" t="s">
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="116"/>
+      <c r="H90" s="116"/>
+      <c r="I90" s="116"/>
+      <c r="J90" s="116"/>
+      <c r="K90" s="116"/>
+      <c r="L90" s="116"/>
+      <c r="M90" s="116"/>
+      <c r="N90" s="116"/>
+      <c r="O90" s="117"/>
+    </row>
+    <row r="91" spans="1:18" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="19"/>
+      <c r="B91" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="183" t="s">
+      <c r="C91" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="184"/>
-      <c r="E91" s="185"/>
-      <c r="F91" s="186" t="s">
+      <c r="D91" s="97"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="G91" s="187"/>
-      <c r="H91" s="188" t="s">
+      <c r="G91" s="73"/>
+      <c r="H91" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="I91" s="32"/>
-    </row>
-    <row r="92" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="48"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="189" t="s">
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="21"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="D92" s="190"/>
-      <c r="E92" s="191"/>
-      <c r="F92" s="192" t="s">
+      <c r="D92" s="100"/>
+      <c r="E92" s="101"/>
+      <c r="F92" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="G92" s="193">
+      <c r="G92" s="76">
         <f>F92*$E$13/8*1.1</f>
         <v>2.75</v>
       </c>
-      <c r="H92" s="194" t="s">
+      <c r="H92" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I92" s="32"/>
-    </row>
-    <row r="93" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="48"/>
-      <c r="C93" s="26" t="s">
+      <c r="I92" s="15"/>
+    </row>
+    <row r="93" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="21"/>
+      <c r="C93" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="D93" s="27"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="169">
+      <c r="D93" s="103"/>
+      <c r="E93" s="104"/>
+      <c r="F93" s="67">
         <v>25</v>
       </c>
-      <c r="G93" s="195">
+      <c r="G93" s="78">
         <f t="shared" ref="G93:G94" si="0">F93*$E$13/8*1.1</f>
         <v>27.500000000000004</v>
       </c>
-      <c r="H93" s="164" t="s">
+      <c r="H93" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I93" s="32"/>
-    </row>
-    <row r="94" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="48"/>
-      <c r="F94" s="164">
+      <c r="I93" s="15"/>
+    </row>
+    <row r="94" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="21"/>
+      <c r="F94" s="8">
         <v>50</v>
       </c>
-      <c r="G94" s="195">
+      <c r="G94" s="78">
         <f t="shared" si="0"/>
         <v>55.000000000000007</v>
       </c>
-      <c r="H94" s="164" t="s">
+      <c r="H94" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I94" s="127" t="s">
+      <c r="I94" s="49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="46"/>
-      <c r="B95" s="47" t="s">
+    <row r="95" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="19"/>
+      <c r="B95" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F95" s="134"/>
-      <c r="G95" s="145" t="s">
+      <c r="F95" s="56"/>
+      <c r="G95" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="H95" s="145"/>
-      <c r="J95" s="32"/>
-    </row>
-    <row r="96" spans="1:18" ht="16" x14ac:dyDescent="0.4">
-      <c r="A96" s="48"/>
-      <c r="G96" s="196" t="s">
+      <c r="H95" s="88"/>
+      <c r="J95" s="15"/>
+    </row>
+    <row r="96" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="21"/>
+      <c r="G96" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="H96" s="196"/>
-      <c r="I96" s="205" t="s">
+      <c r="H96" s="105"/>
+      <c r="I96" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="J96" s="8"/>
-    </row>
-    <row r="97" spans="1:15" ht="16" x14ac:dyDescent="0.4">
-      <c r="A97" s="48"/>
-      <c r="G97" s="196" t="s">
+      <c r="J96" s="87"/>
+    </row>
+    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
+      <c r="G97" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="H97" s="196"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-    </row>
-    <row r="98" spans="1:15" ht="16" x14ac:dyDescent="0.4">
-      <c r="A98" s="48"/>
-      <c r="G98" s="196" t="s">
+      <c r="H97" s="105"/>
+      <c r="I97" s="87"/>
+      <c r="J97" s="87"/>
+    </row>
+    <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="21"/>
+      <c r="G98" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="H98" s="196"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-    </row>
-    <row r="99" spans="1:15" ht="16" x14ac:dyDescent="0.4">
-      <c r="A99" s="48"/>
-      <c r="G99" s="145" t="s">
+      <c r="H98" s="105"/>
+      <c r="I98" s="87"/>
+      <c r="J98" s="87"/>
+    </row>
+    <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="21"/>
+      <c r="G99" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="H99" s="145"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="47"/>
-    </row>
-    <row r="100" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G100" s="145" t="s">
+      <c r="H99" s="88"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G100" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="H100" s="145"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-    </row>
-    <row r="101" spans="1:15" s="32" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="106" t="s">
+      <c r="H100" s="88"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+    </row>
+    <row r="101" spans="1:15" s="15" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C101" s="107"/>
-      <c r="D101" s="107"/>
-      <c r="E101" s="107"/>
-      <c r="F101" s="107"/>
-      <c r="G101" s="107"/>
-      <c r="H101" s="107"/>
-      <c r="I101" s="107"/>
-      <c r="J101" s="107"/>
-      <c r="K101" s="107"/>
-      <c r="L101" s="107"/>
-      <c r="M101" s="107"/>
-      <c r="N101" s="107"/>
-      <c r="O101" s="108"/>
-    </row>
-    <row r="102" spans="1:15" s="32" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="160"/>
-      <c r="B102" s="148" t="s">
+      <c r="C101" s="90"/>
+      <c r="D101" s="90"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="90"/>
+      <c r="H101" s="90"/>
+      <c r="I101" s="90"/>
+      <c r="J101" s="90"/>
+      <c r="K101" s="90"/>
+      <c r="L101" s="90"/>
+      <c r="M101" s="90"/>
+      <c r="N101" s="90"/>
+      <c r="O101" s="91"/>
+    </row>
+    <row r="102" spans="1:15" s="15" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="64"/>
+      <c r="B102" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="K102" s="148" t="s">
+      <c r="K102" s="57" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="1:15" s="32" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="128"/>
-      <c r="B103" s="78" t="s">
+    <row r="103" spans="1:15" s="15" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="50"/>
+      <c r="B103" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="79"/>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="79"/>
-      <c r="H103" s="79"/>
-      <c r="I103" s="79"/>
-      <c r="J103" s="79"/>
-      <c r="K103" s="79"/>
-      <c r="L103" s="79"/>
-      <c r="M103" s="79"/>
-      <c r="N103" s="79"/>
-      <c r="O103" s="80"/>
-    </row>
-    <row r="104" spans="1:15" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="109"/>
-      <c r="B104" s="148" t="s">
+      <c r="C103" s="93"/>
+      <c r="D103" s="93"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="93"/>
+      <c r="G103" s="93"/>
+      <c r="H103" s="93"/>
+      <c r="I103" s="93"/>
+      <c r="J103" s="93"/>
+      <c r="K103" s="93"/>
+      <c r="L103" s="93"/>
+      <c r="M103" s="93"/>
+      <c r="N103" s="93"/>
+      <c r="O103" s="94"/>
+    </row>
+    <row r="104" spans="1:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="43"/>
+      <c r="B104" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="C104" s="47"/>
-      <c r="E104" s="197"/>
-    </row>
-    <row r="105" spans="1:15" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="109"/>
-      <c r="B105" s="47" t="s">
+      <c r="C104" s="20"/>
+      <c r="E104" s="79"/>
+    </row>
+    <row r="105" spans="1:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="43"/>
+      <c r="B105" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-    </row>
-    <row r="106" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="99"/>
-      <c r="B106" s="47"/>
-      <c r="C106" s="148" t="s">
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="39"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="D106" s="148"/>
-      <c r="E106" s="148"/>
-      <c r="F106" s="148"/>
-      <c r="G106" s="47" t="s">
+      <c r="D106" s="57"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="99"/>
-      <c r="B107" s="47"/>
-      <c r="C107" s="148" t="s">
+    <row r="107" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="39"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D107" s="148"/>
-      <c r="E107" s="148"/>
-      <c r="F107" s="148"/>
-      <c r="G107" s="47" t="s">
+      <c r="D107" s="57"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="99"/>
-      <c r="C108" s="198" t="s">
+    <row r="108" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="39"/>
+      <c r="C108" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="D108" s="198"/>
-      <c r="E108" s="198"/>
-      <c r="F108" s="198"/>
-      <c r="G108" s="198"/>
-      <c r="H108" s="198"/>
-      <c r="I108" s="198"/>
-      <c r="J108" s="198"/>
-      <c r="K108" s="8" t="s">
+      <c r="D108" s="95"/>
+      <c r="E108" s="95"/>
+      <c r="F108" s="95"/>
+      <c r="G108" s="95"/>
+      <c r="H108" s="95"/>
+      <c r="I108" s="95"/>
+      <c r="J108" s="95"/>
+      <c r="K108" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="99"/>
-      <c r="C109" s="199" t="s">
+      <c r="L108" s="87"/>
+    </row>
+    <row r="109" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="39"/>
+      <c r="C109" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="D109" s="199"/>
-      <c r="E109" s="199"/>
-      <c r="F109" s="199"/>
-      <c r="G109" s="199"/>
-      <c r="H109" s="199"/>
-      <c r="I109" s="199"/>
-      <c r="J109" s="199"/>
-      <c r="K109" s="8" t="s">
+      <c r="D109" s="86"/>
+      <c r="E109" s="86"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="86"/>
+      <c r="H109" s="86"/>
+      <c r="I109" s="86"/>
+      <c r="J109" s="86"/>
+      <c r="K109" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="L109" s="8"/>
-      <c r="O109" s="200"/>
-    </row>
-    <row r="110" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="99"/>
-      <c r="C110" s="201" t="s">
+      <c r="L109" s="87"/>
+      <c r="O109" s="80"/>
+    </row>
+    <row r="110" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="39"/>
+      <c r="C110" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="D110" s="201"/>
-      <c r="E110" s="201"/>
-      <c r="F110" s="201"/>
-      <c r="G110" s="201"/>
-      <c r="H110" s="201"/>
-      <c r="I110" s="201"/>
-      <c r="J110" s="201"/>
-      <c r="K110" s="202" t="s">
+      <c r="D110" s="83"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="83"/>
+      <c r="H110" s="83"/>
+      <c r="I110" s="83"/>
+      <c r="J110" s="83"/>
+      <c r="K110" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="L110" s="202"/>
-      <c r="O110" s="200"/>
-    </row>
-    <row r="111" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="99"/>
-      <c r="C111" s="201" t="s">
+      <c r="L110" s="84"/>
+      <c r="O110" s="80"/>
+    </row>
+    <row r="111" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="39"/>
+      <c r="C111" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="D111" s="201"/>
-      <c r="E111" s="201"/>
-      <c r="F111" s="201"/>
-      <c r="G111" s="201"/>
-      <c r="H111" s="201"/>
-      <c r="I111" s="201"/>
-      <c r="J111" s="201"/>
-      <c r="K111" s="202" t="s">
+      <c r="D111" s="83"/>
+      <c r="E111" s="83"/>
+      <c r="F111" s="83"/>
+      <c r="G111" s="83"/>
+      <c r="H111" s="83"/>
+      <c r="I111" s="83"/>
+      <c r="J111" s="83"/>
+      <c r="K111" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="L111" s="202"/>
-      <c r="O111" s="200"/>
-    </row>
-    <row r="112" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="99"/>
-      <c r="C112" s="201" t="s">
+      <c r="L111" s="84"/>
+      <c r="O111" s="80"/>
+    </row>
+    <row r="112" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="39"/>
+      <c r="C112" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="D112" s="201"/>
-      <c r="E112" s="201"/>
-      <c r="F112" s="201"/>
-      <c r="G112" s="201"/>
-      <c r="H112" s="201"/>
-      <c r="I112" s="201"/>
-      <c r="J112" s="201"/>
-      <c r="K112" s="202" t="s">
+      <c r="D112" s="83"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="83"/>
+      <c r="H112" s="83"/>
+      <c r="I112" s="83"/>
+      <c r="J112" s="83"/>
+      <c r="K112" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="L112" s="202"/>
-      <c r="O112" s="200"/>
-    </row>
-    <row r="113" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="99"/>
-      <c r="C113" s="199" t="s">
+      <c r="L112" s="84"/>
+      <c r="O112" s="80"/>
+    </row>
+    <row r="113" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="39"/>
+      <c r="C113" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="D113" s="199"/>
-      <c r="E113" s="199"/>
-      <c r="F113" s="199"/>
-      <c r="G113" s="199"/>
-      <c r="H113" s="199"/>
-      <c r="I113" s="199"/>
-      <c r="J113" s="199"/>
-      <c r="K113" s="8" t="s">
+      <c r="D113" s="86"/>
+      <c r="E113" s="86"/>
+      <c r="F113" s="86"/>
+      <c r="G113" s="86"/>
+      <c r="H113" s="86"/>
+      <c r="I113" s="86"/>
+      <c r="J113" s="86"/>
+      <c r="K113" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="99"/>
-      <c r="C114" s="199" t="s">
+      <c r="L113" s="87"/>
+    </row>
+    <row r="114" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="39"/>
+      <c r="C114" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="D114" s="199"/>
-      <c r="E114" s="199"/>
-      <c r="F114" s="199"/>
-      <c r="G114" s="199"/>
-      <c r="H114" s="199"/>
-      <c r="I114" s="199"/>
-      <c r="J114" s="199"/>
-      <c r="K114" s="8" t="s">
+      <c r="D114" s="86"/>
+      <c r="E114" s="86"/>
+      <c r="F114" s="86"/>
+      <c r="G114" s="86"/>
+      <c r="H114" s="86"/>
+      <c r="I114" s="86"/>
+      <c r="J114" s="86"/>
+      <c r="K114" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="99"/>
-      <c r="C115" s="201" t="s">
+      <c r="L114" s="87"/>
+    </row>
+    <row r="115" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="39"/>
+      <c r="C115" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="D115" s="201"/>
-      <c r="E115" s="201"/>
-      <c r="F115" s="201"/>
-      <c r="G115" s="201"/>
-      <c r="H115" s="201"/>
-      <c r="I115" s="201"/>
-      <c r="J115" s="201"/>
-      <c r="K115" s="202" t="s">
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="83"/>
+      <c r="H115" s="83"/>
+      <c r="I115" s="83"/>
+      <c r="J115" s="83"/>
+      <c r="K115" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="L115" s="202"/>
-      <c r="O115" s="200"/>
-    </row>
-    <row r="116" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="99"/>
-      <c r="C116" s="201" t="s">
+      <c r="L115" s="84"/>
+      <c r="O115" s="80"/>
+    </row>
+    <row r="116" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="39"/>
+      <c r="C116" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="D116" s="201"/>
-      <c r="E116" s="201"/>
-      <c r="F116" s="201"/>
-      <c r="G116" s="201"/>
-      <c r="H116" s="201"/>
-      <c r="I116" s="201"/>
-      <c r="J116" s="201"/>
-      <c r="K116" s="202" t="s">
+      <c r="D116" s="83"/>
+      <c r="E116" s="83"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="83"/>
+      <c r="H116" s="83"/>
+      <c r="I116" s="83"/>
+      <c r="J116" s="83"/>
+      <c r="K116" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="L116" s="202"/>
-      <c r="O116" s="200"/>
-    </row>
-    <row r="117" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="99"/>
-      <c r="C117" s="201" t="s">
+      <c r="L116" s="84"/>
+      <c r="O116" s="80"/>
+    </row>
+    <row r="117" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="39"/>
+      <c r="C117" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="D117" s="201"/>
-      <c r="E117" s="201"/>
-      <c r="F117" s="201"/>
-      <c r="G117" s="201"/>
-      <c r="H117" s="201"/>
-      <c r="I117" s="201"/>
-      <c r="J117" s="201"/>
-      <c r="K117" s="202" t="s">
+      <c r="D117" s="83"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="83"/>
+      <c r="G117" s="83"/>
+      <c r="H117" s="83"/>
+      <c r="I117" s="83"/>
+      <c r="J117" s="83"/>
+      <c r="K117" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="L117" s="202"/>
-      <c r="O117" s="200"/>
-    </row>
-    <row r="118" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="99"/>
-      <c r="C118" s="201" t="s">
+      <c r="L117" s="84"/>
+      <c r="O117" s="80"/>
+    </row>
+    <row r="118" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="39"/>
+      <c r="C118" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="D118" s="201"/>
-      <c r="E118" s="201"/>
-      <c r="F118" s="201"/>
-      <c r="G118" s="201"/>
-      <c r="H118" s="201"/>
-      <c r="I118" s="201"/>
-      <c r="J118" s="201"/>
-      <c r="K118" s="202" t="s">
+      <c r="D118" s="83"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="83"/>
+      <c r="H118" s="83"/>
+      <c r="I118" s="83"/>
+      <c r="J118" s="83"/>
+      <c r="K118" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="L118" s="202"/>
-      <c r="O118" s="200"/>
-    </row>
-    <row r="122" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C122" s="203" t="s">
+      <c r="L118" s="84"/>
+      <c r="O118" s="80"/>
+    </row>
+    <row r="122" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="D122" s="203"/>
-      <c r="E122" s="203"/>
-      <c r="F122" s="203"/>
-      <c r="G122" s="204" t="s">
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="H122" s="204"/>
-      <c r="I122" s="204"/>
-      <c r="J122" s="204"/>
-    </row>
-    <row r="123" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C123" s="204" t="s">
+      <c r="H122" s="82"/>
+      <c r="I122" s="82"/>
+      <c r="J122" s="82"/>
+    </row>
+    <row r="123" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D123" s="204"/>
-      <c r="E123" s="204"/>
-      <c r="F123" s="204"/>
-      <c r="G123" s="204" t="s">
+      <c r="D123" s="82"/>
+      <c r="E123" s="82"/>
+      <c r="F123" s="82"/>
+      <c r="G123" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="H123" s="204"/>
-      <c r="I123" s="204"/>
-      <c r="J123" s="204"/>
-    </row>
-    <row r="124" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C124" s="204" t="s">
+      <c r="H123" s="82"/>
+      <c r="I123" s="82"/>
+      <c r="J123" s="82"/>
+    </row>
+    <row r="124" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="D124" s="204"/>
-      <c r="E124" s="204"/>
-      <c r="F124" s="204"/>
-      <c r="G124" s="204" t="s">
+      <c r="D124" s="82"/>
+      <c r="E124" s="82"/>
+      <c r="F124" s="82"/>
+      <c r="G124" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="H124" s="204"/>
-      <c r="I124" s="204"/>
-      <c r="J124" s="204"/>
-    </row>
-    <row r="125" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C125" s="204" t="s">
+      <c r="H124" s="82"/>
+      <c r="I124" s="82"/>
+      <c r="J124" s="82"/>
+    </row>
+    <row r="125" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="D125" s="204"/>
-      <c r="E125" s="204"/>
-      <c r="F125" s="204"/>
-      <c r="G125" s="204" t="s">
+      <c r="D125" s="82"/>
+      <c r="E125" s="82"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="H125" s="204"/>
-      <c r="I125" s="204"/>
-      <c r="J125" s="204"/>
-    </row>
-    <row r="126" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C126" s="204" t="s">
+      <c r="H125" s="82"/>
+      <c r="I125" s="82"/>
+      <c r="J125" s="82"/>
+    </row>
+    <row r="126" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="D126" s="204"/>
-      <c r="E126" s="204"/>
-      <c r="F126" s="204"/>
-      <c r="G126" s="204" t="s">
+      <c r="D126" s="82"/>
+      <c r="E126" s="82"/>
+      <c r="F126" s="82"/>
+      <c r="G126" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="H126" s="204"/>
-      <c r="I126" s="204"/>
-      <c r="J126" s="204"/>
-    </row>
-    <row r="127" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C127" s="204" t="s">
+      <c r="H126" s="82"/>
+      <c r="I126" s="82"/>
+      <c r="J126" s="82"/>
+    </row>
+    <row r="127" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="D127" s="204"/>
-      <c r="E127" s="204"/>
-      <c r="F127" s="204"/>
-      <c r="G127" s="204" t="s">
+      <c r="D127" s="82"/>
+      <c r="E127" s="82"/>
+      <c r="F127" s="82"/>
+      <c r="G127" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="H127" s="204"/>
-      <c r="I127" s="204"/>
-      <c r="J127" s="204"/>
-    </row>
-    <row r="128" spans="1:15" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C128" s="204" t="s">
+      <c r="H127" s="82"/>
+      <c r="I127" s="82"/>
+      <c r="J127" s="82"/>
+    </row>
+    <row r="128" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="D128" s="204"/>
-      <c r="E128" s="204"/>
-      <c r="F128" s="204"/>
-      <c r="G128" s="204">
+      <c r="D128" s="82"/>
+      <c r="E128" s="82"/>
+      <c r="F128" s="82"/>
+      <c r="G128" s="82">
         <v>20250403</v>
       </c>
-      <c r="H128" s="204"/>
-      <c r="I128" s="204"/>
-      <c r="J128" s="204"/>
-    </row>
-    <row r="129" spans="3:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C129" s="204" t="s">
+      <c r="H128" s="82"/>
+      <c r="I128" s="82"/>
+      <c r="J128" s="82"/>
+    </row>
+    <row r="129" spans="3:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="D129" s="204"/>
-      <c r="E129" s="204"/>
-      <c r="F129" s="204"/>
-      <c r="G129" s="204">
+      <c r="D129" s="82"/>
+      <c r="E129" s="82"/>
+      <c r="F129" s="82"/>
+      <c r="G129" s="82">
         <v>20250403</v>
       </c>
-      <c r="H129" s="204"/>
-      <c r="I129" s="204"/>
-      <c r="J129" s="204"/>
+      <c r="H129" s="82"/>
+      <c r="I129" s="82"/>
+      <c r="J129" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="G127:J127"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="G128:J128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="G129:J129"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="G125:J125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="G126:J126"/>
-    <mergeCell ref="C118:J118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="C115:J115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="C116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="C112:J112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="C114:J114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="C109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="C111:J111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="B101:O101"/>
-    <mergeCell ref="B103:O103"/>
-    <mergeCell ref="C108:J108"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:J98"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="B86:O86"/>
-    <mergeCell ref="B87:N87"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="B89:O89"/>
-    <mergeCell ref="B90:O90"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B63:O63"/>
-    <mergeCell ref="B65:O65"/>
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="B69:O69"/>
-    <mergeCell ref="B71:O71"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J60"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="N31:O31"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="B38:O38"/>
@@ -9799,58 +9980,91 @@
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J60"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B63:O63"/>
+    <mergeCell ref="B65:O65"/>
+    <mergeCell ref="A68:O68"/>
+    <mergeCell ref="B69:O69"/>
+    <mergeCell ref="B71:O71"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B86:O86"/>
+    <mergeCell ref="B87:N87"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="B89:O89"/>
+    <mergeCell ref="B90:O90"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="B101:O101"/>
+    <mergeCell ref="B103:O103"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:J98"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="C114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="C111:J111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="C118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="C115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="C116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="G128:J128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="G129:J129"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="G125:J125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="G126:J126"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="67" fitToWidth="2" orientation="portrait" r:id="rId1"/>
@@ -9866,15 +10080,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9888,15 +10102,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9910,15 +10124,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9932,15 +10146,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9954,15 +10168,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9976,15 +10190,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9998,15 +10212,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10020,15 +10234,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10042,15 +10256,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10064,15 +10278,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10086,13 +10300,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>72</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:colOff>123825</xdr:colOff>
                     <xdr:row>73</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -10108,15 +10322,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10130,15 +10344,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>76</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>76</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10152,13 +10366,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>79</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:colOff>123825</xdr:colOff>
                     <xdr:row>79</xdr:row>
                     <xdr:rowOff>247650</xdr:rowOff>
                   </to>
@@ -10174,15 +10388,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10196,15 +10410,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10218,15 +10432,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10240,15 +10454,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10262,15 +10476,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>88</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>88</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10286,11 +10500,11 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>90</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
+                    <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>90</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -10306,15 +10520,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>94</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>94</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10334,7 +10548,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>247650</xdr:rowOff>
                   </to>
@@ -10352,7 +10566,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -10372,15 +10586,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10394,15 +10608,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10416,15 +10630,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10438,15 +10652,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>101</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>101</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10460,7 +10674,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>103</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10468,7 +10682,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>104</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10484,11 +10698,11 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>103</xdr:row>
-                    <xdr:rowOff>298450</xdr:rowOff>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>105</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -10504,15 +10718,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>65</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>65</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10526,15 +10740,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/services/opengsync-app/static/resources/templates/library_prep/WES.xlsx
+++ b/services/opengsync-app/static/resources/templates/library_prep/WES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hriegler\Documents\limbless-app\services\opengsync-app\static\resources\templates\library_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BFBCAF-362B-4B63-8A97-3F8C276224C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735D2E94-4226-4A7D-9BA1-A12A86F0CF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="1" r:id="rId1"/>
@@ -1749,8 +1749,368 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1758,373 +2118,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4759,10 +4759,10 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="207" t="s">
+      <c r="F1" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="207" t="s">
+      <c r="G1" s="82" t="s">
         <v>180</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -7656,27 +7656,27 @@
   <sheetData>
     <row r="1" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
-      <c r="C1" s="204" t="s">
+      <c r="C1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
@@ -7684,206 +7684,206 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="182">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="86">
         <v>20250108</v>
       </c>
-      <c r="H3" s="183"/>
-      <c r="I3" s="184"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="88"/>
       <c r="J3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="206" t="s">
+      <c r="A4" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="182">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="86">
         <v>3400005192</v>
       </c>
-      <c r="H4" s="183"/>
-      <c r="I4" s="184"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
       <c r="L4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="13">
         <v>1</v>
       </c>
-      <c r="N4" s="200" t="s">
+      <c r="N4" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="201"/>
+      <c r="O4" s="84"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="AK4" s="14"/>
     </row>
     <row r="5" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="182" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="183"/>
-      <c r="I5" s="184"/>
-      <c r="K5" s="202" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="K5" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="203"/>
+      <c r="L5" s="90"/>
       <c r="M5" s="13" t="s">
         <v>25</v>
       </c>
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="182" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="183"/>
-      <c r="I6" s="184"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
       <c r="AK6" s="14"/>
     </row>
     <row r="7" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="182">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86">
         <v>3100001206</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="184"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
       <c r="AK7" s="14"/>
     </row>
     <row r="8" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199" t="s">
+      <c r="A8" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="182">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="86">
         <v>2500004795</v>
       </c>
-      <c r="H8" s="183"/>
-      <c r="I8" s="184"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="102" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="103"/>
       <c r="L8" s="103"/>
       <c r="M8" s="104"/>
-      <c r="N8" s="182">
+      <c r="N8" s="86">
         <v>2500003856</v>
       </c>
-      <c r="O8" s="183"/>
-      <c r="P8" s="184"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="88"/>
       <c r="AK8" s="14"/>
     </row>
     <row r="9" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="192"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="182">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86">
         <v>2500005946</v>
       </c>
-      <c r="H9" s="183"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="193" t="s">
+      <c r="H9" s="87"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="194"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="195"/>
-      <c r="N9" s="182">
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="86">
         <v>2500005110</v>
       </c>
-      <c r="O9" s="183"/>
-      <c r="P9" s="184"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="88"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="AK9" s="14"/>
     </row>
     <row r="10" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="196" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="197"/>
-      <c r="I10" s="198"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
     </row>
     <row r="11" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="182" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="183"/>
-      <c r="I11" s="184"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
     </row>
     <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="185"/>
-      <c r="C12" s="185"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="186" t="s">
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="187"/>
-      <c r="I12" s="188"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="117"/>
     </row>
     <row r="13" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
@@ -7910,22 +7910,22 @@
       <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:37" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="189" t="s">
+      <c r="B14" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="190"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="191"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
@@ -8100,22 +8100,22 @@
     </row>
     <row r="19" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="133"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="123"/>
     </row>
     <row r="20" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
@@ -8138,11 +8138,11 @@
       <c r="F21" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="158" t="str">
+      <c r="G21" s="105" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for 8 samples</v>
       </c>
-      <c r="H21" s="158"/>
+      <c r="H21" s="105"/>
       <c r="O21" s="27"/>
     </row>
     <row r="22" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8150,37 +8150,37 @@
       <c r="B22" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="16">
         <v>40</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="87"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="29" t="s">
         <v>50</v>
       </c>
       <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="176" t="s">
+      <c r="C23" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
       <c r="F23" s="16">
         <v>4</v>
       </c>
-      <c r="G23" s="87">
+      <c r="G23" s="93">
         <f>F23*1.1*$E$13</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="H23" s="87"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="29" t="s">
         <v>50</v>
       </c>
@@ -8190,19 +8190,19 @@
     <row r="24" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="181"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
       <c r="F24" s="30">
         <v>6</v>
       </c>
-      <c r="G24" s="149">
+      <c r="G24" s="113">
         <f>F24*1.1*$E$13</f>
         <v>52.800000000000004</v>
       </c>
-      <c r="H24" s="149"/>
+      <c r="H24" s="113"/>
       <c r="I24" s="31" t="s">
         <v>50</v>
       </c>
@@ -8210,19 +8210,19 @@
     </row>
     <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
-      <c r="C25" s="163" t="s">
+      <c r="C25" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="164"/>
-      <c r="E25" s="165"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
       <c r="F25" s="32">
         <f>SUM(F22:F24)</f>
         <v>50</v>
       </c>
-      <c r="G25" s="150" t="s">
+      <c r="G25" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="150"/>
+      <c r="H25" s="132"/>
       <c r="I25" s="32" t="s">
         <v>50</v>
       </c>
@@ -8236,10 +8236,10 @@
       <c r="B26" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="171" t="s">
+      <c r="D26" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="171"/>
+      <c r="E26" s="133"/>
       <c r="F26" s="20" t="s">
         <v>57</v>
       </c>
@@ -8248,32 +8248,32 @@
     <row r="27" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="20"/>
-      <c r="D27" s="172" t="s">
+      <c r="D27" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="94"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="137"/>
     </row>
     <row r="29" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
@@ -8303,160 +8303,160 @@
       <c r="E31" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="158" t="str">
+      <c r="F31" s="105" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for 8 samples</v>
       </c>
-      <c r="G31" s="158"/>
+      <c r="G31" s="105"/>
       <c r="I31" s="33" t="s">
         <v>60</v>
       </c>
       <c r="M31" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="173" t="str">
+      <c r="N31" s="138" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for 8 samples</v>
       </c>
-      <c r="O31" s="174"/>
+      <c r="O31" s="139"/>
     </row>
     <row r="32" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="16">
         <v>50</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="87"/>
+      <c r="G32" s="93"/>
       <c r="H32" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J32" s="160" t="s">
+      <c r="J32" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
       <c r="M32" s="35">
         <v>50</v>
       </c>
-      <c r="N32" s="161" t="s">
+      <c r="N32" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="162"/>
+      <c r="O32" s="127"/>
       <c r="P32" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
-      <c r="B33" s="170" t="s">
+      <c r="B33" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
       <c r="E33" s="16">
         <v>5</v>
       </c>
-      <c r="F33" s="87">
+      <c r="F33" s="93">
         <f>E33*1.1*$E$13</f>
         <v>44</v>
       </c>
-      <c r="G33" s="87"/>
+      <c r="G33" s="93"/>
       <c r="H33" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="160" t="s">
+      <c r="J33" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="160"/>
-      <c r="L33" s="160"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
       <c r="M33" s="35">
         <v>3</v>
       </c>
-      <c r="N33" s="161">
+      <c r="N33" s="126">
         <f>M33*1.1*$E$13</f>
         <v>26.400000000000002</v>
       </c>
-      <c r="O33" s="162"/>
+      <c r="O33" s="127"/>
       <c r="P33" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="159" t="s">
+      <c r="B34" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
       <c r="E34" s="30">
         <v>20</v>
       </c>
-      <c r="F34" s="149">
+      <c r="F34" s="113">
         <f>E34*1.1*$E$13</f>
         <v>176</v>
       </c>
-      <c r="G34" s="149"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="31" t="s">
         <v>50</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="160" t="s">
+      <c r="J34" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="160"/>
-      <c r="L34" s="160"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="125"/>
       <c r="M34" s="35">
         <v>2</v>
       </c>
-      <c r="N34" s="161">
+      <c r="N34" s="126">
         <f>M34*1.1*$E$13</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="O34" s="162"/>
+      <c r="O34" s="127"/>
       <c r="P34" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
-      <c r="B35" s="163" t="s">
+      <c r="B35" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="164"/>
-      <c r="D35" s="165"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="131"/>
       <c r="E35" s="32">
         <f>SUM(E32:E34)</f>
         <v>75</v>
       </c>
-      <c r="F35" s="150" t="s">
+      <c r="F35" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="150"/>
+      <c r="G35" s="132"/>
       <c r="H35" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="166" t="s">
+      <c r="J35" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="166"/>
-      <c r="L35" s="166"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="153"/>
       <c r="M35" s="37">
         <v>20</v>
       </c>
-      <c r="N35" s="167">
+      <c r="N35" s="154">
         <f>M35*1.1*$E$13</f>
         <v>176</v>
       </c>
-      <c r="O35" s="168"/>
+      <c r="O35" s="155"/>
       <c r="P35" s="38" t="s">
         <v>50</v>
       </c>
@@ -8469,18 +8469,18 @@
       <c r="D36" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="152" t="s">
+      <c r="J36" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="K36" s="152"/>
-      <c r="L36" s="152"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="140"/>
       <c r="M36" s="41">
         <v>25</v>
       </c>
-      <c r="N36" s="153" t="s">
+      <c r="N36" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="O36" s="154"/>
+      <c r="O36" s="142"/>
       <c r="P36" s="42" t="s">
         <v>50</v>
       </c>
@@ -8493,22 +8493,22 @@
     </row>
     <row r="38" spans="1:16" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="91"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="144"/>
+      <c r="K38" s="144"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="144"/>
+      <c r="N38" s="144"/>
+      <c r="O38" s="145"/>
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
@@ -8518,22 +8518,22 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
-      <c r="B40" s="155" t="s">
+      <c r="B40" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="156"/>
-      <c r="L40" s="156"/>
-      <c r="M40" s="156"/>
-      <c r="N40" s="156"/>
-      <c r="O40" s="157"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="148"/>
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
@@ -8550,63 +8550,63 @@
       <c r="E42" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="158" t="str">
+      <c r="F42" s="105" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for 8 samples</v>
       </c>
-      <c r="G42" s="158"/>
+      <c r="G42" s="105"/>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="120"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="44">
         <v>15</v>
       </c>
-      <c r="F43" s="87" t="s">
+      <c r="F43" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="87"/>
+      <c r="G43" s="93"/>
       <c r="H43" s="29" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="144"/>
-      <c r="D44" s="145"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="45">
         <v>10</v>
       </c>
-      <c r="F44" s="87" t="s">
+      <c r="F44" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="87"/>
+      <c r="G44" s="93"/>
       <c r="H44" s="29" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
-      <c r="B45" s="146" t="s">
+      <c r="B45" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="147"/>
-      <c r="D45" s="148"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="171"/>
       <c r="E45" s="30">
         <v>25</v>
       </c>
-      <c r="F45" s="149">
+      <c r="F45" s="113">
         <f>E45*1.1*$E$13</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="G45" s="149"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="46" t="s">
         <v>50</v>
       </c>
@@ -8616,10 +8616,10 @@
       <c r="E46" s="47">
         <v>50</v>
       </c>
-      <c r="F46" s="150" t="s">
+      <c r="F46" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="150"/>
+      <c r="G46" s="132"/>
       <c r="H46" s="48" t="s">
         <v>50</v>
       </c>
@@ -8820,76 +8820,76 @@
         <v>84</v>
       </c>
       <c r="F57" s="56"/>
-      <c r="G57" s="151" t="s">
+      <c r="G57" s="172" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="151"/>
+      <c r="H57" s="172"/>
       <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
-      <c r="G58" s="134" t="s">
+      <c r="G58" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="H58" s="135"/>
-      <c r="I58" s="136" t="s">
+      <c r="H58" s="157"/>
+      <c r="I58" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="J58" s="137"/>
+      <c r="J58" s="159"/>
     </row>
     <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
-      <c r="G59" s="134" t="s">
+      <c r="G59" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="H59" s="135"/>
-      <c r="I59" s="138"/>
-      <c r="J59" s="139"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="160"/>
+      <c r="J59" s="161"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
-      <c r="G60" s="134" t="s">
+      <c r="G60" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="H60" s="135"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="141"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="162"/>
+      <c r="J60" s="163"/>
     </row>
     <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
-      <c r="G61" s="142" t="s">
+      <c r="G61" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="H61" s="142"/>
+      <c r="H61" s="164"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G62" s="88" t="s">
+      <c r="G62" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="H62" s="88"/>
+      <c r="H62" s="165"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
     </row>
     <row r="63" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
-      <c r="B63" s="89" t="s">
+      <c r="B63" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="90"/>
-      <c r="O63" s="91"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+      <c r="G63" s="144"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="144"/>
+      <c r="K63" s="144"/>
+      <c r="L63" s="144"/>
+      <c r="M63" s="144"/>
+      <c r="N63" s="144"/>
+      <c r="O63" s="145"/>
     </row>
     <row r="64" spans="1:15" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
@@ -8899,22 +8899,22 @@
     </row>
     <row r="65" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="50"/>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="124"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="124"/>
-      <c r="F65" s="124"/>
-      <c r="G65" s="124"/>
-      <c r="H65" s="124"/>
-      <c r="I65" s="124"/>
-      <c r="J65" s="124"/>
-      <c r="K65" s="124"/>
-      <c r="L65" s="124"/>
-      <c r="M65" s="124"/>
-      <c r="N65" s="124"/>
-      <c r="O65" s="125"/>
+      <c r="C65" s="178"/>
+      <c r="D65" s="178"/>
+      <c r="E65" s="178"/>
+      <c r="F65" s="178"/>
+      <c r="G65" s="178"/>
+      <c r="H65" s="178"/>
+      <c r="I65" s="178"/>
+      <c r="J65" s="178"/>
+      <c r="K65" s="178"/>
+      <c r="L65" s="178"/>
+      <c r="M65" s="178"/>
+      <c r="N65" s="178"/>
+      <c r="O65" s="179"/>
     </row>
     <row r="66" spans="1:19" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
@@ -8997,45 +8997,45 @@
       <c r="S67" s="16"/>
     </row>
     <row r="68" spans="1:19" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="126" t="s">
+      <c r="A68" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="127"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="127"/>
-      <c r="G68" s="127"/>
-      <c r="H68" s="127"/>
-      <c r="I68" s="127"/>
-      <c r="J68" s="127"/>
-      <c r="K68" s="127"/>
-      <c r="L68" s="127"/>
-      <c r="M68" s="127"/>
-      <c r="N68" s="127"/>
-      <c r="O68" s="128"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="181"/>
+      <c r="E68" s="181"/>
+      <c r="F68" s="181"/>
+      <c r="G68" s="181"/>
+      <c r="H68" s="181"/>
+      <c r="I68" s="181"/>
+      <c r="J68" s="181"/>
+      <c r="K68" s="181"/>
+      <c r="L68" s="181"/>
+      <c r="M68" s="181"/>
+      <c r="N68" s="181"/>
+      <c r="O68" s="182"/>
       <c r="P68" s="62" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="63"/>
-      <c r="B69" s="129" t="s">
+      <c r="B69" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="130"/>
-      <c r="D69" s="130"/>
-      <c r="E69" s="130"/>
-      <c r="F69" s="130"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="130"/>
-      <c r="I69" s="130"/>
-      <c r="J69" s="130"/>
-      <c r="K69" s="130"/>
-      <c r="L69" s="130"/>
-      <c r="M69" s="130"/>
-      <c r="N69" s="130"/>
-      <c r="O69" s="130"/>
+      <c r="C69" s="184"/>
+      <c r="D69" s="184"/>
+      <c r="E69" s="184"/>
+      <c r="F69" s="184"/>
+      <c r="G69" s="184"/>
+      <c r="H69" s="184"/>
+      <c r="I69" s="184"/>
+      <c r="J69" s="184"/>
+      <c r="K69" s="184"/>
+      <c r="L69" s="184"/>
+      <c r="M69" s="184"/>
+      <c r="N69" s="184"/>
+      <c r="O69" s="184"/>
     </row>
     <row r="70" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="64"/>
@@ -9060,53 +9060,53 @@
     </row>
     <row r="71" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
-      <c r="B71" s="131" t="s">
+      <c r="B71" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="132"/>
-      <c r="D71" s="132"/>
-      <c r="E71" s="132"/>
-      <c r="F71" s="132"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="132"/>
-      <c r="K71" s="132"/>
-      <c r="L71" s="132"/>
-      <c r="M71" s="132"/>
-      <c r="N71" s="132"/>
-      <c r="O71" s="133"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="122"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="122"/>
+      <c r="G71" s="122"/>
+      <c r="H71" s="122"/>
+      <c r="I71" s="122"/>
+      <c r="J71" s="122"/>
+      <c r="K71" s="122"/>
+      <c r="L71" s="122"/>
+      <c r="M71" s="122"/>
+      <c r="N71" s="122"/>
+      <c r="O71" s="123"/>
     </row>
     <row r="72" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="64"/>
-      <c r="B72" s="109" t="s">
+      <c r="B72" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="109"/>
-      <c r="D72" s="109"/>
-      <c r="E72" s="109"/>
-      <c r="F72" s="109"/>
-      <c r="G72" s="109"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="109"/>
-      <c r="J72" s="109"/>
-      <c r="K72" s="109"/>
-      <c r="L72" s="109"/>
-      <c r="M72" s="109"/>
+      <c r="C72" s="173"/>
+      <c r="D72" s="173"/>
+      <c r="E72" s="173"/>
+      <c r="F72" s="173"/>
+      <c r="G72" s="173"/>
+      <c r="H72" s="173"/>
+      <c r="I72" s="173"/>
+      <c r="J72" s="173"/>
+      <c r="K72" s="173"/>
+      <c r="L72" s="173"/>
+      <c r="M72" s="173"/>
       <c r="N72" s="15"/>
     </row>
     <row r="73" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
-      <c r="B73" s="108" t="s">
+      <c r="B73" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="109"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="118" t="s">
+      <c r="C73" s="173"/>
+      <c r="D73" s="173"/>
+      <c r="E73" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="119"/>
-      <c r="G73" s="120"/>
+      <c r="F73" s="150"/>
+      <c r="G73" s="151"/>
       <c r="H73" s="65">
         <v>20</v>
       </c>
@@ -9120,11 +9120,11 @@
       <c r="B74" s="20"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
-      <c r="E74" s="121" t="s">
+      <c r="E74" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="122"/>
-      <c r="G74" s="123"/>
+      <c r="F74" s="176"/>
+      <c r="G74" s="177"/>
       <c r="H74" s="66">
         <v>4</v>
       </c>
@@ -9137,11 +9137,11 @@
       <c r="A75" s="21"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="121" t="s">
+      <c r="E75" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="F75" s="122"/>
-      <c r="G75" s="123"/>
+      <c r="F75" s="176"/>
+      <c r="G75" s="177"/>
       <c r="H75" s="67">
         <v>4</v>
       </c>
@@ -9165,10 +9165,10 @@
       <c r="B77" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="88" t="s">
+      <c r="D77" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="88"/>
+      <c r="E77" s="165"/>
       <c r="F77" s="68"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -9176,10 +9176,10 @@
     </row>
     <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
-      <c r="D78" s="88" t="s">
+      <c r="D78" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="E78" s="88"/>
+      <c r="E78" s="165"/>
       <c r="F78" s="68"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -9187,10 +9187,10 @@
     </row>
     <row r="79" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
-      <c r="D79" s="88" t="s">
+      <c r="D79" s="165" t="s">
         <v>107</v>
       </c>
-      <c r="E79" s="88"/>
+      <c r="E79" s="165"/>
       <c r="F79" s="68"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -9201,11 +9201,11 @@
       <c r="B80" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C80" s="118" t="s">
+      <c r="C80" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="119"/>
-      <c r="E80" s="120"/>
+      <c r="D80" s="150"/>
+      <c r="E80" s="151"/>
       <c r="F80" s="65" t="s">
         <v>49</v>
       </c>
@@ -9217,11 +9217,11 @@
     <row r="81" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="20"/>
-      <c r="C81" s="121" t="s">
+      <c r="C81" s="175" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="122"/>
-      <c r="E81" s="123"/>
+      <c r="D81" s="176"/>
+      <c r="E81" s="177"/>
       <c r="F81" s="66">
         <v>5</v>
       </c>
@@ -9232,11 +9232,11 @@
     </row>
     <row r="82" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
-      <c r="C82" s="121" t="s">
+      <c r="C82" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="122"/>
-      <c r="E82" s="123"/>
+      <c r="D82" s="176"/>
+      <c r="E82" s="177"/>
       <c r="F82" s="67">
         <v>7</v>
       </c>
@@ -9263,10 +9263,10 @@
       <c r="B84" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D84" s="107" t="s">
+      <c r="D84" s="185" t="s">
         <v>111</v>
       </c>
-      <c r="E84" s="107"/>
+      <c r="E84" s="185"/>
       <c r="F84" s="68"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -9274,10 +9274,10 @@
     </row>
     <row r="85" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
-      <c r="D85" s="107" t="s">
+      <c r="D85" s="185" t="s">
         <v>107</v>
       </c>
-      <c r="E85" s="107"/>
+      <c r="E85" s="185"/>
       <c r="F85" s="68"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -9285,40 +9285,40 @@
     </row>
     <row r="86" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
-      <c r="B86" s="108" t="s">
+      <c r="B86" s="174" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="109"/>
-      <c r="D86" s="109"/>
-      <c r="E86" s="109"/>
-      <c r="F86" s="109"/>
-      <c r="G86" s="109"/>
-      <c r="H86" s="109"/>
-      <c r="I86" s="109"/>
-      <c r="J86" s="109"/>
-      <c r="K86" s="109"/>
-      <c r="L86" s="109"/>
-      <c r="M86" s="109"/>
-      <c r="N86" s="109"/>
-      <c r="O86" s="109"/>
+      <c r="C86" s="173"/>
+      <c r="D86" s="173"/>
+      <c r="E86" s="173"/>
+      <c r="F86" s="173"/>
+      <c r="G86" s="173"/>
+      <c r="H86" s="173"/>
+      <c r="I86" s="173"/>
+      <c r="J86" s="173"/>
+      <c r="K86" s="173"/>
+      <c r="L86" s="173"/>
+      <c r="M86" s="173"/>
+      <c r="N86" s="173"/>
+      <c r="O86" s="173"/>
     </row>
     <row r="87" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
-      <c r="B87" s="109" t="s">
+      <c r="B87" s="173" t="s">
         <v>113</v>
       </c>
-      <c r="C87" s="109"/>
-      <c r="D87" s="109"/>
-      <c r="E87" s="109"/>
-      <c r="F87" s="109"/>
-      <c r="G87" s="109"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="109"/>
-      <c r="J87" s="109"/>
-      <c r="K87" s="109"/>
-      <c r="L87" s="109"/>
-      <c r="M87" s="109"/>
-      <c r="N87" s="109"/>
+      <c r="C87" s="173"/>
+      <c r="D87" s="173"/>
+      <c r="E87" s="173"/>
+      <c r="F87" s="173"/>
+      <c r="G87" s="173"/>
+      <c r="H87" s="173"/>
+      <c r="I87" s="173"/>
+      <c r="J87" s="173"/>
+      <c r="K87" s="173"/>
+      <c r="L87" s="173"/>
+      <c r="M87" s="173"/>
+      <c r="N87" s="173"/>
       <c r="O87" s="15"/>
     </row>
     <row r="88" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9342,57 +9342,57 @@
       <c r="P88" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="Q88" s="110"/>
-      <c r="R88" s="111"/>
+      <c r="Q88" s="186"/>
+      <c r="R88" s="187"/>
     </row>
     <row r="89" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="71"/>
-      <c r="B89" s="112" t="s">
+      <c r="B89" s="188" t="s">
         <v>116</v>
       </c>
-      <c r="C89" s="113"/>
-      <c r="D89" s="113"/>
-      <c r="E89" s="113"/>
-      <c r="F89" s="113"/>
-      <c r="G89" s="113"/>
-      <c r="H89" s="113"/>
-      <c r="I89" s="113"/>
-      <c r="J89" s="113"/>
-      <c r="K89" s="113"/>
-      <c r="L89" s="113"/>
-      <c r="M89" s="113"/>
-      <c r="N89" s="113"/>
-      <c r="O89" s="114"/>
+      <c r="C89" s="189"/>
+      <c r="D89" s="189"/>
+      <c r="E89" s="189"/>
+      <c r="F89" s="189"/>
+      <c r="G89" s="189"/>
+      <c r="H89" s="189"/>
+      <c r="I89" s="189"/>
+      <c r="J89" s="189"/>
+      <c r="K89" s="189"/>
+      <c r="L89" s="189"/>
+      <c r="M89" s="189"/>
+      <c r="N89" s="189"/>
+      <c r="O89" s="190"/>
     </row>
     <row r="90" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
-      <c r="B90" s="115" t="s">
+      <c r="B90" s="191" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="116"/>
-      <c r="D90" s="116"/>
-      <c r="E90" s="116"/>
-      <c r="F90" s="116"/>
-      <c r="G90" s="116"/>
-      <c r="H90" s="116"/>
-      <c r="I90" s="116"/>
-      <c r="J90" s="116"/>
-      <c r="K90" s="116"/>
-      <c r="L90" s="116"/>
-      <c r="M90" s="116"/>
-      <c r="N90" s="116"/>
-      <c r="O90" s="117"/>
+      <c r="C90" s="192"/>
+      <c r="D90" s="192"/>
+      <c r="E90" s="192"/>
+      <c r="F90" s="192"/>
+      <c r="G90" s="192"/>
+      <c r="H90" s="192"/>
+      <c r="I90" s="192"/>
+      <c r="J90" s="192"/>
+      <c r="K90" s="192"/>
+      <c r="L90" s="192"/>
+      <c r="M90" s="192"/>
+      <c r="N90" s="192"/>
+      <c r="O90" s="193"/>
     </row>
     <row r="91" spans="1:18" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="96" t="s">
+      <c r="C91" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="97"/>
-      <c r="E91" s="98"/>
+      <c r="D91" s="196"/>
+      <c r="E91" s="197"/>
       <c r="F91" s="72" t="s">
         <v>119</v>
       </c>
@@ -9405,11 +9405,11 @@
     <row r="92" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="20"/>
-      <c r="C92" s="99" t="s">
+      <c r="C92" s="198" t="s">
         <v>120</v>
       </c>
-      <c r="D92" s="100"/>
-      <c r="E92" s="101"/>
+      <c r="D92" s="199"/>
+      <c r="E92" s="200"/>
       <c r="F92" s="75" t="s">
         <v>121</v>
       </c>
@@ -9463,75 +9463,75 @@
         <v>84</v>
       </c>
       <c r="F95" s="56"/>
-      <c r="G95" s="88" t="s">
+      <c r="G95" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="H95" s="88"/>
+      <c r="H95" s="165"/>
       <c r="J95" s="15"/>
     </row>
     <row r="96" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
-      <c r="G96" s="105" t="s">
+      <c r="G96" s="201" t="s">
         <v>86</v>
       </c>
-      <c r="H96" s="105"/>
-      <c r="I96" s="106" t="s">
+      <c r="H96" s="201"/>
+      <c r="I96" s="202" t="s">
         <v>168</v>
       </c>
-      <c r="J96" s="87"/>
+      <c r="J96" s="93"/>
     </row>
     <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
-      <c r="G97" s="105" t="s">
+      <c r="G97" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="H97" s="105"/>
-      <c r="I97" s="87"/>
-      <c r="J97" s="87"/>
+      <c r="H97" s="201"/>
+      <c r="I97" s="93"/>
+      <c r="J97" s="93"/>
     </row>
     <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
-      <c r="G98" s="105" t="s">
+      <c r="G98" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="H98" s="105"/>
-      <c r="I98" s="87"/>
-      <c r="J98" s="87"/>
+      <c r="H98" s="201"/>
+      <c r="I98" s="93"/>
+      <c r="J98" s="93"/>
     </row>
     <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
-      <c r="G99" s="88" t="s">
+      <c r="G99" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="H99" s="88"/>
+      <c r="H99" s="165"/>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
     </row>
     <row r="100" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G100" s="88" t="s">
+      <c r="G100" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="H100" s="88"/>
+      <c r="H100" s="165"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
     </row>
     <row r="101" spans="1:15" s="15" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="89" t="s">
+      <c r="B101" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="C101" s="90"/>
-      <c r="D101" s="90"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="90"/>
-      <c r="H101" s="90"/>
-      <c r="I101" s="90"/>
-      <c r="J101" s="90"/>
-      <c r="K101" s="90"/>
-      <c r="L101" s="90"/>
-      <c r="M101" s="90"/>
-      <c r="N101" s="90"/>
-      <c r="O101" s="91"/>
+      <c r="C101" s="144"/>
+      <c r="D101" s="144"/>
+      <c r="E101" s="144"/>
+      <c r="F101" s="144"/>
+      <c r="G101" s="144"/>
+      <c r="H101" s="144"/>
+      <c r="I101" s="144"/>
+      <c r="J101" s="144"/>
+      <c r="K101" s="144"/>
+      <c r="L101" s="144"/>
+      <c r="M101" s="144"/>
+      <c r="N101" s="144"/>
+      <c r="O101" s="145"/>
     </row>
     <row r="102" spans="1:15" s="15" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="64"/>
@@ -9544,22 +9544,22 @@
     </row>
     <row r="103" spans="1:15" s="15" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="50"/>
-      <c r="B103" s="92" t="s">
+      <c r="B103" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="93"/>
-      <c r="D103" s="93"/>
-      <c r="E103" s="93"/>
-      <c r="F103" s="93"/>
-      <c r="G103" s="93"/>
-      <c r="H103" s="93"/>
-      <c r="I103" s="93"/>
-      <c r="J103" s="93"/>
-      <c r="K103" s="93"/>
-      <c r="L103" s="93"/>
-      <c r="M103" s="93"/>
-      <c r="N103" s="93"/>
-      <c r="O103" s="94"/>
+      <c r="C103" s="136"/>
+      <c r="D103" s="136"/>
+      <c r="E103" s="136"/>
+      <c r="F103" s="136"/>
+      <c r="G103" s="136"/>
+      <c r="H103" s="136"/>
+      <c r="I103" s="136"/>
+      <c r="J103" s="136"/>
+      <c r="K103" s="136"/>
+      <c r="L103" s="136"/>
+      <c r="M103" s="136"/>
+      <c r="N103" s="136"/>
+      <c r="O103" s="137"/>
     </row>
     <row r="104" spans="1:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
@@ -9606,350 +9606,413 @@
     </row>
     <row r="108" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
-      <c r="C108" s="95" t="s">
+      <c r="C108" s="194" t="s">
         <v>132</v>
       </c>
-      <c r="D108" s="95"/>
-      <c r="E108" s="95"/>
-      <c r="F108" s="95"/>
-      <c r="G108" s="95"/>
-      <c r="H108" s="95"/>
-      <c r="I108" s="95"/>
-      <c r="J108" s="95"/>
-      <c r="K108" s="87" t="s">
+      <c r="D108" s="194"/>
+      <c r="E108" s="194"/>
+      <c r="F108" s="194"/>
+      <c r="G108" s="194"/>
+      <c r="H108" s="194"/>
+      <c r="I108" s="194"/>
+      <c r="J108" s="194"/>
+      <c r="K108" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="L108" s="87"/>
+      <c r="L108" s="93"/>
     </row>
     <row r="109" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
-      <c r="C109" s="86" t="s">
+      <c r="C109" s="205" t="s">
         <v>134</v>
       </c>
-      <c r="D109" s="86"/>
-      <c r="E109" s="86"/>
-      <c r="F109" s="86"/>
-      <c r="G109" s="86"/>
-      <c r="H109" s="86"/>
-      <c r="I109" s="86"/>
-      <c r="J109" s="86"/>
-      <c r="K109" s="87" t="s">
+      <c r="D109" s="205"/>
+      <c r="E109" s="205"/>
+      <c r="F109" s="205"/>
+      <c r="G109" s="205"/>
+      <c r="H109" s="205"/>
+      <c r="I109" s="205"/>
+      <c r="J109" s="205"/>
+      <c r="K109" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="L109" s="87"/>
+      <c r="L109" s="93"/>
       <c r="O109" s="80"/>
     </row>
     <row r="110" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
-      <c r="C110" s="83" t="s">
+      <c r="C110" s="203" t="s">
         <v>136</v>
       </c>
-      <c r="D110" s="83"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="83"/>
-      <c r="H110" s="83"/>
-      <c r="I110" s="83"/>
-      <c r="J110" s="83"/>
-      <c r="K110" s="84" t="s">
+      <c r="D110" s="203"/>
+      <c r="E110" s="203"/>
+      <c r="F110" s="203"/>
+      <c r="G110" s="203"/>
+      <c r="H110" s="203"/>
+      <c r="I110" s="203"/>
+      <c r="J110" s="203"/>
+      <c r="K110" s="204" t="s">
         <v>137</v>
       </c>
-      <c r="L110" s="84"/>
+      <c r="L110" s="204"/>
       <c r="O110" s="80"/>
     </row>
     <row r="111" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
-      <c r="C111" s="83" t="s">
+      <c r="C111" s="203" t="s">
         <v>138</v>
       </c>
-      <c r="D111" s="83"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="83"/>
-      <c r="H111" s="83"/>
-      <c r="I111" s="83"/>
-      <c r="J111" s="83"/>
-      <c r="K111" s="84" t="s">
+      <c r="D111" s="203"/>
+      <c r="E111" s="203"/>
+      <c r="F111" s="203"/>
+      <c r="G111" s="203"/>
+      <c r="H111" s="203"/>
+      <c r="I111" s="203"/>
+      <c r="J111" s="203"/>
+      <c r="K111" s="204" t="s">
         <v>139</v>
       </c>
-      <c r="L111" s="84"/>
+      <c r="L111" s="204"/>
       <c r="O111" s="80"/>
     </row>
     <row r="112" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
-      <c r="C112" s="83" t="s">
+      <c r="C112" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="83"/>
-      <c r="H112" s="83"/>
-      <c r="I112" s="83"/>
-      <c r="J112" s="83"/>
-      <c r="K112" s="84" t="s">
+      <c r="D112" s="203"/>
+      <c r="E112" s="203"/>
+      <c r="F112" s="203"/>
+      <c r="G112" s="203"/>
+      <c r="H112" s="203"/>
+      <c r="I112" s="203"/>
+      <c r="J112" s="203"/>
+      <c r="K112" s="204" t="s">
         <v>141</v>
       </c>
-      <c r="L112" s="84"/>
+      <c r="L112" s="204"/>
       <c r="O112" s="80"/>
     </row>
     <row r="113" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
-      <c r="C113" s="86" t="s">
+      <c r="C113" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="D113" s="86"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="86"/>
-      <c r="G113" s="86"/>
-      <c r="H113" s="86"/>
-      <c r="I113" s="86"/>
-      <c r="J113" s="86"/>
-      <c r="K113" s="87" t="s">
+      <c r="D113" s="205"/>
+      <c r="E113" s="205"/>
+      <c r="F113" s="205"/>
+      <c r="G113" s="205"/>
+      <c r="H113" s="205"/>
+      <c r="I113" s="205"/>
+      <c r="J113" s="205"/>
+      <c r="K113" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="L113" s="87"/>
+      <c r="L113" s="93"/>
     </row>
     <row r="114" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
-      <c r="C114" s="86" t="s">
+      <c r="C114" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="D114" s="86"/>
-      <c r="E114" s="86"/>
-      <c r="F114" s="86"/>
-      <c r="G114" s="86"/>
-      <c r="H114" s="86"/>
-      <c r="I114" s="86"/>
-      <c r="J114" s="86"/>
-      <c r="K114" s="87" t="s">
+      <c r="D114" s="205"/>
+      <c r="E114" s="205"/>
+      <c r="F114" s="205"/>
+      <c r="G114" s="205"/>
+      <c r="H114" s="205"/>
+      <c r="I114" s="205"/>
+      <c r="J114" s="205"/>
+      <c r="K114" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="L114" s="87"/>
+      <c r="L114" s="93"/>
     </row>
     <row r="115" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
-      <c r="C115" s="83" t="s">
+      <c r="C115" s="203" t="s">
         <v>146</v>
       </c>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="83"/>
-      <c r="H115" s="83"/>
-      <c r="I115" s="83"/>
-      <c r="J115" s="83"/>
-      <c r="K115" s="84" t="s">
+      <c r="D115" s="203"/>
+      <c r="E115" s="203"/>
+      <c r="F115" s="203"/>
+      <c r="G115" s="203"/>
+      <c r="H115" s="203"/>
+      <c r="I115" s="203"/>
+      <c r="J115" s="203"/>
+      <c r="K115" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="L115" s="84"/>
+      <c r="L115" s="204"/>
       <c r="O115" s="80"/>
     </row>
     <row r="116" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
-      <c r="C116" s="83" t="s">
+      <c r="C116" s="203" t="s">
         <v>148</v>
       </c>
-      <c r="D116" s="83"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="83"/>
-      <c r="H116" s="83"/>
-      <c r="I116" s="83"/>
-      <c r="J116" s="83"/>
-      <c r="K116" s="84" t="s">
+      <c r="D116" s="203"/>
+      <c r="E116" s="203"/>
+      <c r="F116" s="203"/>
+      <c r="G116" s="203"/>
+      <c r="H116" s="203"/>
+      <c r="I116" s="203"/>
+      <c r="J116" s="203"/>
+      <c r="K116" s="204" t="s">
         <v>149</v>
       </c>
-      <c r="L116" s="84"/>
+      <c r="L116" s="204"/>
       <c r="O116" s="80"/>
     </row>
     <row r="117" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
-      <c r="C117" s="83" t="s">
+      <c r="C117" s="203" t="s">
         <v>150</v>
       </c>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="83"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="83"/>
-      <c r="K117" s="84" t="s">
+      <c r="D117" s="203"/>
+      <c r="E117" s="203"/>
+      <c r="F117" s="203"/>
+      <c r="G117" s="203"/>
+      <c r="H117" s="203"/>
+      <c r="I117" s="203"/>
+      <c r="J117" s="203"/>
+      <c r="K117" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="L117" s="84"/>
+      <c r="L117" s="204"/>
       <c r="O117" s="80"/>
     </row>
     <row r="118" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
-      <c r="C118" s="83" t="s">
+      <c r="C118" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="D118" s="83"/>
-      <c r="E118" s="83"/>
-      <c r="F118" s="83"/>
-      <c r="G118" s="83"/>
-      <c r="H118" s="83"/>
-      <c r="I118" s="83"/>
-      <c r="J118" s="83"/>
-      <c r="K118" s="84" t="s">
+      <c r="D118" s="203"/>
+      <c r="E118" s="203"/>
+      <c r="F118" s="203"/>
+      <c r="G118" s="203"/>
+      <c r="H118" s="203"/>
+      <c r="I118" s="203"/>
+      <c r="J118" s="203"/>
+      <c r="K118" s="204" t="s">
         <v>153</v>
       </c>
-      <c r="L118" s="84"/>
+      <c r="L118" s="204"/>
       <c r="O118" s="80"/>
     </row>
     <row r="122" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="85" t="s">
+      <c r="C122" s="206" t="s">
         <v>154</v>
       </c>
-      <c r="D122" s="85"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
-      <c r="G122" s="82" t="s">
+      <c r="D122" s="206"/>
+      <c r="E122" s="206"/>
+      <c r="F122" s="206"/>
+      <c r="G122" s="207" t="s">
         <v>155</v>
       </c>
-      <c r="H122" s="82"/>
-      <c r="I122" s="82"/>
-      <c r="J122" s="82"/>
+      <c r="H122" s="207"/>
+      <c r="I122" s="207"/>
+      <c r="J122" s="207"/>
     </row>
     <row r="123" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="82" t="s">
+      <c r="C123" s="207" t="s">
         <v>156</v>
       </c>
-      <c r="D123" s="82"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="82"/>
-      <c r="G123" s="82" t="s">
+      <c r="D123" s="207"/>
+      <c r="E123" s="207"/>
+      <c r="F123" s="207"/>
+      <c r="G123" s="207" t="s">
         <v>157</v>
       </c>
-      <c r="H123" s="82"/>
-      <c r="I123" s="82"/>
-      <c r="J123" s="82"/>
+      <c r="H123" s="207"/>
+      <c r="I123" s="207"/>
+      <c r="J123" s="207"/>
     </row>
     <row r="124" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="82" t="s">
+      <c r="C124" s="207" t="s">
         <v>158</v>
       </c>
-      <c r="D124" s="82"/>
-      <c r="E124" s="82"/>
-      <c r="F124" s="82"/>
-      <c r="G124" s="82" t="s">
+      <c r="D124" s="207"/>
+      <c r="E124" s="207"/>
+      <c r="F124" s="207"/>
+      <c r="G124" s="207" t="s">
         <v>159</v>
       </c>
-      <c r="H124" s="82"/>
-      <c r="I124" s="82"/>
-      <c r="J124" s="82"/>
+      <c r="H124" s="207"/>
+      <c r="I124" s="207"/>
+      <c r="J124" s="207"/>
     </row>
     <row r="125" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="82" t="s">
+      <c r="C125" s="207" t="s">
         <v>160</v>
       </c>
-      <c r="D125" s="82"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="82"/>
-      <c r="G125" s="82" t="s">
+      <c r="D125" s="207"/>
+      <c r="E125" s="207"/>
+      <c r="F125" s="207"/>
+      <c r="G125" s="207" t="s">
         <v>161</v>
       </c>
-      <c r="H125" s="82"/>
-      <c r="I125" s="82"/>
-      <c r="J125" s="82"/>
+      <c r="H125" s="207"/>
+      <c r="I125" s="207"/>
+      <c r="J125" s="207"/>
     </row>
     <row r="126" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="82" t="s">
+      <c r="C126" s="207" t="s">
         <v>162</v>
       </c>
-      <c r="D126" s="82"/>
-      <c r="E126" s="82"/>
-      <c r="F126" s="82"/>
-      <c r="G126" s="82" t="s">
+      <c r="D126" s="207"/>
+      <c r="E126" s="207"/>
+      <c r="F126" s="207"/>
+      <c r="G126" s="207" t="s">
         <v>163</v>
       </c>
-      <c r="H126" s="82"/>
-      <c r="I126" s="82"/>
-      <c r="J126" s="82"/>
+      <c r="H126" s="207"/>
+      <c r="I126" s="207"/>
+      <c r="J126" s="207"/>
     </row>
     <row r="127" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="82" t="s">
+      <c r="C127" s="207" t="s">
         <v>164</v>
       </c>
-      <c r="D127" s="82"/>
-      <c r="E127" s="82"/>
-      <c r="F127" s="82"/>
-      <c r="G127" s="82" t="s">
+      <c r="D127" s="207"/>
+      <c r="E127" s="207"/>
+      <c r="F127" s="207"/>
+      <c r="G127" s="207" t="s">
         <v>165</v>
       </c>
-      <c r="H127" s="82"/>
-      <c r="I127" s="82"/>
-      <c r="J127" s="82"/>
+      <c r="H127" s="207"/>
+      <c r="I127" s="207"/>
+      <c r="J127" s="207"/>
     </row>
     <row r="128" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="82" t="s">
+      <c r="C128" s="207" t="s">
         <v>166</v>
       </c>
-      <c r="D128" s="82"/>
-      <c r="E128" s="82"/>
-      <c r="F128" s="82"/>
-      <c r="G128" s="82">
+      <c r="D128" s="207"/>
+      <c r="E128" s="207"/>
+      <c r="F128" s="207"/>
+      <c r="G128" s="207">
         <v>20250403</v>
       </c>
-      <c r="H128" s="82"/>
-      <c r="I128" s="82"/>
-      <c r="J128" s="82"/>
+      <c r="H128" s="207"/>
+      <c r="I128" s="207"/>
+      <c r="J128" s="207"/>
     </row>
     <row r="129" spans="3:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="82" t="s">
+      <c r="C129" s="207" t="s">
         <v>167</v>
       </c>
-      <c r="D129" s="82"/>
-      <c r="E129" s="82"/>
-      <c r="F129" s="82"/>
-      <c r="G129" s="82">
+      <c r="D129" s="207"/>
+      <c r="E129" s="207"/>
+      <c r="F129" s="207"/>
+      <c r="G129" s="207">
         <v>20250403</v>
       </c>
-      <c r="H129" s="82"/>
-      <c r="I129" s="82"/>
-      <c r="J129" s="82"/>
+      <c r="H129" s="207"/>
+      <c r="I129" s="207"/>
+      <c r="J129" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="G128:J128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="G129:J129"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="G125:J125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="G126:J126"/>
+    <mergeCell ref="C118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="C115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="C116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="C114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="C111:J111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="B101:O101"/>
+    <mergeCell ref="B103:O103"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:J98"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B86:O86"/>
+    <mergeCell ref="B87:N87"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="B89:O89"/>
+    <mergeCell ref="B90:O90"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B63:O63"/>
+    <mergeCell ref="B65:O65"/>
+    <mergeCell ref="A68:O68"/>
+    <mergeCell ref="B69:O69"/>
+    <mergeCell ref="B71:O71"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J60"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="N35:O35"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="J32:L32"/>
@@ -9965,106 +10028,43 @@
     <mergeCell ref="B28:O28"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="B38:O38"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J60"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B63:O63"/>
-    <mergeCell ref="B65:O65"/>
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="B69:O69"/>
-    <mergeCell ref="B71:O71"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="B86:O86"/>
-    <mergeCell ref="B87:N87"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="B89:O89"/>
-    <mergeCell ref="B90:O90"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="B101:O101"/>
-    <mergeCell ref="B103:O103"/>
-    <mergeCell ref="C108:J108"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:J98"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="C112:J112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="C114:J114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="C109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="C111:J111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="C118:J118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="C115:J115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="C116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="G127:J127"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="G128:J128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="G129:J129"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="G125:J125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="G126:J126"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="67" fitToWidth="2" orientation="portrait" r:id="rId1"/>

--- a/services/opengsync-app/static/resources/templates/library_prep/WES.xlsx
+++ b/services/opengsync-app/static/resources/templates/library_prep/WES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hriegler\Documents\limbless-app\services\opengsync-app\static\resources\templates\library_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735D2E94-4226-4A7D-9BA1-A12A86F0CF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3323BEAE-3FA3-4A53-8074-80A24091433E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="174">
   <si>
     <t>R0</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Library prep number:</t>
   </si>
   <si>
-    <t>E0119</t>
-  </si>
-  <si>
     <t xml:space="preserve">SOP Version: </t>
   </si>
   <si>
@@ -133,21 +130,12 @@
     <t>UDI 12nt Set A-D LOT#:</t>
   </si>
   <si>
-    <t>2000005106-014</t>
-  </si>
-  <si>
     <t>Signature:</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t>Twist Human Core Exome + RefSeq Panel LOT#:</t>
   </si>
   <si>
-    <t>2500002679  2500002682</t>
-  </si>
-  <si>
     <t>Twist Universal Blockers LOT#:</t>
   </si>
   <si>
@@ -166,19 +154,10 @@
     <t xml:space="preserve">Library person: </t>
   </si>
   <si>
-    <t>Carina Suete</t>
-  </si>
-  <si>
     <t>Library date:</t>
   </si>
   <si>
-    <t>1.4.2025</t>
-  </si>
-  <si>
     <t>Comments:</t>
-  </si>
-  <si>
-    <t>Fast track</t>
   </si>
   <si>
     <t>Number of samples:</t>
@@ -1752,379 +1731,379 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4731,7 +4710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CEC1DF-8ED0-B840-A178-84D3EE75C042}">
   <dimension ref="A1:Y97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -4760,22 +4739,22 @@
         <v>9</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G1" s="82" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>1</v>
@@ -4805,19 +4784,19 @@
         <v>13</v>
       </c>
       <c r="U1" s="81" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -7616,8 +7595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67189DA6-CD88-43FE-A49A-1F084804927C}">
   <dimension ref="A1:AK129"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P112" sqref="P112"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7656,252 +7635,224 @@
   <sheetData>
     <row r="1" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="206" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="86">
-        <v>20250108</v>
-      </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="207" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="185"/>
+      <c r="L4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="86">
-        <v>3400005192</v>
-      </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="13"/>
+      <c r="N4" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="13">
-        <v>1</v>
-      </c>
-      <c r="N4" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="84"/>
+      <c r="O4" s="202"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="AK4" s="14"/>
     </row>
     <row r="5" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="193" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="193"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="185"/>
+      <c r="K5" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86" t="s">
+      <c r="L5" s="204"/>
+      <c r="M5" s="13"/>
+      <c r="AK5" s="14"/>
+    </row>
+    <row r="6" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="K5" s="89" t="s">
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="185"/>
+      <c r="AK6" s="14"/>
+    </row>
+    <row r="7" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="13" t="s">
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="185"/>
+      <c r="AK7" s="14"/>
+    </row>
+    <row r="8" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="AK5" s="14"/>
-    </row>
-    <row r="6" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="86" t="s">
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="183">
+        <v>2500003856</v>
+      </c>
+      <c r="O8" s="184"/>
+      <c r="P8" s="185"/>
+      <c r="AK8" s="14"/>
+    </row>
+    <row r="9" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
-      <c r="AK6" s="14"/>
-    </row>
-    <row r="7" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86">
-        <v>3100001206</v>
-      </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="AK7" s="14"/>
-    </row>
-    <row r="8" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="86">
-        <v>2500004795</v>
-      </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="86">
-        <v>2500003856</v>
-      </c>
-      <c r="O8" s="87"/>
-      <c r="P8" s="88"/>
-      <c r="AK8" s="14"/>
-    </row>
-    <row r="9" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86">
-        <v>2500005946</v>
-      </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="86">
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="183">
         <v>2500005110</v>
       </c>
-      <c r="O9" s="87"/>
-      <c r="P9" s="88"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="185"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="AK9" s="14"/>
     </row>
     <row r="10" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
+      <c r="A10" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="199"/>
     </row>
     <row r="11" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
+      <c r="A11" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="185"/>
     </row>
     <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="116"/>
-      <c r="I12" s="117"/>
+      <c r="A12" s="186" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="189"/>
     </row>
     <row r="13" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="17">
-        <v>8</v>
-      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="18" t="b">
         <f>MOD(E13,8)=0</f>
         <v>1</v>
       </c>
       <c r="G13" s="18">
         <f>ROUNDDOWN((E13/8),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="18">
         <f>E13-G13*8</f>
@@ -7910,218 +7861,128 @@
       <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:37" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="118" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="120"/>
+      <c r="B14" s="190" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="192"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="23" cm="1">
-        <f t="array" ref="C16:R16">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!$C$2:$C$17))</f>
+        <v>35</v>
+      </c>
+      <c r="C16" s="23" t="b" cm="1">
+        <f t="array" ref="C16">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!$C$2:$C$17))</f>
         <v>0</v>
       </c>
-      <c r="D16" s="24">
-        <v>0</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0</v>
-      </c>
-      <c r="F16" s="24">
-        <v>0</v>
-      </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24">
-        <v>0</v>
-      </c>
-      <c r="I16" s="23">
-        <v>0</v>
-      </c>
-      <c r="J16" s="24">
-        <v>0</v>
-      </c>
-      <c r="K16" s="23">
-        <v>0</v>
-      </c>
-      <c r="L16" s="24">
-        <v>0</v>
-      </c>
-      <c r="M16" s="23">
-        <v>0</v>
-      </c>
-      <c r="N16" s="24">
-        <v>0</v>
-      </c>
-      <c r="O16" s="23">
-        <v>0</v>
-      </c>
-      <c r="P16" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>0</v>
-      </c>
-      <c r="R16" s="24">
-        <v>0</v>
-      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="26" cm="1">
-        <f t="array" ref="C17:R17">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!I2:I17))</f>
+        <v>36</v>
+      </c>
+      <c r="C17" s="26" t="b" cm="1">
+        <f t="array" ref="C17">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!I2:I17))</f>
         <v>0</v>
       </c>
-      <c r="D17" s="26">
-        <v>0</v>
-      </c>
-      <c r="E17" s="26">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26">
-        <v>0</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
-      <c r="H17" s="26">
-        <v>0</v>
-      </c>
-      <c r="I17" s="26">
-        <v>0</v>
-      </c>
-      <c r="J17" s="26">
-        <v>0</v>
-      </c>
-      <c r="K17" s="26">
-        <v>0</v>
-      </c>
-      <c r="L17" s="26">
-        <v>0</v>
-      </c>
-      <c r="M17" s="26">
-        <v>0</v>
-      </c>
-      <c r="N17" s="26">
-        <v>0</v>
-      </c>
-      <c r="O17" s="26">
-        <v>0</v>
-      </c>
-      <c r="P17" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="26">
-        <v>0</v>
-      </c>
-      <c r="R17" s="26">
-        <v>0</v>
-      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:18" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="26" cm="1">
-        <f t="array" ref="C18:R18">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!J2:J17))</f>
+        <v>37</v>
+      </c>
+      <c r="C18" s="26" t="b" cm="1">
+        <f t="array" ref="C18">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!J2:J17))</f>
         <v>0</v>
       </c>
-      <c r="D18" s="26">
-        <v>0</v>
-      </c>
-      <c r="E18" s="26">
-        <v>0</v>
-      </c>
-      <c r="F18" s="26">
-        <v>0</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
-        <v>0</v>
-      </c>
-      <c r="I18" s="26">
-        <v>0</v>
-      </c>
-      <c r="J18" s="26">
-        <v>0</v>
-      </c>
-      <c r="K18" s="26">
-        <v>0</v>
-      </c>
-      <c r="L18" s="26">
-        <v>0</v>
-      </c>
-      <c r="M18" s="26">
-        <v>0</v>
-      </c>
-      <c r="N18" s="26">
-        <v>0</v>
-      </c>
-      <c r="O18" s="26">
-        <v>0</v>
-      </c>
-      <c r="P18" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>0</v>
-      </c>
-      <c r="R18" s="26">
-        <v>0</v>
-      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="121" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="123"/>
+      <c r="B19" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="134"/>
     </row>
     <row r="20" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="20" t="str">
         <f>IF($F$13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*SUM(F23:F24)/8*1.1)," µL of Frag MM into each well of column 1 of MM plate"),CONCATENATE("Pipet ",(($G$13+1)*SUM((F23:F24))*1.1)," µL of FS1 into first ",$H$13," wells and ",(($G$13)*(SUM(F23:F24))*1.1)," µL into the other wells of MM plate column 1"))</f>
-        <v>Pipet 11.00 µL of Frag MM into each well of column 1 of MM plate</v>
+        <v>Pipet 0.00 µL of Frag MM into each well of column 1 of MM plate</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -8136,53 +7997,53 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="105" t="str">
+        <v>39</v>
+      </c>
+      <c r="G21" s="159" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
-        <v xml:space="preserve"> Volume for 8 samples</v>
-      </c>
-      <c r="H21" s="105"/>
+        <v xml:space="preserve"> Volume for  samples</v>
+      </c>
+      <c r="H21" s="159"/>
       <c r="O21" s="27"/>
     </row>
     <row r="22" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
+        <v>40</v>
+      </c>
+      <c r="C22" s="176" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
       <c r="F22" s="16">
         <v>40</v>
       </c>
-      <c r="G22" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="93"/>
+      <c r="G22" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="88"/>
       <c r="I22" s="29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="109"/>
+      <c r="C23" s="177" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="178"/>
+      <c r="E23" s="179"/>
       <c r="F23" s="16">
         <v>4</v>
       </c>
-      <c r="G23" s="93">
+      <c r="G23" s="88">
         <f>F23*1.1*$E$13</f>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="H23" s="93"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="88"/>
       <c r="I23" s="29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O23" s="27"/>
       <c r="Q23" s="20"/>
@@ -8190,96 +8051,96 @@
     <row r="24" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
+      <c r="C24" s="180" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="181"/>
+      <c r="E24" s="182"/>
       <c r="F24" s="30">
         <v>6</v>
       </c>
-      <c r="G24" s="113">
+      <c r="G24" s="150">
         <f>F24*1.1*$E$13</f>
-        <v>52.800000000000004</v>
-      </c>
-      <c r="H24" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="150"/>
       <c r="I24" s="31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O24" s="27"/>
     </row>
     <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
-      <c r="C25" s="129" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
+      <c r="C25" s="164" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="165"/>
+      <c r="E25" s="166"/>
       <c r="F25" s="32">
         <f>SUM(F22:F24)</f>
         <v>50</v>
       </c>
-      <c r="G25" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="132"/>
+      <c r="G25" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="151"/>
       <c r="I25" s="32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O25" s="27"/>
     </row>
     <row r="26" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="133" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="133"/>
+        <v>48</v>
+      </c>
+      <c r="D26" s="172" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="172"/>
       <c r="F26" s="20" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="O26" s="27"/>
     </row>
     <row r="27" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="20"/>
-      <c r="D27" s="134" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
+      <c r="D27" s="173" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="135" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="137"/>
+      <c r="B28" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="95"/>
     </row>
     <row r="29" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="20" t="str">
         <f>IF($F$13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*E34/8*1.1)," µL  of L into each well of column 2 of MM plate"),CONCATENATE("Pipet ",FIXED(($G$13+1)*E34*1.1)," µL of L into first ",$H$13," wells and ",FIXED(($G$13)*E34*1.1)," µL into the other wells of MM plate column 2"))</f>
-        <v>Pipet 22.00 µL  of L into each well of column 2 of MM plate</v>
+        <v>Pipet 0.00 µL  of L into each well of column 2 of MM plate</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -8288,7 +8149,7 @@
       <c r="A30" s="19"/>
       <c r="B30" s="20" t="str">
         <f>IF($F$13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*E33/8*1.1)," µL  of A into each well of column 2 of MM plate"),CONCATENATE("Pipet ",FIXED(($G$13+1)*E33*1.1)," µL of A into first ",$H$13," wells and ",FIXED(($G$13)*E33*1.1)," µL into the other wells of MM plate column 2"))</f>
-        <v>Pipet 5.50 µL  of A into each well of column 2 of MM plate</v>
+        <v>Pipet 0.00 µL  of A into each well of column 2 of MM plate</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -8296,319 +8157,319 @@
     <row r="31" spans="1:18" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="105" t="str">
+        <v>39</v>
+      </c>
+      <c r="F31" s="159" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
-        <v xml:space="preserve"> Volume for 8 samples</v>
-      </c>
-      <c r="G31" s="105"/>
+        <v xml:space="preserve"> Volume for  samples</v>
+      </c>
+      <c r="G31" s="159"/>
       <c r="I31" s="33" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="N31" s="138" t="str">
+        <v>39</v>
+      </c>
+      <c r="N31" s="174" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
-        <v xml:space="preserve"> Volume for 8 samples</v>
-      </c>
-      <c r="O31" s="139"/>
+        <v xml:space="preserve"> Volume for  samples</v>
+      </c>
+      <c r="O31" s="175"/>
     </row>
     <row r="32" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
-      <c r="B32" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
+      <c r="B32" s="170" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="170"/>
+      <c r="D32" s="170"/>
       <c r="E32" s="16">
         <v>50</v>
       </c>
-      <c r="F32" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="93"/>
+      <c r="F32" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="88"/>
       <c r="H32" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
+        <v>43</v>
+      </c>
+      <c r="J32" s="161" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
       <c r="M32" s="35">
         <v>50</v>
       </c>
-      <c r="N32" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="O32" s="127"/>
+      <c r="N32" s="162" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="163"/>
       <c r="P32" s="36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
-      <c r="B33" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
+      <c r="B33" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
       <c r="E33" s="16">
         <v>5</v>
       </c>
-      <c r="F33" s="93">
+      <c r="F33" s="88">
         <f>E33*1.1*$E$13</f>
-        <v>44</v>
-      </c>
-      <c r="G33" s="93"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="88"/>
       <c r="H33" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
+        <v>43</v>
+      </c>
+      <c r="J33" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="161"/>
+      <c r="L33" s="161"/>
       <c r="M33" s="35">
         <v>3</v>
       </c>
-      <c r="N33" s="126">
+      <c r="N33" s="162">
         <f>M33*1.1*$E$13</f>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="O33" s="127"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="163"/>
       <c r="P33" s="36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="152" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
+      <c r="B34" s="160" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
       <c r="E34" s="30">
         <v>20</v>
       </c>
-      <c r="F34" s="113">
+      <c r="F34" s="150">
         <f>E34*1.1*$E$13</f>
-        <v>176</v>
-      </c>
-      <c r="G34" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="150"/>
       <c r="H34" s="31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
+        <v>58</v>
+      </c>
+      <c r="J34" s="161" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="161"/>
+      <c r="L34" s="161"/>
       <c r="M34" s="35">
         <v>2</v>
       </c>
-      <c r="N34" s="126">
+      <c r="N34" s="162">
         <f>M34*1.1*$E$13</f>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="O34" s="127"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="163"/>
       <c r="P34" s="36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
-      <c r="B35" s="129" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="131"/>
+      <c r="B35" s="164" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="165"/>
+      <c r="D35" s="166"/>
       <c r="E35" s="32">
         <f>SUM(E32:E34)</f>
         <v>75</v>
       </c>
-      <c r="F35" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="132"/>
+      <c r="F35" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="151"/>
       <c r="H35" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" s="153" t="s">
-        <v>64</v>
-      </c>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
+        <v>43</v>
+      </c>
+      <c r="J35" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="167"/>
+      <c r="L35" s="167"/>
       <c r="M35" s="37">
         <v>20</v>
       </c>
-      <c r="N35" s="154">
+      <c r="N35" s="168">
         <f>M35*1.1*$E$13</f>
-        <v>176</v>
-      </c>
-      <c r="O35" s="155"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="169"/>
       <c r="P35" s="38" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="39" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="J36" s="140" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" s="140"/>
-      <c r="L36" s="140"/>
+        <v>60</v>
+      </c>
+      <c r="J36" s="153" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
       <c r="M36" s="41">
         <v>25</v>
       </c>
-      <c r="N36" s="141" t="s">
-        <v>49</v>
-      </c>
-      <c r="O36" s="142"/>
+      <c r="N36" s="154" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="155"/>
       <c r="P36" s="42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="D37" s="40" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
-      <c r="B38" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="145"/>
+      <c r="B38" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="92"/>
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="20" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
-      <c r="B40" s="146" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147"/>
-      <c r="N40" s="147"/>
-      <c r="O40" s="148"/>
+      <c r="B40" s="156" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="157"/>
+      <c r="M40" s="157"/>
+      <c r="N40" s="157"/>
+      <c r="O40" s="158"/>
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="20" t="str">
         <f>IF($F$13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*E45/8*1.1)," µL of Equinox Library Amp Mix into each well of column 3 of MM plate"),CONCATENATE("Pipet ",FIXED(($G$13+1)*E45*1.1)," µL of Equinox Library Amp Mix into first ",$H$13," wells and ",FIXED(($G$13)*E45*1.1)," µL into the other wells of MM plate column 3"))</f>
-        <v>Pipet 27.50 µL of Equinox Library Amp Mix into each well of column 3 of MM plate</v>
+        <v>Pipet 0.00 µL of Equinox Library Amp Mix into each well of column 3 of MM plate</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="105" t="str">
+        <v>39</v>
+      </c>
+      <c r="F42" s="159" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
-        <v xml:space="preserve"> Volume for 8 samples</v>
-      </c>
-      <c r="G42" s="105"/>
+        <v xml:space="preserve"> Volume for  samples</v>
+      </c>
+      <c r="G42" s="159"/>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
-      <c r="B43" s="149" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="150"/>
-      <c r="D43" s="151"/>
+      <c r="B43" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="120"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="44">
         <v>15</v>
       </c>
-      <c r="F43" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="93"/>
+      <c r="F43" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="88"/>
       <c r="H43" s="29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
-      <c r="B44" s="166" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="167"/>
-      <c r="D44" s="168"/>
+      <c r="B44" s="144" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="145"/>
+      <c r="D44" s="146"/>
       <c r="E44" s="45">
         <v>10</v>
       </c>
-      <c r="F44" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="93"/>
+      <c r="F44" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="88"/>
       <c r="H44" s="29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
-      <c r="B45" s="169" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="170"/>
-      <c r="D45" s="171"/>
+      <c r="B45" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="148"/>
+      <c r="D45" s="149"/>
       <c r="E45" s="30">
         <v>25</v>
       </c>
-      <c r="F45" s="113">
+      <c r="F45" s="150">
         <f>E45*1.1*$E$13</f>
-        <v>220.00000000000003</v>
-      </c>
-      <c r="G45" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="150"/>
       <c r="H45" s="46" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8616,24 +8477,24 @@
       <c r="E46" s="47">
         <v>50</v>
       </c>
-      <c r="F46" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="132"/>
+      <c r="F46" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="151"/>
       <c r="H46" s="48" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I46" s="49" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50"/>
       <c r="B47" s="39" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K47" s="51"/>
     </row>
@@ -8680,7 +8541,7 @@
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
@@ -8697,7 +8558,7 @@
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
@@ -8714,7 +8575,7 @@
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="54" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C51" s="55"/>
       <c r="D51" s="55"/>
@@ -8731,7 +8592,7 @@
     </row>
     <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="54" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
@@ -8748,7 +8609,7 @@
     </row>
     <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="54" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
@@ -8765,7 +8626,7 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="54" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
@@ -8782,7 +8643,7 @@
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="54" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -8799,7 +8660,7 @@
     </row>
     <row r="56" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="54" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
@@ -8817,167 +8678,137 @@
     <row r="57" spans="1:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
       <c r="B57" s="20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F57" s="56"/>
-      <c r="G57" s="172" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="172"/>
+      <c r="G57" s="152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="152"/>
       <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
-      <c r="G58" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="H58" s="157"/>
-      <c r="I58" s="158" t="s">
-        <v>87</v>
-      </c>
-      <c r="J58" s="159"/>
+      <c r="G58" s="135" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" s="136"/>
+      <c r="I58" s="137" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" s="138"/>
     </row>
     <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
-      <c r="G59" s="156" t="s">
-        <v>88</v>
-      </c>
-      <c r="H59" s="157"/>
-      <c r="I59" s="160"/>
-      <c r="J59" s="161"/>
+      <c r="G59" s="135" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="136"/>
+      <c r="I59" s="139"/>
+      <c r="J59" s="140"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
-      <c r="G60" s="156" t="s">
-        <v>89</v>
-      </c>
-      <c r="H60" s="157"/>
-      <c r="I60" s="162"/>
-      <c r="J60" s="163"/>
+      <c r="G60" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="H60" s="136"/>
+      <c r="I60" s="141"/>
+      <c r="J60" s="142"/>
     </row>
     <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
-      <c r="G61" s="164" t="s">
-        <v>90</v>
-      </c>
-      <c r="H61" s="164"/>
+      <c r="G61" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="143"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G62" s="165" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" s="165"/>
+      <c r="G62" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" s="89"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
     </row>
     <row r="63" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
-      <c r="B63" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="144"/>
-      <c r="J63" s="144"/>
-      <c r="K63" s="144"/>
-      <c r="L63" s="144"/>
-      <c r="M63" s="144"/>
-      <c r="N63" s="144"/>
-      <c r="O63" s="145"/>
+      <c r="B63" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="91"/>
+      <c r="N63" s="91"/>
+      <c r="O63" s="92"/>
     </row>
     <row r="64" spans="1:15" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
       <c r="B64" s="20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="50"/>
-      <c r="B65" s="135" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="178"/>
-      <c r="D65" s="178"/>
-      <c r="E65" s="178"/>
-      <c r="F65" s="178"/>
-      <c r="G65" s="178"/>
-      <c r="H65" s="178"/>
-      <c r="I65" s="178"/>
-      <c r="J65" s="178"/>
-      <c r="K65" s="178"/>
-      <c r="L65" s="178"/>
-      <c r="M65" s="178"/>
-      <c r="N65" s="178"/>
-      <c r="O65" s="179"/>
+      <c r="B65" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="125"/>
+      <c r="K65" s="125"/>
+      <c r="L65" s="125"/>
+      <c r="M65" s="125"/>
+      <c r="N65" s="125"/>
+      <c r="O65" s="126"/>
     </row>
     <row r="66" spans="1:19" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
       <c r="B66" s="57" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C66" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="16" cm="1">
-        <f t="array" ref="D66:S66">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!$C$3:$C$18))</f>
+        <v>35</v>
+      </c>
+      <c r="D66" s="16" t="b" cm="1">
+        <f t="array" ref="D66">IF(ISNUMBER($E$13),TRANSPOSE(prep_table!$C$3:$C$18))</f>
         <v>0</v>
       </c>
-      <c r="E66" s="16">
-        <v>0</v>
-      </c>
-      <c r="F66" s="16">
-        <v>0</v>
-      </c>
-      <c r="G66" s="16">
-        <v>0</v>
-      </c>
-      <c r="H66" s="16">
-        <v>0</v>
-      </c>
-      <c r="I66" s="16">
-        <v>0</v>
-      </c>
-      <c r="J66" s="16">
-        <v>0</v>
-      </c>
-      <c r="K66" s="16">
-        <v>0</v>
-      </c>
-      <c r="L66" s="16">
-        <v>0</v>
-      </c>
-      <c r="M66" s="16">
-        <v>0</v>
-      </c>
-      <c r="N66" s="16">
-        <v>0</v>
-      </c>
-      <c r="O66" s="16">
-        <v>0</v>
-      </c>
-      <c r="P66" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="16">
-        <v>0</v>
-      </c>
-      <c r="R66" s="16">
-        <v>0</v>
-      </c>
-      <c r="S66" s="16">
-        <v>0</v>
-      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
     </row>
     <row r="67" spans="1:19" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="59"/>
       <c r="C67" s="60" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D67" s="61"/>
       <c r="E67" s="61"/>
@@ -8997,50 +8828,50 @@
       <c r="S67" s="16"/>
     </row>
     <row r="68" spans="1:19" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="180" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="181"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
-      <c r="E68" s="181"/>
-      <c r="F68" s="181"/>
-      <c r="G68" s="181"/>
-      <c r="H68" s="181"/>
-      <c r="I68" s="181"/>
-      <c r="J68" s="181"/>
-      <c r="K68" s="181"/>
-      <c r="L68" s="181"/>
-      <c r="M68" s="181"/>
-      <c r="N68" s="181"/>
-      <c r="O68" s="182"/>
+      <c r="A68" s="127" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="128"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="128"/>
+      <c r="E68" s="128"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="128"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="128"/>
+      <c r="L68" s="128"/>
+      <c r="M68" s="128"/>
+      <c r="N68" s="128"/>
+      <c r="O68" s="129"/>
       <c r="P68" s="62" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="63"/>
-      <c r="B69" s="183" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="184"/>
-      <c r="D69" s="184"/>
-      <c r="E69" s="184"/>
-      <c r="F69" s="184"/>
-      <c r="G69" s="184"/>
-      <c r="H69" s="184"/>
-      <c r="I69" s="184"/>
-      <c r="J69" s="184"/>
-      <c r="K69" s="184"/>
-      <c r="L69" s="184"/>
-      <c r="M69" s="184"/>
-      <c r="N69" s="184"/>
-      <c r="O69" s="184"/>
+      <c r="B69" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="131"/>
+      <c r="D69" s="131"/>
+      <c r="E69" s="131"/>
+      <c r="F69" s="131"/>
+      <c r="G69" s="131"/>
+      <c r="H69" s="131"/>
+      <c r="I69" s="131"/>
+      <c r="J69" s="131"/>
+      <c r="K69" s="131"/>
+      <c r="L69" s="131"/>
+      <c r="M69" s="131"/>
+      <c r="N69" s="131"/>
+      <c r="O69" s="131"/>
     </row>
     <row r="70" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="64"/>
       <c r="B70" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -9054,64 +8885,64 @@
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
       <c r="N70" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O70" s="51"/>
     </row>
     <row r="71" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
-      <c r="B71" s="121" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="122"/>
-      <c r="D71" s="122"/>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
-      <c r="G71" s="122"/>
-      <c r="H71" s="122"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="122"/>
-      <c r="L71" s="122"/>
-      <c r="M71" s="122"/>
-      <c r="N71" s="122"/>
-      <c r="O71" s="123"/>
+      <c r="B71" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="133"/>
+      <c r="D71" s="133"/>
+      <c r="E71" s="133"/>
+      <c r="F71" s="133"/>
+      <c r="G71" s="133"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="133"/>
+      <c r="J71" s="133"/>
+      <c r="K71" s="133"/>
+      <c r="L71" s="133"/>
+      <c r="M71" s="133"/>
+      <c r="N71" s="133"/>
+      <c r="O71" s="134"/>
     </row>
     <row r="72" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="64"/>
-      <c r="B72" s="173" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="173"/>
-      <c r="D72" s="173"/>
-      <c r="E72" s="173"/>
-      <c r="F72" s="173"/>
-      <c r="G72" s="173"/>
-      <c r="H72" s="173"/>
-      <c r="I72" s="173"/>
-      <c r="J72" s="173"/>
-      <c r="K72" s="173"/>
-      <c r="L72" s="173"/>
-      <c r="M72" s="173"/>
+      <c r="B72" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="110"/>
+      <c r="D72" s="110"/>
+      <c r="E72" s="110"/>
+      <c r="F72" s="110"/>
+      <c r="G72" s="110"/>
+      <c r="H72" s="110"/>
+      <c r="I72" s="110"/>
+      <c r="J72" s="110"/>
+      <c r="K72" s="110"/>
+      <c r="L72" s="110"/>
+      <c r="M72" s="110"/>
       <c r="N72" s="15"/>
     </row>
     <row r="73" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
-      <c r="B73" s="174" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="173"/>
-      <c r="D73" s="173"/>
-      <c r="E73" s="149" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="150"/>
-      <c r="G73" s="151"/>
+      <c r="B73" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="110"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="120"/>
+      <c r="G73" s="121"/>
       <c r="H73" s="65">
         <v>20</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J73" s="15"/>
     </row>
@@ -9120,16 +8951,16 @@
       <c r="B74" s="20"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
-      <c r="E74" s="175" t="s">
-        <v>103</v>
-      </c>
-      <c r="F74" s="176"/>
-      <c r="G74" s="177"/>
+      <c r="E74" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74" s="123"/>
+      <c r="G74" s="124"/>
       <c r="H74" s="66">
         <v>4</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J74" s="15"/>
     </row>
@@ -9137,16 +8968,16 @@
       <c r="A75" s="21"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="175" t="s">
-        <v>104</v>
-      </c>
-      <c r="F75" s="176"/>
-      <c r="G75" s="177"/>
+      <c r="E75" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="F75" s="123"/>
+      <c r="G75" s="124"/>
       <c r="H75" s="67">
         <v>4</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J75" s="15"/>
     </row>
@@ -9156,19 +8987,19 @@
         <v>28</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J76" s="15"/>
     </row>
     <row r="77" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="165" t="s">
-        <v>105</v>
-      </c>
-      <c r="E77" s="165"/>
+        <v>48</v>
+      </c>
+      <c r="D77" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="89"/>
       <c r="F77" s="68"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -9176,10 +9007,10 @@
     </row>
     <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
-      <c r="D78" s="165" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" s="165"/>
+      <c r="D78" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="89"/>
       <c r="F78" s="68"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -9187,10 +9018,10 @@
     </row>
     <row r="79" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
-      <c r="D79" s="165" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="165"/>
+      <c r="D79" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="89"/>
       <c r="F79" s="68"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -9199,49 +9030,49 @@
     <row r="80" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="149" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" s="150"/>
-      <c r="E80" s="151"/>
+        <v>40</v>
+      </c>
+      <c r="C80" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="120"/>
+      <c r="E80" s="121"/>
       <c r="F80" s="65" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I80" s="15"/>
     </row>
     <row r="81" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="20"/>
-      <c r="C81" s="175" t="s">
-        <v>109</v>
-      </c>
-      <c r="D81" s="176"/>
-      <c r="E81" s="177"/>
+      <c r="C81" s="122" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="123"/>
+      <c r="E81" s="124"/>
       <c r="F81" s="66">
         <v>5</v>
       </c>
       <c r="G81" s="69" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
-      <c r="C82" s="175" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" s="176"/>
-      <c r="E82" s="177"/>
+      <c r="C82" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" s="123"/>
+      <c r="E82" s="124"/>
       <c r="F82" s="67">
         <v>7</v>
       </c>
       <c r="G82" s="69" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I82" s="15"/>
     </row>
@@ -9251,22 +9082,22 @@
         <v>12</v>
       </c>
       <c r="G83" s="70" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H83" s="49" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I83" s="15"/>
     </row>
     <row r="84" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D84" s="185" t="s">
-        <v>111</v>
-      </c>
-      <c r="E84" s="185"/>
+        <v>48</v>
+      </c>
+      <c r="D84" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="108"/>
       <c r="F84" s="68"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -9274,10 +9105,10 @@
     </row>
     <row r="85" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
-      <c r="D85" s="185" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="185"/>
+      <c r="D85" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" s="108"/>
       <c r="F85" s="68"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -9285,46 +9116,46 @@
     </row>
     <row r="86" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
-      <c r="B86" s="174" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" s="173"/>
-      <c r="D86" s="173"/>
-      <c r="E86" s="173"/>
-      <c r="F86" s="173"/>
-      <c r="G86" s="173"/>
-      <c r="H86" s="173"/>
-      <c r="I86" s="173"/>
-      <c r="J86" s="173"/>
-      <c r="K86" s="173"/>
-      <c r="L86" s="173"/>
-      <c r="M86" s="173"/>
-      <c r="N86" s="173"/>
-      <c r="O86" s="173"/>
+      <c r="B86" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="110"/>
+      <c r="D86" s="110"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="110"/>
+      <c r="H86" s="110"/>
+      <c r="I86" s="110"/>
+      <c r="J86" s="110"/>
+      <c r="K86" s="110"/>
+      <c r="L86" s="110"/>
+      <c r="M86" s="110"/>
+      <c r="N86" s="110"/>
+      <c r="O86" s="110"/>
     </row>
     <row r="87" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
-      <c r="B87" s="173" t="s">
-        <v>113</v>
-      </c>
-      <c r="C87" s="173"/>
-      <c r="D87" s="173"/>
-      <c r="E87" s="173"/>
-      <c r="F87" s="173"/>
-      <c r="G87" s="173"/>
-      <c r="H87" s="173"/>
-      <c r="I87" s="173"/>
-      <c r="J87" s="173"/>
-      <c r="K87" s="173"/>
-      <c r="L87" s="173"/>
-      <c r="M87" s="173"/>
-      <c r="N87" s="173"/>
+      <c r="B87" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="110"/>
+      <c r="D87" s="110"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="110"/>
+      <c r="G87" s="110"/>
+      <c r="H87" s="110"/>
+      <c r="I87" s="110"/>
+      <c r="J87" s="110"/>
+      <c r="K87" s="110"/>
+      <c r="L87" s="110"/>
+      <c r="M87" s="110"/>
+      <c r="N87" s="110"/>
       <c r="O87" s="15"/>
     </row>
     <row r="88" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
       <c r="B88" s="20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
@@ -9340,104 +9171,104 @@
       <c r="N88" s="20"/>
       <c r="O88" s="20"/>
       <c r="P88" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q88" s="186"/>
-      <c r="R88" s="187"/>
+        <v>108</v>
+      </c>
+      <c r="Q88" s="111"/>
+      <c r="R88" s="112"/>
     </row>
     <row r="89" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="71"/>
-      <c r="B89" s="188" t="s">
-        <v>116</v>
-      </c>
-      <c r="C89" s="189"/>
-      <c r="D89" s="189"/>
-      <c r="E89" s="189"/>
-      <c r="F89" s="189"/>
-      <c r="G89" s="189"/>
-      <c r="H89" s="189"/>
-      <c r="I89" s="189"/>
-      <c r="J89" s="189"/>
-      <c r="K89" s="189"/>
-      <c r="L89" s="189"/>
-      <c r="M89" s="189"/>
-      <c r="N89" s="189"/>
-      <c r="O89" s="190"/>
+      <c r="B89" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="114"/>
+      <c r="D89" s="114"/>
+      <c r="E89" s="114"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="114"/>
+      <c r="H89" s="114"/>
+      <c r="I89" s="114"/>
+      <c r="J89" s="114"/>
+      <c r="K89" s="114"/>
+      <c r="L89" s="114"/>
+      <c r="M89" s="114"/>
+      <c r="N89" s="114"/>
+      <c r="O89" s="115"/>
     </row>
     <row r="90" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
-      <c r="B90" s="191" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="192"/>
-      <c r="D90" s="192"/>
-      <c r="E90" s="192"/>
-      <c r="F90" s="192"/>
-      <c r="G90" s="192"/>
-      <c r="H90" s="192"/>
-      <c r="I90" s="192"/>
-      <c r="J90" s="192"/>
-      <c r="K90" s="192"/>
-      <c r="L90" s="192"/>
-      <c r="M90" s="192"/>
-      <c r="N90" s="192"/>
-      <c r="O90" s="193"/>
+      <c r="B90" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="117"/>
+      <c r="D90" s="117"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="117"/>
+      <c r="H90" s="117"/>
+      <c r="I90" s="117"/>
+      <c r="J90" s="117"/>
+      <c r="K90" s="117"/>
+      <c r="L90" s="117"/>
+      <c r="M90" s="117"/>
+      <c r="N90" s="117"/>
+      <c r="O90" s="118"/>
     </row>
     <row r="91" spans="1:18" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="195" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" s="196"/>
-      <c r="E91" s="197"/>
+        <v>40</v>
+      </c>
+      <c r="C91" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="98"/>
+      <c r="E91" s="99"/>
       <c r="F91" s="72" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G91" s="73"/>
       <c r="H91" s="74" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I91" s="15"/>
     </row>
     <row r="92" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="20"/>
-      <c r="C92" s="198" t="s">
-        <v>120</v>
-      </c>
-      <c r="D92" s="199"/>
-      <c r="E92" s="200"/>
+      <c r="C92" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="101"/>
+      <c r="E92" s="102"/>
       <c r="F92" s="75" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G92" s="76">
         <f>F92*$E$13/8*1.1</f>
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="H92" s="77" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I92" s="15"/>
     </row>
     <row r="93" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
-      <c r="C93" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="D93" s="103"/>
-      <c r="E93" s="104"/>
+      <c r="C93" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="104"/>
+      <c r="E93" s="105"/>
       <c r="F93" s="67">
         <v>25</v>
       </c>
       <c r="G93" s="78">
         <f t="shared" ref="G93:G94" si="0">F93*$E$13/8*1.1</f>
-        <v>27.500000000000004</v>
+        <v>0</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I93" s="15"/>
     </row>
@@ -9448,123 +9279,123 @@
       </c>
       <c r="G94" s="78">
         <f t="shared" si="0"/>
-        <v>55.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I94" s="49" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
       <c r="B95" s="20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F95" s="56"/>
-      <c r="G95" s="165" t="s">
-        <v>85</v>
-      </c>
-      <c r="H95" s="165"/>
+      <c r="G95" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="H95" s="89"/>
       <c r="J95" s="15"/>
     </row>
     <row r="96" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
-      <c r="G96" s="201" t="s">
-        <v>86</v>
-      </c>
-      <c r="H96" s="201"/>
-      <c r="I96" s="202" t="s">
-        <v>168</v>
-      </c>
-      <c r="J96" s="93"/>
+      <c r="G96" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" s="106"/>
+      <c r="I96" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="J96" s="88"/>
     </row>
     <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
-      <c r="G97" s="201" t="s">
-        <v>88</v>
-      </c>
-      <c r="H97" s="201"/>
-      <c r="I97" s="93"/>
-      <c r="J97" s="93"/>
+      <c r="G97" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="H97" s="106"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
     </row>
     <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
-      <c r="G98" s="201" t="s">
-        <v>89</v>
-      </c>
-      <c r="H98" s="201"/>
-      <c r="I98" s="93"/>
-      <c r="J98" s="93"/>
+      <c r="G98" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="H98" s="106"/>
+      <c r="I98" s="88"/>
+      <c r="J98" s="88"/>
     </row>
     <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
-      <c r="G99" s="165" t="s">
-        <v>90</v>
-      </c>
-      <c r="H99" s="165"/>
+      <c r="G99" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="H99" s="89"/>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
     </row>
     <row r="100" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G100" s="165" t="s">
-        <v>68</v>
-      </c>
-      <c r="H100" s="165"/>
+      <c r="G100" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="H100" s="89"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
     </row>
     <row r="101" spans="1:15" s="15" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="143" t="s">
-        <v>123</v>
-      </c>
-      <c r="C101" s="144"/>
-      <c r="D101" s="144"/>
-      <c r="E101" s="144"/>
-      <c r="F101" s="144"/>
-      <c r="G101" s="144"/>
-      <c r="H101" s="144"/>
-      <c r="I101" s="144"/>
-      <c r="J101" s="144"/>
-      <c r="K101" s="144"/>
-      <c r="L101" s="144"/>
-      <c r="M101" s="144"/>
-      <c r="N101" s="144"/>
-      <c r="O101" s="145"/>
+      <c r="B101" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="91"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="91"/>
+      <c r="I101" s="91"/>
+      <c r="J101" s="91"/>
+      <c r="K101" s="91"/>
+      <c r="L101" s="91"/>
+      <c r="M101" s="91"/>
+      <c r="N101" s="91"/>
+      <c r="O101" s="92"/>
     </row>
     <row r="102" spans="1:15" s="15" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="64"/>
       <c r="B102" s="57" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K102" s="57" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:15" s="15" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="50"/>
-      <c r="B103" s="135" t="s">
-        <v>92</v>
-      </c>
-      <c r="C103" s="136"/>
-      <c r="D103" s="136"/>
-      <c r="E103" s="136"/>
-      <c r="F103" s="136"/>
-      <c r="G103" s="136"/>
-      <c r="H103" s="136"/>
-      <c r="I103" s="136"/>
-      <c r="J103" s="136"/>
-      <c r="K103" s="136"/>
-      <c r="L103" s="136"/>
-      <c r="M103" s="136"/>
-      <c r="N103" s="136"/>
-      <c r="O103" s="137"/>
+      <c r="B103" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="94"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="94"/>
+      <c r="G103" s="94"/>
+      <c r="H103" s="94"/>
+      <c r="I103" s="94"/>
+      <c r="J103" s="94"/>
+      <c r="K103" s="94"/>
+      <c r="L103" s="94"/>
+      <c r="M103" s="94"/>
+      <c r="N103" s="94"/>
+      <c r="O103" s="95"/>
     </row>
     <row r="104" spans="1:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
       <c r="B104" s="57" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C104" s="20"/>
       <c r="E104" s="79"/>
@@ -9572,7 +9403,7 @@
     <row r="105" spans="1:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
       <c r="B105" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
@@ -9582,422 +9413,389 @@
       <c r="A106" s="39"/>
       <c r="B106" s="20"/>
       <c r="C106" s="57" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
       <c r="F106" s="57"/>
       <c r="G106" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="20"/>
       <c r="C107" s="57" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D107" s="57"/>
       <c r="E107" s="57"/>
       <c r="F107" s="57"/>
       <c r="G107" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
-      <c r="C108" s="194" t="s">
-        <v>132</v>
-      </c>
-      <c r="D108" s="194"/>
-      <c r="E108" s="194"/>
-      <c r="F108" s="194"/>
-      <c r="G108" s="194"/>
-      <c r="H108" s="194"/>
-      <c r="I108" s="194"/>
-      <c r="J108" s="194"/>
-      <c r="K108" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="L108" s="93"/>
+      <c r="C108" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" s="96"/>
+      <c r="E108" s="96"/>
+      <c r="F108" s="96"/>
+      <c r="G108" s="96"/>
+      <c r="H108" s="96"/>
+      <c r="I108" s="96"/>
+      <c r="J108" s="96"/>
+      <c r="K108" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="L108" s="88"/>
     </row>
     <row r="109" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
-      <c r="C109" s="205" t="s">
-        <v>134</v>
-      </c>
-      <c r="D109" s="205"/>
-      <c r="E109" s="205"/>
-      <c r="F109" s="205"/>
-      <c r="G109" s="205"/>
-      <c r="H109" s="205"/>
-      <c r="I109" s="205"/>
-      <c r="J109" s="205"/>
-      <c r="K109" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="L109" s="93"/>
+      <c r="C109" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" s="87"/>
+      <c r="E109" s="87"/>
+      <c r="F109" s="87"/>
+      <c r="G109" s="87"/>
+      <c r="H109" s="87"/>
+      <c r="I109" s="87"/>
+      <c r="J109" s="87"/>
+      <c r="K109" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="L109" s="88"/>
       <c r="O109" s="80"/>
     </row>
     <row r="110" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
-      <c r="C110" s="203" t="s">
-        <v>136</v>
-      </c>
-      <c r="D110" s="203"/>
-      <c r="E110" s="203"/>
-      <c r="F110" s="203"/>
-      <c r="G110" s="203"/>
-      <c r="H110" s="203"/>
-      <c r="I110" s="203"/>
-      <c r="J110" s="203"/>
-      <c r="K110" s="204" t="s">
-        <v>137</v>
-      </c>
-      <c r="L110" s="204"/>
+      <c r="C110" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110" s="84"/>
+      <c r="E110" s="84"/>
+      <c r="F110" s="84"/>
+      <c r="G110" s="84"/>
+      <c r="H110" s="84"/>
+      <c r="I110" s="84"/>
+      <c r="J110" s="84"/>
+      <c r="K110" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="L110" s="85"/>
       <c r="O110" s="80"/>
     </row>
     <row r="111" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
-      <c r="C111" s="203" t="s">
-        <v>138</v>
-      </c>
-      <c r="D111" s="203"/>
-      <c r="E111" s="203"/>
-      <c r="F111" s="203"/>
-      <c r="G111" s="203"/>
-      <c r="H111" s="203"/>
-      <c r="I111" s="203"/>
-      <c r="J111" s="203"/>
-      <c r="K111" s="204" t="s">
-        <v>139</v>
-      </c>
-      <c r="L111" s="204"/>
+      <c r="C111" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" s="84"/>
+      <c r="E111" s="84"/>
+      <c r="F111" s="84"/>
+      <c r="G111" s="84"/>
+      <c r="H111" s="84"/>
+      <c r="I111" s="84"/>
+      <c r="J111" s="84"/>
+      <c r="K111" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="L111" s="85"/>
       <c r="O111" s="80"/>
     </row>
     <row r="112" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
-      <c r="C112" s="203" t="s">
-        <v>140</v>
-      </c>
-      <c r="D112" s="203"/>
-      <c r="E112" s="203"/>
-      <c r="F112" s="203"/>
-      <c r="G112" s="203"/>
-      <c r="H112" s="203"/>
-      <c r="I112" s="203"/>
-      <c r="J112" s="203"/>
-      <c r="K112" s="204" t="s">
-        <v>141</v>
-      </c>
-      <c r="L112" s="204"/>
+      <c r="C112" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D112" s="84"/>
+      <c r="E112" s="84"/>
+      <c r="F112" s="84"/>
+      <c r="G112" s="84"/>
+      <c r="H112" s="84"/>
+      <c r="I112" s="84"/>
+      <c r="J112" s="84"/>
+      <c r="K112" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="L112" s="85"/>
       <c r="O112" s="80"/>
     </row>
     <row r="113" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
-      <c r="C113" s="205" t="s">
-        <v>142</v>
-      </c>
-      <c r="D113" s="205"/>
-      <c r="E113" s="205"/>
-      <c r="F113" s="205"/>
-      <c r="G113" s="205"/>
-      <c r="H113" s="205"/>
-      <c r="I113" s="205"/>
-      <c r="J113" s="205"/>
-      <c r="K113" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="L113" s="93"/>
+      <c r="C113" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113" s="87"/>
+      <c r="E113" s="87"/>
+      <c r="F113" s="87"/>
+      <c r="G113" s="87"/>
+      <c r="H113" s="87"/>
+      <c r="I113" s="87"/>
+      <c r="J113" s="87"/>
+      <c r="K113" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="L113" s="88"/>
     </row>
     <row r="114" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
-      <c r="C114" s="205" t="s">
-        <v>144</v>
-      </c>
-      <c r="D114" s="205"/>
-      <c r="E114" s="205"/>
-      <c r="F114" s="205"/>
-      <c r="G114" s="205"/>
-      <c r="H114" s="205"/>
-      <c r="I114" s="205"/>
-      <c r="J114" s="205"/>
-      <c r="K114" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="L114" s="93"/>
+      <c r="C114" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D114" s="87"/>
+      <c r="E114" s="87"/>
+      <c r="F114" s="87"/>
+      <c r="G114" s="87"/>
+      <c r="H114" s="87"/>
+      <c r="I114" s="87"/>
+      <c r="J114" s="87"/>
+      <c r="K114" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="L114" s="88"/>
     </row>
     <row r="115" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
-      <c r="C115" s="203" t="s">
-        <v>146</v>
-      </c>
-      <c r="D115" s="203"/>
-      <c r="E115" s="203"/>
-      <c r="F115" s="203"/>
-      <c r="G115" s="203"/>
-      <c r="H115" s="203"/>
-      <c r="I115" s="203"/>
-      <c r="J115" s="203"/>
-      <c r="K115" s="204" t="s">
-        <v>147</v>
-      </c>
-      <c r="L115" s="204"/>
+      <c r="C115" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="D115" s="84"/>
+      <c r="E115" s="84"/>
+      <c r="F115" s="84"/>
+      <c r="G115" s="84"/>
+      <c r="H115" s="84"/>
+      <c r="I115" s="84"/>
+      <c r="J115" s="84"/>
+      <c r="K115" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="L115" s="85"/>
       <c r="O115" s="80"/>
     </row>
     <row r="116" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
-      <c r="C116" s="203" t="s">
-        <v>148</v>
-      </c>
-      <c r="D116" s="203"/>
-      <c r="E116" s="203"/>
-      <c r="F116" s="203"/>
-      <c r="G116" s="203"/>
-      <c r="H116" s="203"/>
-      <c r="I116" s="203"/>
-      <c r="J116" s="203"/>
-      <c r="K116" s="204" t="s">
-        <v>149</v>
-      </c>
-      <c r="L116" s="204"/>
+      <c r="C116" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D116" s="84"/>
+      <c r="E116" s="84"/>
+      <c r="F116" s="84"/>
+      <c r="G116" s="84"/>
+      <c r="H116" s="84"/>
+      <c r="I116" s="84"/>
+      <c r="J116" s="84"/>
+      <c r="K116" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="L116" s="85"/>
       <c r="O116" s="80"/>
     </row>
     <row r="117" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
-      <c r="C117" s="203" t="s">
-        <v>150</v>
-      </c>
-      <c r="D117" s="203"/>
-      <c r="E117" s="203"/>
-      <c r="F117" s="203"/>
-      <c r="G117" s="203"/>
-      <c r="H117" s="203"/>
-      <c r="I117" s="203"/>
-      <c r="J117" s="203"/>
-      <c r="K117" s="204" t="s">
-        <v>151</v>
-      </c>
-      <c r="L117" s="204"/>
+      <c r="C117" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D117" s="84"/>
+      <c r="E117" s="84"/>
+      <c r="F117" s="84"/>
+      <c r="G117" s="84"/>
+      <c r="H117" s="84"/>
+      <c r="I117" s="84"/>
+      <c r="J117" s="84"/>
+      <c r="K117" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="L117" s="85"/>
       <c r="O117" s="80"/>
     </row>
     <row r="118" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
-      <c r="C118" s="203" t="s">
+      <c r="C118" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D118" s="84"/>
+      <c r="E118" s="84"/>
+      <c r="F118" s="84"/>
+      <c r="G118" s="84"/>
+      <c r="H118" s="84"/>
+      <c r="I118" s="84"/>
+      <c r="J118" s="84"/>
+      <c r="K118" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="L118" s="85"/>
+      <c r="O118" s="80"/>
+    </row>
+    <row r="122" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D122" s="86"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="H122" s="83"/>
+      <c r="I122" s="83"/>
+      <c r="J122" s="83"/>
+    </row>
+    <row r="123" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D123" s="83"/>
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="H123" s="83"/>
+      <c r="I123" s="83"/>
+      <c r="J123" s="83"/>
+    </row>
+    <row r="124" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="D124" s="83"/>
+      <c r="E124" s="83"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="D118" s="203"/>
-      <c r="E118" s="203"/>
-      <c r="F118" s="203"/>
-      <c r="G118" s="203"/>
-      <c r="H118" s="203"/>
-      <c r="I118" s="203"/>
-      <c r="J118" s="203"/>
-      <c r="K118" s="204" t="s">
+      <c r="H124" s="83"/>
+      <c r="I124" s="83"/>
+      <c r="J124" s="83"/>
+    </row>
+    <row r="125" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="L118" s="204"/>
-      <c r="O118" s="80"/>
-    </row>
-    <row r="122" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="206" t="s">
+      <c r="D125" s="83"/>
+      <c r="E125" s="83"/>
+      <c r="F125" s="83"/>
+      <c r="G125" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D122" s="206"/>
-      <c r="E122" s="206"/>
-      <c r="F122" s="206"/>
-      <c r="G122" s="207" t="s">
+      <c r="H125" s="83"/>
+      <c r="I125" s="83"/>
+      <c r="J125" s="83"/>
+    </row>
+    <row r="126" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="H122" s="207"/>
-      <c r="I122" s="207"/>
-      <c r="J122" s="207"/>
-    </row>
-    <row r="123" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="207" t="s">
+      <c r="D126" s="83"/>
+      <c r="E126" s="83"/>
+      <c r="F126" s="83"/>
+      <c r="G126" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="D123" s="207"/>
-      <c r="E123" s="207"/>
-      <c r="F123" s="207"/>
-      <c r="G123" s="207" t="s">
+      <c r="H126" s="83"/>
+      <c r="I126" s="83"/>
+      <c r="J126" s="83"/>
+    </row>
+    <row r="127" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="H123" s="207"/>
-      <c r="I123" s="207"/>
-      <c r="J123" s="207"/>
-    </row>
-    <row r="124" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="207" t="s">
+      <c r="D127" s="83"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="83"/>
+      <c r="G127" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="D124" s="207"/>
-      <c r="E124" s="207"/>
-      <c r="F124" s="207"/>
-      <c r="G124" s="207" t="s">
+      <c r="H127" s="83"/>
+      <c r="I127" s="83"/>
+      <c r="J127" s="83"/>
+    </row>
+    <row r="128" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="H124" s="207"/>
-      <c r="I124" s="207"/>
-      <c r="J124" s="207"/>
-    </row>
-    <row r="125" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="207" t="s">
+      <c r="D128" s="83"/>
+      <c r="E128" s="83"/>
+      <c r="F128" s="83"/>
+      <c r="G128" s="83">
+        <v>20250403</v>
+      </c>
+      <c r="H128" s="83"/>
+      <c r="I128" s="83"/>
+      <c r="J128" s="83"/>
+    </row>
+    <row r="129" spans="3:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="D125" s="207"/>
-      <c r="E125" s="207"/>
-      <c r="F125" s="207"/>
-      <c r="G125" s="207" t="s">
-        <v>161</v>
-      </c>
-      <c r="H125" s="207"/>
-      <c r="I125" s="207"/>
-      <c r="J125" s="207"/>
-    </row>
-    <row r="126" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="207" t="s">
-        <v>162</v>
-      </c>
-      <c r="D126" s="207"/>
-      <c r="E126" s="207"/>
-      <c r="F126" s="207"/>
-      <c r="G126" s="207" t="s">
-        <v>163</v>
-      </c>
-      <c r="H126" s="207"/>
-      <c r="I126" s="207"/>
-      <c r="J126" s="207"/>
-    </row>
-    <row r="127" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="207" t="s">
-        <v>164</v>
-      </c>
-      <c r="D127" s="207"/>
-      <c r="E127" s="207"/>
-      <c r="F127" s="207"/>
-      <c r="G127" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="H127" s="207"/>
-      <c r="I127" s="207"/>
-      <c r="J127" s="207"/>
-    </row>
-    <row r="128" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="207" t="s">
-        <v>166</v>
-      </c>
-      <c r="D128" s="207"/>
-      <c r="E128" s="207"/>
-      <c r="F128" s="207"/>
-      <c r="G128" s="207">
+      <c r="D129" s="83"/>
+      <c r="E129" s="83"/>
+      <c r="F129" s="83"/>
+      <c r="G129" s="83">
         <v>20250403</v>
       </c>
-      <c r="H128" s="207"/>
-      <c r="I128" s="207"/>
-      <c r="J128" s="207"/>
-    </row>
-    <row r="129" spans="3:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="207" t="s">
-        <v>167</v>
-      </c>
-      <c r="D129" s="207"/>
-      <c r="E129" s="207"/>
-      <c r="F129" s="207"/>
-      <c r="G129" s="207">
-        <v>20250403</v>
-      </c>
-      <c r="H129" s="207"/>
-      <c r="I129" s="207"/>
-      <c r="J129" s="207"/>
+      <c r="H129" s="83"/>
+      <c r="I129" s="83"/>
+      <c r="J129" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="G127:J127"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="G128:J128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="G129:J129"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="G125:J125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="G126:J126"/>
-    <mergeCell ref="C118:J118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="C115:J115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="C116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="C112:J112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="C114:J114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="C109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="C111:J111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="B101:O101"/>
-    <mergeCell ref="B103:O103"/>
-    <mergeCell ref="C108:J108"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:J98"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="B86:O86"/>
-    <mergeCell ref="B87:N87"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="B89:O89"/>
-    <mergeCell ref="B90:O90"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B63:O63"/>
-    <mergeCell ref="B65:O65"/>
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="B69:O69"/>
-    <mergeCell ref="B71:O71"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J60"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="N31:O31"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="B38:O38"/>
@@ -10013,58 +9811,91 @@
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J60"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B63:O63"/>
+    <mergeCell ref="B65:O65"/>
+    <mergeCell ref="A68:O68"/>
+    <mergeCell ref="B69:O69"/>
+    <mergeCell ref="B71:O71"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B86:O86"/>
+    <mergeCell ref="B87:N87"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="B89:O89"/>
+    <mergeCell ref="B90:O90"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="B101:O101"/>
+    <mergeCell ref="B103:O103"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:J98"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="C114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="C111:J111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="C118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="C115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="C116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="G128:J128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="G129:J129"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="G125:J125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="G126:J126"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="67" fitToWidth="2" orientation="portrait" r:id="rId1"/>

--- a/services/opengsync-app/static/resources/templates/library_prep/WES.xlsx
+++ b/services/opengsync-app/static/resources/templates/library_prep/WES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hriegler\Documents\limbless-app\services\opengsync-app\static\resources\templates\library_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3323BEAE-3FA3-4A53-8074-80A24091433E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F9CAC2-C1D0-4B12-8331-A405954D62C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="183">
   <si>
     <t>R0</t>
   </si>
@@ -697,6 +697,33 @@
   </si>
   <si>
     <t>library_prep_type</t>
+  </si>
+  <si>
+    <t>library kit:</t>
+  </si>
+  <si>
+    <t>104206;101308;103077;101279</t>
+  </si>
+  <si>
+    <t>104206;101309;103077;101279</t>
+  </si>
+  <si>
+    <t>104206;101310;103077;101279</t>
+  </si>
+  <si>
+    <t>104206;101311;103077;101279</t>
+  </si>
+  <si>
+    <t>104206;105041;103077;101279</t>
+  </si>
+  <si>
+    <t>104206;105042;103077;101279</t>
+  </si>
+  <si>
+    <t>104206;105043;103077;101279</t>
+  </si>
+  <si>
+    <t>104206;105044;103077;101279</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1731,381 +1758,383 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7595,8 +7624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67189DA6-CD88-43FE-A49A-1F084804927C}">
   <dimension ref="A1:AK129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M115" sqref="M115:M118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7635,208 +7664,208 @@
   <sheetData>
     <row r="1" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="206" t="s">
+      <c r="A3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="185"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="88"/>
       <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="185"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
       <c r="L4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M4" s="13"/>
-      <c r="N4" s="201" t="s">
+      <c r="N4" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="202"/>
+      <c r="O4" s="84"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="AK4" s="14"/>
     </row>
     <row r="5" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="193"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="185"/>
-      <c r="K5" s="203" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="K5" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="204"/>
+      <c r="L5" s="90"/>
       <c r="M5" s="13"/>
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="185"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
       <c r="AK6" s="14"/>
     </row>
     <row r="7" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="193" t="s">
+      <c r="A7" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="185"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
       <c r="AK7" s="14"/>
     </row>
     <row r="8" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="200" t="s">
+      <c r="A8" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="103" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="183">
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="86">
         <v>2500003856</v>
       </c>
-      <c r="O8" s="184"/>
-      <c r="P8" s="185"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="88"/>
       <c r="AK8" s="14"/>
     </row>
     <row r="9" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="194" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="195"/>
-      <c r="L9" s="195"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="183">
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="86">
         <v>2500005110</v>
       </c>
-      <c r="O9" s="184"/>
-      <c r="P9" s="185"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="88"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="AK9" s="14"/>
     </row>
     <row r="10" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="199"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
     </row>
     <row r="11" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="185"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
     </row>
     <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="189"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="117"/>
     </row>
     <row r="13" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
@@ -7861,22 +7890,22 @@
       <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:37" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="192"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
@@ -7961,22 +7990,22 @@
     </row>
     <row r="19" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="134"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="123"/>
     </row>
     <row r="20" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
@@ -7999,11 +8028,11 @@
       <c r="F21" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="159" t="str">
+      <c r="G21" s="105" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="H21" s="159"/>
+      <c r="H21" s="105"/>
       <c r="O21" s="27"/>
     </row>
     <row r="22" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8011,37 +8040,37 @@
       <c r="B22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="176" t="s">
+      <c r="C22" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="16">
         <v>40</v>
       </c>
-      <c r="G22" s="88" t="s">
+      <c r="G22" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="88"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="29" t="s">
         <v>43</v>
       </c>
       <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="177" t="s">
+      <c r="C23" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="179"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
       <c r="F23" s="16">
         <v>4</v>
       </c>
-      <c r="G23" s="88">
+      <c r="G23" s="93">
         <f>F23*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="H23" s="88"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="29" t="s">
         <v>43</v>
       </c>
@@ -8051,19 +8080,19 @@
     <row r="24" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="180" t="s">
+      <c r="C24" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="181"/>
-      <c r="E24" s="182"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
       <c r="F24" s="30">
         <v>6</v>
       </c>
-      <c r="G24" s="150">
+      <c r="G24" s="113">
         <f>F24*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="H24" s="150"/>
+      <c r="H24" s="113"/>
       <c r="I24" s="31" t="s">
         <v>43</v>
       </c>
@@ -8071,19 +8100,19 @@
     </row>
     <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
-      <c r="C25" s="164" t="s">
+      <c r="C25" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="165"/>
-      <c r="E25" s="166"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
       <c r="F25" s="32">
         <f>SUM(F22:F24)</f>
         <v>50</v>
       </c>
-      <c r="G25" s="151" t="s">
+      <c r="G25" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="151"/>
+      <c r="H25" s="132"/>
       <c r="I25" s="32" t="s">
         <v>43</v>
       </c>
@@ -8097,10 +8126,10 @@
       <c r="B26" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="172" t="s">
+      <c r="D26" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="172"/>
+      <c r="E26" s="133"/>
       <c r="F26" s="20" t="s">
         <v>50</v>
       </c>
@@ -8109,32 +8138,32 @@
     <row r="27" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="20"/>
-      <c r="D27" s="173" t="s">
+      <c r="D27" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="95"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="137"/>
     </row>
     <row r="29" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
@@ -8164,160 +8193,160 @@
       <c r="E31" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="159" t="str">
+      <c r="F31" s="105" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G31" s="159"/>
+      <c r="G31" s="105"/>
       <c r="I31" s="33" t="s">
         <v>53</v>
       </c>
       <c r="M31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="N31" s="174" t="str">
+      <c r="N31" s="138" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="O31" s="175"/>
+      <c r="O31" s="139"/>
     </row>
     <row r="32" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
-      <c r="B32" s="170" t="s">
+      <c r="B32" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="16">
         <v>50</v>
       </c>
-      <c r="F32" s="88" t="s">
+      <c r="F32" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="88"/>
+      <c r="G32" s="93"/>
       <c r="H32" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="161" t="s">
+      <c r="J32" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
       <c r="M32" s="35">
         <v>50</v>
       </c>
-      <c r="N32" s="162" t="s">
+      <c r="N32" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="163"/>
+      <c r="O32" s="127"/>
       <c r="P32" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
-      <c r="B33" s="171" t="s">
+      <c r="B33" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
       <c r="E33" s="16">
         <v>5</v>
       </c>
-      <c r="F33" s="88">
+      <c r="F33" s="93">
         <f>E33*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="G33" s="88"/>
+      <c r="G33" s="93"/>
       <c r="H33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="161" t="s">
+      <c r="J33" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="K33" s="161"/>
-      <c r="L33" s="161"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
       <c r="M33" s="35">
         <v>3</v>
       </c>
-      <c r="N33" s="162">
+      <c r="N33" s="126">
         <f>M33*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="O33" s="163"/>
+      <c r="O33" s="127"/>
       <c r="P33" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
       <c r="E34" s="30">
         <v>20</v>
       </c>
-      <c r="F34" s="150">
+      <c r="F34" s="113">
         <f>E34*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="G34" s="150"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="31" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="161" t="s">
+      <c r="J34" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="K34" s="161"/>
-      <c r="L34" s="161"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="125"/>
       <c r="M34" s="35">
         <v>2</v>
       </c>
-      <c r="N34" s="162">
+      <c r="N34" s="126">
         <f>M34*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="O34" s="163"/>
+      <c r="O34" s="127"/>
       <c r="P34" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
-      <c r="B35" s="164" t="s">
+      <c r="B35" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="165"/>
-      <c r="D35" s="166"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="131"/>
       <c r="E35" s="32">
         <f>SUM(E32:E34)</f>
         <v>75</v>
       </c>
-      <c r="F35" s="151" t="s">
+      <c r="F35" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="151"/>
+      <c r="G35" s="132"/>
       <c r="H35" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="167" t="s">
+      <c r="J35" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="K35" s="167"/>
-      <c r="L35" s="167"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="153"/>
       <c r="M35" s="37">
         <v>20</v>
       </c>
-      <c r="N35" s="168">
+      <c r="N35" s="154">
         <f>M35*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="O35" s="169"/>
+      <c r="O35" s="155"/>
       <c r="P35" s="38" t="s">
         <v>43</v>
       </c>
@@ -8330,18 +8359,18 @@
       <c r="D36" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J36" s="153" t="s">
+      <c r="J36" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="140"/>
       <c r="M36" s="41">
         <v>25</v>
       </c>
-      <c r="N36" s="154" t="s">
+      <c r="N36" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="O36" s="155"/>
+      <c r="O36" s="142"/>
       <c r="P36" s="42" t="s">
         <v>43</v>
       </c>
@@ -8354,22 +8383,22 @@
     </row>
     <row r="38" spans="1:16" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="92"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="144"/>
+      <c r="K38" s="144"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="144"/>
+      <c r="N38" s="144"/>
+      <c r="O38" s="145"/>
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
@@ -8379,22 +8408,22 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
-      <c r="B40" s="156" t="s">
+      <c r="B40" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="157"/>
-      <c r="L40" s="157"/>
-      <c r="M40" s="157"/>
-      <c r="N40" s="157"/>
-      <c r="O40" s="158"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="148"/>
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
@@ -8411,63 +8440,63 @@
       <c r="E42" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="159" t="str">
+      <c r="F42" s="105" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G42" s="159"/>
+      <c r="G42" s="105"/>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
-      <c r="B43" s="119" t="s">
+      <c r="B43" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="120"/>
-      <c r="D43" s="121"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="44">
         <v>15</v>
       </c>
-      <c r="F43" s="88" t="s">
+      <c r="F43" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="G43" s="88"/>
+      <c r="G43" s="93"/>
       <c r="H43" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="146"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="45">
         <v>10</v>
       </c>
-      <c r="F44" s="88" t="s">
+      <c r="F44" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="88"/>
+      <c r="G44" s="93"/>
       <c r="H44" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
-      <c r="B45" s="147" t="s">
+      <c r="B45" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="148"/>
-      <c r="D45" s="149"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="171"/>
       <c r="E45" s="30">
         <v>25</v>
       </c>
-      <c r="F45" s="150">
+      <c r="F45" s="113">
         <f>E45*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="G45" s="150"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="46" t="s">
         <v>43</v>
       </c>
@@ -8477,10 +8506,10 @@
       <c r="E46" s="47">
         <v>50</v>
       </c>
-      <c r="F46" s="151" t="s">
+      <c r="F46" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="151"/>
+      <c r="G46" s="132"/>
       <c r="H46" s="48" t="s">
         <v>43</v>
       </c>
@@ -8681,76 +8710,76 @@
         <v>77</v>
       </c>
       <c r="F57" s="56"/>
-      <c r="G57" s="152" t="s">
+      <c r="G57" s="172" t="s">
         <v>78</v>
       </c>
-      <c r="H57" s="152"/>
+      <c r="H57" s="172"/>
       <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
-      <c r="G58" s="135" t="s">
+      <c r="G58" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="H58" s="136"/>
-      <c r="I58" s="137" t="s">
+      <c r="H58" s="157"/>
+      <c r="I58" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="J58" s="138"/>
+      <c r="J58" s="159"/>
     </row>
     <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
-      <c r="G59" s="135" t="s">
+      <c r="G59" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="H59" s="136"/>
-      <c r="I59" s="139"/>
-      <c r="J59" s="140"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="160"/>
+      <c r="J59" s="161"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
-      <c r="G60" s="135" t="s">
+      <c r="G60" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="H60" s="136"/>
-      <c r="I60" s="141"/>
-      <c r="J60" s="142"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="162"/>
+      <c r="J60" s="163"/>
     </row>
     <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
-      <c r="G61" s="143" t="s">
+      <c r="G61" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="H61" s="143"/>
+      <c r="H61" s="164"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G62" s="89" t="s">
+      <c r="G62" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="H62" s="89"/>
+      <c r="H62" s="165"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
     </row>
     <row r="63" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
-      <c r="B63" s="90" t="s">
+      <c r="B63" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="91"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="91"/>
-      <c r="I63" s="91"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
-      <c r="M63" s="91"/>
-      <c r="N63" s="91"/>
-      <c r="O63" s="92"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+      <c r="G63" s="144"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="144"/>
+      <c r="K63" s="144"/>
+      <c r="L63" s="144"/>
+      <c r="M63" s="144"/>
+      <c r="N63" s="144"/>
+      <c r="O63" s="145"/>
     </row>
     <row r="64" spans="1:15" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
@@ -8760,22 +8789,22 @@
     </row>
     <row r="65" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="50"/>
-      <c r="B65" s="93" t="s">
+      <c r="B65" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
-      <c r="J65" s="125"/>
-      <c r="K65" s="125"/>
-      <c r="L65" s="125"/>
-      <c r="M65" s="125"/>
-      <c r="N65" s="125"/>
-      <c r="O65" s="126"/>
+      <c r="C65" s="178"/>
+      <c r="D65" s="178"/>
+      <c r="E65" s="178"/>
+      <c r="F65" s="178"/>
+      <c r="G65" s="178"/>
+      <c r="H65" s="178"/>
+      <c r="I65" s="178"/>
+      <c r="J65" s="178"/>
+      <c r="K65" s="178"/>
+      <c r="L65" s="178"/>
+      <c r="M65" s="178"/>
+      <c r="N65" s="178"/>
+      <c r="O65" s="179"/>
     </row>
     <row r="66" spans="1:19" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
@@ -8828,45 +8857,45 @@
       <c r="S67" s="16"/>
     </row>
     <row r="68" spans="1:19" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="127" t="s">
+      <c r="A68" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="128"/>
-      <c r="C68" s="128"/>
-      <c r="D68" s="128"/>
-      <c r="E68" s="128"/>
-      <c r="F68" s="128"/>
-      <c r="G68" s="128"/>
-      <c r="H68" s="128"/>
-      <c r="I68" s="128"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="128"/>
-      <c r="L68" s="128"/>
-      <c r="M68" s="128"/>
-      <c r="N68" s="128"/>
-      <c r="O68" s="129"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="181"/>
+      <c r="E68" s="181"/>
+      <c r="F68" s="181"/>
+      <c r="G68" s="181"/>
+      <c r="H68" s="181"/>
+      <c r="I68" s="181"/>
+      <c r="J68" s="181"/>
+      <c r="K68" s="181"/>
+      <c r="L68" s="181"/>
+      <c r="M68" s="181"/>
+      <c r="N68" s="181"/>
+      <c r="O68" s="182"/>
       <c r="P68" s="62" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="63"/>
-      <c r="B69" s="130" t="s">
+      <c r="B69" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="131"/>
-      <c r="D69" s="131"/>
-      <c r="E69" s="131"/>
-      <c r="F69" s="131"/>
-      <c r="G69" s="131"/>
-      <c r="H69" s="131"/>
-      <c r="I69" s="131"/>
-      <c r="J69" s="131"/>
-      <c r="K69" s="131"/>
-      <c r="L69" s="131"/>
-      <c r="M69" s="131"/>
-      <c r="N69" s="131"/>
-      <c r="O69" s="131"/>
+      <c r="C69" s="184"/>
+      <c r="D69" s="184"/>
+      <c r="E69" s="184"/>
+      <c r="F69" s="184"/>
+      <c r="G69" s="184"/>
+      <c r="H69" s="184"/>
+      <c r="I69" s="184"/>
+      <c r="J69" s="184"/>
+      <c r="K69" s="184"/>
+      <c r="L69" s="184"/>
+      <c r="M69" s="184"/>
+      <c r="N69" s="184"/>
+      <c r="O69" s="184"/>
     </row>
     <row r="70" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="64"/>
@@ -8891,53 +8920,53 @@
     </row>
     <row r="71" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
-      <c r="B71" s="132" t="s">
+      <c r="B71" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="133"/>
-      <c r="D71" s="133"/>
-      <c r="E71" s="133"/>
-      <c r="F71" s="133"/>
-      <c r="G71" s="133"/>
-      <c r="H71" s="133"/>
-      <c r="I71" s="133"/>
-      <c r="J71" s="133"/>
-      <c r="K71" s="133"/>
-      <c r="L71" s="133"/>
-      <c r="M71" s="133"/>
-      <c r="N71" s="133"/>
-      <c r="O71" s="134"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="122"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="122"/>
+      <c r="G71" s="122"/>
+      <c r="H71" s="122"/>
+      <c r="I71" s="122"/>
+      <c r="J71" s="122"/>
+      <c r="K71" s="122"/>
+      <c r="L71" s="122"/>
+      <c r="M71" s="122"/>
+      <c r="N71" s="122"/>
+      <c r="O71" s="123"/>
     </row>
     <row r="72" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="64"/>
-      <c r="B72" s="110" t="s">
+      <c r="B72" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="110"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="110"/>
-      <c r="F72" s="110"/>
-      <c r="G72" s="110"/>
-      <c r="H72" s="110"/>
-      <c r="I72" s="110"/>
-      <c r="J72" s="110"/>
-      <c r="K72" s="110"/>
-      <c r="L72" s="110"/>
-      <c r="M72" s="110"/>
+      <c r="C72" s="173"/>
+      <c r="D72" s="173"/>
+      <c r="E72" s="173"/>
+      <c r="F72" s="173"/>
+      <c r="G72" s="173"/>
+      <c r="H72" s="173"/>
+      <c r="I72" s="173"/>
+      <c r="J72" s="173"/>
+      <c r="K72" s="173"/>
+      <c r="L72" s="173"/>
+      <c r="M72" s="173"/>
       <c r="N72" s="15"/>
     </row>
     <row r="73" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
-      <c r="B73" s="109" t="s">
+      <c r="B73" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="110"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="119" t="s">
+      <c r="C73" s="173"/>
+      <c r="D73" s="173"/>
+      <c r="E73" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="120"/>
-      <c r="G73" s="121"/>
+      <c r="F73" s="150"/>
+      <c r="G73" s="151"/>
       <c r="H73" s="65">
         <v>20</v>
       </c>
@@ -8951,11 +8980,11 @@
       <c r="B74" s="20"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
-      <c r="E74" s="122" t="s">
+      <c r="E74" s="175" t="s">
         <v>96</v>
       </c>
-      <c r="F74" s="123"/>
-      <c r="G74" s="124"/>
+      <c r="F74" s="176"/>
+      <c r="G74" s="177"/>
       <c r="H74" s="66">
         <v>4</v>
       </c>
@@ -8968,11 +8997,11 @@
       <c r="A75" s="21"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="122" t="s">
+      <c r="E75" s="175" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="123"/>
-      <c r="G75" s="124"/>
+      <c r="F75" s="176"/>
+      <c r="G75" s="177"/>
       <c r="H75" s="67">
         <v>4</v>
       </c>
@@ -8996,10 +9025,10 @@
       <c r="B77" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D77" s="89" t="s">
+      <c r="D77" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="E77" s="89"/>
+      <c r="E77" s="165"/>
       <c r="F77" s="68"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -9007,10 +9036,10 @@
     </row>
     <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
-      <c r="D78" s="89" t="s">
+      <c r="D78" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="E78" s="89"/>
+      <c r="E78" s="165"/>
       <c r="F78" s="68"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -9018,10 +9047,10 @@
     </row>
     <row r="79" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
-      <c r="D79" s="89" t="s">
+      <c r="D79" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="89"/>
+      <c r="E79" s="165"/>
       <c r="F79" s="68"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -9032,11 +9061,11 @@
       <c r="B80" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="119" t="s">
+      <c r="C80" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="120"/>
-      <c r="E80" s="121"/>
+      <c r="D80" s="150"/>
+      <c r="E80" s="151"/>
       <c r="F80" s="65" t="s">
         <v>42</v>
       </c>
@@ -9048,11 +9077,11 @@
     <row r="81" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="20"/>
-      <c r="C81" s="122" t="s">
+      <c r="C81" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="123"/>
-      <c r="E81" s="124"/>
+      <c r="D81" s="176"/>
+      <c r="E81" s="177"/>
       <c r="F81" s="66">
         <v>5</v>
       </c>
@@ -9063,11 +9092,11 @@
     </row>
     <row r="82" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
-      <c r="C82" s="122" t="s">
+      <c r="C82" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="123"/>
-      <c r="E82" s="124"/>
+      <c r="D82" s="176"/>
+      <c r="E82" s="177"/>
       <c r="F82" s="67">
         <v>7</v>
       </c>
@@ -9094,10 +9123,10 @@
       <c r="B84" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="108" t="s">
+      <c r="D84" s="185" t="s">
         <v>104</v>
       </c>
-      <c r="E84" s="108"/>
+      <c r="E84" s="185"/>
       <c r="F84" s="68"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -9105,10 +9134,10 @@
     </row>
     <row r="85" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
-      <c r="D85" s="108" t="s">
+      <c r="D85" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="E85" s="108"/>
+      <c r="E85" s="185"/>
       <c r="F85" s="68"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -9116,40 +9145,40 @@
     </row>
     <row r="86" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
-      <c r="B86" s="109" t="s">
+      <c r="B86" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="110"/>
-      <c r="D86" s="110"/>
-      <c r="E86" s="110"/>
-      <c r="F86" s="110"/>
-      <c r="G86" s="110"/>
-      <c r="H86" s="110"/>
-      <c r="I86" s="110"/>
-      <c r="J86" s="110"/>
-      <c r="K86" s="110"/>
-      <c r="L86" s="110"/>
-      <c r="M86" s="110"/>
-      <c r="N86" s="110"/>
-      <c r="O86" s="110"/>
+      <c r="C86" s="173"/>
+      <c r="D86" s="173"/>
+      <c r="E86" s="173"/>
+      <c r="F86" s="173"/>
+      <c r="G86" s="173"/>
+      <c r="H86" s="173"/>
+      <c r="I86" s="173"/>
+      <c r="J86" s="173"/>
+      <c r="K86" s="173"/>
+      <c r="L86" s="173"/>
+      <c r="M86" s="173"/>
+      <c r="N86" s="173"/>
+      <c r="O86" s="173"/>
     </row>
     <row r="87" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
-      <c r="B87" s="110" t="s">
+      <c r="B87" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="C87" s="110"/>
-      <c r="D87" s="110"/>
-      <c r="E87" s="110"/>
-      <c r="F87" s="110"/>
-      <c r="G87" s="110"/>
-      <c r="H87" s="110"/>
-      <c r="I87" s="110"/>
-      <c r="J87" s="110"/>
-      <c r="K87" s="110"/>
-      <c r="L87" s="110"/>
-      <c r="M87" s="110"/>
-      <c r="N87" s="110"/>
+      <c r="C87" s="173"/>
+      <c r="D87" s="173"/>
+      <c r="E87" s="173"/>
+      <c r="F87" s="173"/>
+      <c r="G87" s="173"/>
+      <c r="H87" s="173"/>
+      <c r="I87" s="173"/>
+      <c r="J87" s="173"/>
+      <c r="K87" s="173"/>
+      <c r="L87" s="173"/>
+      <c r="M87" s="173"/>
+      <c r="N87" s="173"/>
       <c r="O87" s="15"/>
     </row>
     <row r="88" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9173,57 +9202,57 @@
       <c r="P88" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="Q88" s="111"/>
-      <c r="R88" s="112"/>
+      <c r="Q88" s="186"/>
+      <c r="R88" s="187"/>
     </row>
     <row r="89" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="71"/>
-      <c r="B89" s="113" t="s">
+      <c r="B89" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="C89" s="114"/>
-      <c r="D89" s="114"/>
-      <c r="E89" s="114"/>
-      <c r="F89" s="114"/>
-      <c r="G89" s="114"/>
-      <c r="H89" s="114"/>
-      <c r="I89" s="114"/>
-      <c r="J89" s="114"/>
-      <c r="K89" s="114"/>
-      <c r="L89" s="114"/>
-      <c r="M89" s="114"/>
-      <c r="N89" s="114"/>
-      <c r="O89" s="115"/>
+      <c r="C89" s="189"/>
+      <c r="D89" s="189"/>
+      <c r="E89" s="189"/>
+      <c r="F89" s="189"/>
+      <c r="G89" s="189"/>
+      <c r="H89" s="189"/>
+      <c r="I89" s="189"/>
+      <c r="J89" s="189"/>
+      <c r="K89" s="189"/>
+      <c r="L89" s="189"/>
+      <c r="M89" s="189"/>
+      <c r="N89" s="189"/>
+      <c r="O89" s="190"/>
     </row>
     <row r="90" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
-      <c r="B90" s="116" t="s">
+      <c r="B90" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="C90" s="117"/>
-      <c r="D90" s="117"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="117"/>
-      <c r="H90" s="117"/>
-      <c r="I90" s="117"/>
-      <c r="J90" s="117"/>
-      <c r="K90" s="117"/>
-      <c r="L90" s="117"/>
-      <c r="M90" s="117"/>
-      <c r="N90" s="117"/>
-      <c r="O90" s="118"/>
+      <c r="C90" s="192"/>
+      <c r="D90" s="192"/>
+      <c r="E90" s="192"/>
+      <c r="F90" s="192"/>
+      <c r="G90" s="192"/>
+      <c r="H90" s="192"/>
+      <c r="I90" s="192"/>
+      <c r="J90" s="192"/>
+      <c r="K90" s="192"/>
+      <c r="L90" s="192"/>
+      <c r="M90" s="192"/>
+      <c r="N90" s="192"/>
+      <c r="O90" s="193"/>
     </row>
     <row r="91" spans="1:18" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="97" t="s">
+      <c r="C91" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="D91" s="98"/>
-      <c r="E91" s="99"/>
+      <c r="D91" s="196"/>
+      <c r="E91" s="197"/>
       <c r="F91" s="72" t="s">
         <v>112</v>
       </c>
@@ -9236,11 +9265,11 @@
     <row r="92" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="20"/>
-      <c r="C92" s="100" t="s">
+      <c r="C92" s="198" t="s">
         <v>113</v>
       </c>
-      <c r="D92" s="101"/>
-      <c r="E92" s="102"/>
+      <c r="D92" s="199"/>
+      <c r="E92" s="200"/>
       <c r="F92" s="75" t="s">
         <v>114</v>
       </c>
@@ -9255,11 +9284,11 @@
     </row>
     <row r="93" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
-      <c r="C93" s="103" t="s">
+      <c r="C93" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="D93" s="104"/>
-      <c r="E93" s="105"/>
+      <c r="D93" s="103"/>
+      <c r="E93" s="104"/>
       <c r="F93" s="67">
         <v>25</v>
       </c>
@@ -9294,75 +9323,75 @@
         <v>77</v>
       </c>
       <c r="F95" s="56"/>
-      <c r="G95" s="89" t="s">
+      <c r="G95" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="H95" s="89"/>
+      <c r="H95" s="165"/>
       <c r="J95" s="15"/>
     </row>
     <row r="96" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
-      <c r="G96" s="106" t="s">
+      <c r="G96" s="201" t="s">
         <v>79</v>
       </c>
-      <c r="H96" s="106"/>
-      <c r="I96" s="107" t="s">
+      <c r="H96" s="201"/>
+      <c r="I96" s="202" t="s">
         <v>161</v>
       </c>
-      <c r="J96" s="88"/>
+      <c r="J96" s="93"/>
     </row>
     <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
-      <c r="G97" s="106" t="s">
+      <c r="G97" s="201" t="s">
         <v>81</v>
       </c>
-      <c r="H97" s="106"/>
-      <c r="I97" s="88"/>
-      <c r="J97" s="88"/>
+      <c r="H97" s="201"/>
+      <c r="I97" s="93"/>
+      <c r="J97" s="93"/>
     </row>
     <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
-      <c r="G98" s="106" t="s">
+      <c r="G98" s="201" t="s">
         <v>82</v>
       </c>
-      <c r="H98" s="106"/>
-      <c r="I98" s="88"/>
-      <c r="J98" s="88"/>
+      <c r="H98" s="201"/>
+      <c r="I98" s="93"/>
+      <c r="J98" s="93"/>
     </row>
     <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
-      <c r="G99" s="89" t="s">
+      <c r="G99" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="H99" s="89"/>
+      <c r="H99" s="165"/>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
     </row>
     <row r="100" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G100" s="89" t="s">
+      <c r="G100" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="H100" s="89"/>
+      <c r="H100" s="165"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
     </row>
     <row r="101" spans="1:15" s="15" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="90" t="s">
+      <c r="B101" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="C101" s="91"/>
-      <c r="D101" s="91"/>
-      <c r="E101" s="91"/>
-      <c r="F101" s="91"/>
-      <c r="G101" s="91"/>
-      <c r="H101" s="91"/>
-      <c r="I101" s="91"/>
-      <c r="J101" s="91"/>
-      <c r="K101" s="91"/>
-      <c r="L101" s="91"/>
-      <c r="M101" s="91"/>
-      <c r="N101" s="91"/>
-      <c r="O101" s="92"/>
+      <c r="C101" s="144"/>
+      <c r="D101" s="144"/>
+      <c r="E101" s="144"/>
+      <c r="F101" s="144"/>
+      <c r="G101" s="144"/>
+      <c r="H101" s="144"/>
+      <c r="I101" s="144"/>
+      <c r="J101" s="144"/>
+      <c r="K101" s="144"/>
+      <c r="L101" s="144"/>
+      <c r="M101" s="144"/>
+      <c r="N101" s="144"/>
+      <c r="O101" s="145"/>
     </row>
     <row r="102" spans="1:15" s="15" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="64"/>
@@ -9375,22 +9404,22 @@
     </row>
     <row r="103" spans="1:15" s="15" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="50"/>
-      <c r="B103" s="93" t="s">
+      <c r="B103" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="94"/>
-      <c r="D103" s="94"/>
-      <c r="E103" s="94"/>
-      <c r="F103" s="94"/>
-      <c r="G103" s="94"/>
-      <c r="H103" s="94"/>
-      <c r="I103" s="94"/>
-      <c r="J103" s="94"/>
-      <c r="K103" s="94"/>
-      <c r="L103" s="94"/>
-      <c r="M103" s="94"/>
-      <c r="N103" s="94"/>
-      <c r="O103" s="95"/>
+      <c r="C103" s="136"/>
+      <c r="D103" s="136"/>
+      <c r="E103" s="136"/>
+      <c r="F103" s="136"/>
+      <c r="G103" s="136"/>
+      <c r="H103" s="136"/>
+      <c r="I103" s="136"/>
+      <c r="J103" s="136"/>
+      <c r="K103" s="136"/>
+      <c r="L103" s="136"/>
+      <c r="M103" s="136"/>
+      <c r="N103" s="136"/>
+      <c r="O103" s="137"/>
     </row>
     <row r="104" spans="1:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
@@ -9437,350 +9466,440 @@
     </row>
     <row r="108" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
-      <c r="C108" s="96" t="s">
+      <c r="C108" s="194" t="s">
         <v>125</v>
       </c>
-      <c r="D108" s="96"/>
-      <c r="E108" s="96"/>
-      <c r="F108" s="96"/>
-      <c r="G108" s="96"/>
-      <c r="H108" s="96"/>
-      <c r="I108" s="96"/>
-      <c r="J108" s="96"/>
-      <c r="K108" s="88" t="s">
+      <c r="D108" s="194"/>
+      <c r="E108" s="194"/>
+      <c r="F108" s="194"/>
+      <c r="G108" s="194"/>
+      <c r="H108" s="194"/>
+      <c r="I108" s="194"/>
+      <c r="J108" s="194"/>
+      <c r="K108" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="L108" s="88"/>
+      <c r="L108" s="93"/>
+      <c r="M108" s="208" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="109" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
-      <c r="C109" s="87" t="s">
+      <c r="C109" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="D109" s="87"/>
-      <c r="E109" s="87"/>
-      <c r="F109" s="87"/>
-      <c r="G109" s="87"/>
-      <c r="H109" s="87"/>
-      <c r="I109" s="87"/>
-      <c r="J109" s="87"/>
-      <c r="K109" s="88" t="s">
+      <c r="D109" s="205"/>
+      <c r="E109" s="205"/>
+      <c r="F109" s="205"/>
+      <c r="G109" s="205"/>
+      <c r="H109" s="205"/>
+      <c r="I109" s="205"/>
+      <c r="J109" s="205"/>
+      <c r="K109" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="L109" s="88"/>
+      <c r="L109" s="93"/>
+      <c r="M109" s="209" t="s">
+        <v>175</v>
+      </c>
       <c r="O109" s="80"/>
     </row>
     <row r="110" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
-      <c r="C110" s="84" t="s">
+      <c r="C110" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="D110" s="84"/>
-      <c r="E110" s="84"/>
-      <c r="F110" s="84"/>
-      <c r="G110" s="84"/>
-      <c r="H110" s="84"/>
-      <c r="I110" s="84"/>
-      <c r="J110" s="84"/>
-      <c r="K110" s="85" t="s">
+      <c r="D110" s="203"/>
+      <c r="E110" s="203"/>
+      <c r="F110" s="203"/>
+      <c r="G110" s="203"/>
+      <c r="H110" s="203"/>
+      <c r="I110" s="203"/>
+      <c r="J110" s="203"/>
+      <c r="K110" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="L110" s="85"/>
+      <c r="L110" s="204"/>
+      <c r="M110" s="209" t="s">
+        <v>176</v>
+      </c>
       <c r="O110" s="80"/>
     </row>
     <row r="111" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
-      <c r="C111" s="84" t="s">
+      <c r="C111" s="203" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="84"/>
-      <c r="E111" s="84"/>
-      <c r="F111" s="84"/>
-      <c r="G111" s="84"/>
-      <c r="H111" s="84"/>
-      <c r="I111" s="84"/>
-      <c r="J111" s="84"/>
-      <c r="K111" s="85" t="s">
+      <c r="D111" s="203"/>
+      <c r="E111" s="203"/>
+      <c r="F111" s="203"/>
+      <c r="G111" s="203"/>
+      <c r="H111" s="203"/>
+      <c r="I111" s="203"/>
+      <c r="J111" s="203"/>
+      <c r="K111" s="204" t="s">
         <v>132</v>
       </c>
-      <c r="L111" s="85"/>
+      <c r="L111" s="204"/>
+      <c r="M111" s="209" t="s">
+        <v>177</v>
+      </c>
       <c r="O111" s="80"/>
     </row>
     <row r="112" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
-      <c r="C112" s="84" t="s">
+      <c r="C112" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="D112" s="84"/>
-      <c r="E112" s="84"/>
-      <c r="F112" s="84"/>
-      <c r="G112" s="84"/>
-      <c r="H112" s="84"/>
-      <c r="I112" s="84"/>
-      <c r="J112" s="84"/>
-      <c r="K112" s="85" t="s">
+      <c r="D112" s="203"/>
+      <c r="E112" s="203"/>
+      <c r="F112" s="203"/>
+      <c r="G112" s="203"/>
+      <c r="H112" s="203"/>
+      <c r="I112" s="203"/>
+      <c r="J112" s="203"/>
+      <c r="K112" s="204" t="s">
         <v>134</v>
       </c>
-      <c r="L112" s="85"/>
+      <c r="L112" s="204"/>
+      <c r="M112" s="209" t="s">
+        <v>178</v>
+      </c>
       <c r="O112" s="80"/>
     </row>
     <row r="113" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
-      <c r="C113" s="87" t="s">
+      <c r="C113" s="205" t="s">
         <v>135</v>
       </c>
-      <c r="D113" s="87"/>
-      <c r="E113" s="87"/>
-      <c r="F113" s="87"/>
-      <c r="G113" s="87"/>
-      <c r="H113" s="87"/>
-      <c r="I113" s="87"/>
-      <c r="J113" s="87"/>
-      <c r="K113" s="88" t="s">
+      <c r="D113" s="205"/>
+      <c r="E113" s="205"/>
+      <c r="F113" s="205"/>
+      <c r="G113" s="205"/>
+      <c r="H113" s="205"/>
+      <c r="I113" s="205"/>
+      <c r="J113" s="205"/>
+      <c r="K113" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="L113" s="88"/>
+      <c r="L113" s="93"/>
     </row>
     <row r="114" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
-      <c r="C114" s="87" t="s">
+      <c r="C114" s="205" t="s">
         <v>137</v>
       </c>
-      <c r="D114" s="87"/>
-      <c r="E114" s="87"/>
-      <c r="F114" s="87"/>
-      <c r="G114" s="87"/>
-      <c r="H114" s="87"/>
-      <c r="I114" s="87"/>
-      <c r="J114" s="87"/>
-      <c r="K114" s="88" t="s">
+      <c r="D114" s="205"/>
+      <c r="E114" s="205"/>
+      <c r="F114" s="205"/>
+      <c r="G114" s="205"/>
+      <c r="H114" s="205"/>
+      <c r="I114" s="205"/>
+      <c r="J114" s="205"/>
+      <c r="K114" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="L114" s="88"/>
+      <c r="L114" s="93"/>
     </row>
     <row r="115" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
-      <c r="C115" s="84" t="s">
+      <c r="C115" s="203" t="s">
         <v>139</v>
       </c>
-      <c r="D115" s="84"/>
-      <c r="E115" s="84"/>
-      <c r="F115" s="84"/>
-      <c r="G115" s="84"/>
-      <c r="H115" s="84"/>
-      <c r="I115" s="84"/>
-      <c r="J115" s="84"/>
-      <c r="K115" s="85" t="s">
+      <c r="D115" s="203"/>
+      <c r="E115" s="203"/>
+      <c r="F115" s="203"/>
+      <c r="G115" s="203"/>
+      <c r="H115" s="203"/>
+      <c r="I115" s="203"/>
+      <c r="J115" s="203"/>
+      <c r="K115" s="204" t="s">
         <v>140</v>
       </c>
-      <c r="L115" s="85"/>
+      <c r="L115" s="204"/>
+      <c r="M115" s="209" t="s">
+        <v>179</v>
+      </c>
       <c r="O115" s="80"/>
     </row>
     <row r="116" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
-      <c r="C116" s="84" t="s">
+      <c r="C116" s="203" t="s">
         <v>141</v>
       </c>
-      <c r="D116" s="84"/>
-      <c r="E116" s="84"/>
-      <c r="F116" s="84"/>
-      <c r="G116" s="84"/>
-      <c r="H116" s="84"/>
-      <c r="I116" s="84"/>
-      <c r="J116" s="84"/>
-      <c r="K116" s="85" t="s">
+      <c r="D116" s="203"/>
+      <c r="E116" s="203"/>
+      <c r="F116" s="203"/>
+      <c r="G116" s="203"/>
+      <c r="H116" s="203"/>
+      <c r="I116" s="203"/>
+      <c r="J116" s="203"/>
+      <c r="K116" s="204" t="s">
         <v>142</v>
       </c>
-      <c r="L116" s="85"/>
+      <c r="L116" s="204"/>
+      <c r="M116" s="209" t="s">
+        <v>180</v>
+      </c>
       <c r="O116" s="80"/>
     </row>
     <row r="117" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
-      <c r="C117" s="84" t="s">
+      <c r="C117" s="203" t="s">
         <v>143</v>
       </c>
-      <c r="D117" s="84"/>
-      <c r="E117" s="84"/>
-      <c r="F117" s="84"/>
-      <c r="G117" s="84"/>
-      <c r="H117" s="84"/>
-      <c r="I117" s="84"/>
-      <c r="J117" s="84"/>
-      <c r="K117" s="85" t="s">
+      <c r="D117" s="203"/>
+      <c r="E117" s="203"/>
+      <c r="F117" s="203"/>
+      <c r="G117" s="203"/>
+      <c r="H117" s="203"/>
+      <c r="I117" s="203"/>
+      <c r="J117" s="203"/>
+      <c r="K117" s="204" t="s">
         <v>144</v>
       </c>
-      <c r="L117" s="85"/>
+      <c r="L117" s="204"/>
+      <c r="M117" s="209" t="s">
+        <v>181</v>
+      </c>
       <c r="O117" s="80"/>
     </row>
     <row r="118" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
-      <c r="C118" s="84" t="s">
+      <c r="C118" s="203" t="s">
         <v>145</v>
       </c>
-      <c r="D118" s="84"/>
-      <c r="E118" s="84"/>
-      <c r="F118" s="84"/>
-      <c r="G118" s="84"/>
-      <c r="H118" s="84"/>
-      <c r="I118" s="84"/>
-      <c r="J118" s="84"/>
-      <c r="K118" s="85" t="s">
+      <c r="D118" s="203"/>
+      <c r="E118" s="203"/>
+      <c r="F118" s="203"/>
+      <c r="G118" s="203"/>
+      <c r="H118" s="203"/>
+      <c r="I118" s="203"/>
+      <c r="J118" s="203"/>
+      <c r="K118" s="204" t="s">
         <v>146</v>
       </c>
-      <c r="L118" s="85"/>
+      <c r="L118" s="204"/>
+      <c r="M118" s="209" t="s">
+        <v>182</v>
+      </c>
       <c r="O118" s="80"/>
     </row>
     <row r="122" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="86" t="s">
+      <c r="C122" s="206" t="s">
         <v>147</v>
       </c>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="83" t="s">
+      <c r="D122" s="206"/>
+      <c r="E122" s="206"/>
+      <c r="F122" s="206"/>
+      <c r="G122" s="207" t="s">
         <v>148</v>
       </c>
-      <c r="H122" s="83"/>
-      <c r="I122" s="83"/>
-      <c r="J122" s="83"/>
+      <c r="H122" s="207"/>
+      <c r="I122" s="207"/>
+      <c r="J122" s="207"/>
     </row>
     <row r="123" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="83" t="s">
+      <c r="C123" s="207" t="s">
         <v>149</v>
       </c>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83" t="s">
+      <c r="D123" s="207"/>
+      <c r="E123" s="207"/>
+      <c r="F123" s="207"/>
+      <c r="G123" s="207" t="s">
         <v>150</v>
       </c>
-      <c r="H123" s="83"/>
-      <c r="I123" s="83"/>
-      <c r="J123" s="83"/>
+      <c r="H123" s="207"/>
+      <c r="I123" s="207"/>
+      <c r="J123" s="207"/>
     </row>
     <row r="124" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="83" t="s">
+      <c r="C124" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="D124" s="83"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="83"/>
-      <c r="G124" s="83" t="s">
+      <c r="D124" s="207"/>
+      <c r="E124" s="207"/>
+      <c r="F124" s="207"/>
+      <c r="G124" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="H124" s="83"/>
-      <c r="I124" s="83"/>
-      <c r="J124" s="83"/>
+      <c r="H124" s="207"/>
+      <c r="I124" s="207"/>
+      <c r="J124" s="207"/>
     </row>
     <row r="125" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="83" t="s">
+      <c r="C125" s="207" t="s">
         <v>153</v>
       </c>
-      <c r="D125" s="83"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="83"/>
-      <c r="G125" s="83" t="s">
+      <c r="D125" s="207"/>
+      <c r="E125" s="207"/>
+      <c r="F125" s="207"/>
+      <c r="G125" s="207" t="s">
         <v>154</v>
       </c>
-      <c r="H125" s="83"/>
-      <c r="I125" s="83"/>
-      <c r="J125" s="83"/>
+      <c r="H125" s="207"/>
+      <c r="I125" s="207"/>
+      <c r="J125" s="207"/>
     </row>
     <row r="126" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="83" t="s">
+      <c r="C126" s="207" t="s">
         <v>155</v>
       </c>
-      <c r="D126" s="83"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="83" t="s">
+      <c r="D126" s="207"/>
+      <c r="E126" s="207"/>
+      <c r="F126" s="207"/>
+      <c r="G126" s="207" t="s">
         <v>156</v>
       </c>
-      <c r="H126" s="83"/>
-      <c r="I126" s="83"/>
-      <c r="J126" s="83"/>
+      <c r="H126" s="207"/>
+      <c r="I126" s="207"/>
+      <c r="J126" s="207"/>
     </row>
     <row r="127" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="83" t="s">
+      <c r="C127" s="207" t="s">
         <v>157</v>
       </c>
-      <c r="D127" s="83"/>
-      <c r="E127" s="83"/>
-      <c r="F127" s="83"/>
-      <c r="G127" s="83" t="s">
+      <c r="D127" s="207"/>
+      <c r="E127" s="207"/>
+      <c r="F127" s="207"/>
+      <c r="G127" s="207" t="s">
         <v>158</v>
       </c>
-      <c r="H127" s="83"/>
-      <c r="I127" s="83"/>
-      <c r="J127" s="83"/>
+      <c r="H127" s="207"/>
+      <c r="I127" s="207"/>
+      <c r="J127" s="207"/>
     </row>
     <row r="128" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="83" t="s">
+      <c r="C128" s="207" t="s">
         <v>159</v>
       </c>
-      <c r="D128" s="83"/>
-      <c r="E128" s="83"/>
-      <c r="F128" s="83"/>
-      <c r="G128" s="83">
+      <c r="D128" s="207"/>
+      <c r="E128" s="207"/>
+      <c r="F128" s="207"/>
+      <c r="G128" s="207">
         <v>20250403</v>
       </c>
-      <c r="H128" s="83"/>
-      <c r="I128" s="83"/>
-      <c r="J128" s="83"/>
+      <c r="H128" s="207"/>
+      <c r="I128" s="207"/>
+      <c r="J128" s="207"/>
     </row>
     <row r="129" spans="3:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="83" t="s">
+      <c r="C129" s="207" t="s">
         <v>160</v>
       </c>
-      <c r="D129" s="83"/>
-      <c r="E129" s="83"/>
-      <c r="F129" s="83"/>
-      <c r="G129" s="83">
+      <c r="D129" s="207"/>
+      <c r="E129" s="207"/>
+      <c r="F129" s="207"/>
+      <c r="G129" s="207">
         <v>20250403</v>
       </c>
-      <c r="H129" s="83"/>
-      <c r="I129" s="83"/>
-      <c r="J129" s="83"/>
+      <c r="H129" s="207"/>
+      <c r="I129" s="207"/>
+      <c r="J129" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="G128:J128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="G129:J129"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="G125:J125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="G126:J126"/>
+    <mergeCell ref="C118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="C115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="C116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="C114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="C111:J111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="B101:O101"/>
+    <mergeCell ref="B103:O103"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:J98"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B86:O86"/>
+    <mergeCell ref="B87:N87"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="B89:O89"/>
+    <mergeCell ref="B90:O90"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B63:O63"/>
+    <mergeCell ref="B65:O65"/>
+    <mergeCell ref="A68:O68"/>
+    <mergeCell ref="B69:O69"/>
+    <mergeCell ref="B71:O71"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J60"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="N35:O35"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="J32:L32"/>
@@ -9796,106 +9915,43 @@
     <mergeCell ref="B28:O28"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="B38:O38"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J60"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B63:O63"/>
-    <mergeCell ref="B65:O65"/>
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="B69:O69"/>
-    <mergeCell ref="B71:O71"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="B86:O86"/>
-    <mergeCell ref="B87:N87"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="B89:O89"/>
-    <mergeCell ref="B90:O90"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="B101:O101"/>
-    <mergeCell ref="B103:O103"/>
-    <mergeCell ref="C108:J108"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:J98"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="C112:J112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="C114:J114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="C109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="C111:J111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="C118:J118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="C115:J115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="C116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="G127:J127"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="G128:J128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="G129:J129"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="G125:J125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="G126:J126"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="67" fitToWidth="2" orientation="portrait" r:id="rId1"/>

--- a/services/opengsync-app/static/resources/templates/library_prep/WES.xlsx
+++ b/services/opengsync-app/static/resources/templates/library_prep/WES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hriegler\Documents\limbless-app\services\opengsync-app\static\resources\templates\library_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F9CAC2-C1D0-4B12-8331-A405954D62C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA81299-9268-4DC5-81EF-847E6FE06C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="174">
   <si>
     <t>R0</t>
   </si>
@@ -698,33 +698,6 @@
   <si>
     <t>library_prep_type</t>
   </si>
-  <si>
-    <t>library kit:</t>
-  </si>
-  <si>
-    <t>104206;101308;103077;101279</t>
-  </si>
-  <si>
-    <t>104206;101309;103077;101279</t>
-  </si>
-  <si>
-    <t>104206;101310;103077;101279</t>
-  </si>
-  <si>
-    <t>104206;101311;103077;101279</t>
-  </si>
-  <si>
-    <t>104206;105041;103077;101279</t>
-  </si>
-  <si>
-    <t>104206;105042;103077;101279</t>
-  </si>
-  <si>
-    <t>104206;105043;103077;101279</t>
-  </si>
-  <si>
-    <t>104206;105044;103077;101279</t>
-  </si>
 </sst>
 </file>
 
@@ -734,9 +707,16 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -908,20 +888,6 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="6"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="6"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1544,597 +1510,591 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7624,8 +7584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67189DA6-CD88-43FE-A49A-1F084804927C}">
   <dimension ref="A1:AK129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M115" sqref="M115:M118"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M108" sqref="M108:M118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7664,208 +7624,208 @@
   <sheetData>
     <row r="1" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="184"/>
       <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="184"/>
       <c r="L4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M4" s="13"/>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="84"/>
+      <c r="O4" s="201"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="AK4" s="14"/>
     </row>
     <row r="5" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="K5" s="89" t="s">
+      <c r="B5" s="192"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="184"/>
+      <c r="K5" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="90"/>
+      <c r="L5" s="203"/>
       <c r="M5" s="13"/>
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="184"/>
       <c r="AK6" s="14"/>
     </row>
     <row r="7" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="192" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="184"/>
       <c r="AK7" s="14"/>
     </row>
     <row r="8" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="102" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="103"/>
       <c r="L8" s="103"/>
       <c r="M8" s="104"/>
-      <c r="N8" s="86">
+      <c r="N8" s="182">
         <v>2500003856</v>
       </c>
-      <c r="O8" s="87"/>
-      <c r="P8" s="88"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="184"/>
       <c r="AK8" s="14"/>
     </row>
     <row r="9" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="96" t="s">
+      <c r="B9" s="192"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="86">
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="182">
         <v>2500005110</v>
       </c>
-      <c r="O9" s="87"/>
-      <c r="P9" s="88"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="184"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="AK9" s="14"/>
     </row>
     <row r="10" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="198"/>
     </row>
     <row r="11" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="184"/>
     </row>
     <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="117"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="188"/>
     </row>
     <row r="13" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
@@ -7890,22 +7850,22 @@
       <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:37" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="120"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="191"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
@@ -7990,22 +7950,22 @@
     </row>
     <row r="19" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="123"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="133"/>
     </row>
     <row r="20" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
@@ -8028,11 +7988,11 @@
       <c r="F21" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="105" t="str">
+      <c r="G21" s="158" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="H21" s="105"/>
+      <c r="H21" s="158"/>
       <c r="O21" s="27"/>
     </row>
     <row r="22" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8040,37 +8000,37 @@
       <c r="B22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
       <c r="F22" s="16">
         <v>40</v>
       </c>
-      <c r="G22" s="93" t="s">
+      <c r="G22" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="93"/>
+      <c r="H22" s="88"/>
       <c r="I22" s="29" t="s">
         <v>43</v>
       </c>
       <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="109"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="178"/>
       <c r="F23" s="16">
         <v>4</v>
       </c>
-      <c r="G23" s="93">
+      <c r="G23" s="88">
         <f>F23*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="H23" s="93"/>
+      <c r="H23" s="88"/>
       <c r="I23" s="29" t="s">
         <v>43</v>
       </c>
@@ -8080,19 +8040,19 @@
     <row r="24" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="181"/>
       <c r="F24" s="30">
         <v>6</v>
       </c>
-      <c r="G24" s="113">
+      <c r="G24" s="149">
         <f>F24*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="H24" s="113"/>
+      <c r="H24" s="149"/>
       <c r="I24" s="31" t="s">
         <v>43</v>
       </c>
@@ -8100,19 +8060,19 @@
     </row>
     <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
-      <c r="C25" s="129" t="s">
+      <c r="C25" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="165"/>
       <c r="F25" s="32">
         <f>SUM(F22:F24)</f>
         <v>50</v>
       </c>
-      <c r="G25" s="132" t="s">
+      <c r="G25" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="132"/>
+      <c r="H25" s="150"/>
       <c r="I25" s="32" t="s">
         <v>43</v>
       </c>
@@ -8126,10 +8086,10 @@
       <c r="B26" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="133" t="s">
+      <c r="D26" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="133"/>
+      <c r="E26" s="171"/>
       <c r="F26" s="20" t="s">
         <v>50</v>
       </c>
@@ -8138,32 +8098,32 @@
     <row r="27" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="20"/>
-      <c r="D27" s="134" t="s">
+      <c r="D27" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="137"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="95"/>
     </row>
     <row r="29" spans="1:18" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
@@ -8193,160 +8153,160 @@
       <c r="E31" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="105" t="str">
+      <c r="F31" s="158" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G31" s="105"/>
+      <c r="G31" s="158"/>
       <c r="I31" s="33" t="s">
         <v>53</v>
       </c>
       <c r="M31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="N31" s="138" t="str">
+      <c r="N31" s="173" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="O31" s="139"/>
+      <c r="O31" s="174"/>
     </row>
     <row r="32" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
-      <c r="B32" s="124" t="s">
+      <c r="B32" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="169"/>
       <c r="E32" s="16">
         <v>50</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="93"/>
+      <c r="G32" s="88"/>
       <c r="H32" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="125" t="s">
+      <c r="J32" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
       <c r="M32" s="35">
         <v>50</v>
       </c>
-      <c r="N32" s="126" t="s">
+      <c r="N32" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="127"/>
+      <c r="O32" s="162"/>
       <c r="P32" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
-      <c r="B33" s="128" t="s">
+      <c r="B33" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="16">
         <v>5</v>
       </c>
-      <c r="F33" s="93">
+      <c r="F33" s="88">
         <f>E33*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="G33" s="93"/>
+      <c r="G33" s="88"/>
       <c r="H33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="125" t="s">
+      <c r="J33" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="160"/>
       <c r="M33" s="35">
         <v>3</v>
       </c>
-      <c r="N33" s="126">
+      <c r="N33" s="161">
         <f>M33*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="O33" s="127"/>
+      <c r="O33" s="162"/>
       <c r="P33" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="152" t="s">
+      <c r="B34" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
       <c r="E34" s="30">
         <v>20</v>
       </c>
-      <c r="F34" s="113">
+      <c r="F34" s="149">
         <f>E34*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="G34" s="113"/>
+      <c r="G34" s="149"/>
       <c r="H34" s="31" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="125" t="s">
+      <c r="J34" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
       <c r="M34" s="35">
         <v>2</v>
       </c>
-      <c r="N34" s="126">
+      <c r="N34" s="161">
         <f>M34*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="O34" s="127"/>
+      <c r="O34" s="162"/>
       <c r="P34" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
-      <c r="B35" s="129" t="s">
+      <c r="B35" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="131"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="32">
         <f>SUM(E32:E34)</f>
         <v>75</v>
       </c>
-      <c r="F35" s="132" t="s">
+      <c r="F35" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="132"/>
+      <c r="G35" s="150"/>
       <c r="H35" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="153" t="s">
+      <c r="J35" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="166"/>
       <c r="M35" s="37">
         <v>20</v>
       </c>
-      <c r="N35" s="154">
+      <c r="N35" s="167">
         <f>M35*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="O35" s="155"/>
+      <c r="O35" s="168"/>
       <c r="P35" s="38" t="s">
         <v>43</v>
       </c>
@@ -8359,18 +8319,18 @@
       <c r="D36" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J36" s="140" t="s">
+      <c r="J36" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="140"/>
-      <c r="L36" s="140"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
       <c r="M36" s="41">
         <v>25</v>
       </c>
-      <c r="N36" s="141" t="s">
+      <c r="N36" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="O36" s="142"/>
+      <c r="O36" s="154"/>
       <c r="P36" s="42" t="s">
         <v>43</v>
       </c>
@@ -8383,22 +8343,22 @@
     </row>
     <row r="38" spans="1:16" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="145"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="92"/>
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
@@ -8408,22 +8368,22 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
-      <c r="B40" s="146" t="s">
+      <c r="B40" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147"/>
-      <c r="N40" s="147"/>
-      <c r="O40" s="148"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="156"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="156"/>
+      <c r="N40" s="156"/>
+      <c r="O40" s="157"/>
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
@@ -8440,63 +8400,63 @@
       <c r="E42" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="105" t="str">
+      <c r="F42" s="158" t="str">
         <f>CONCATENATE(" Volume for ",$E$13, " samples")</f>
         <v xml:space="preserve"> Volume for  samples</v>
       </c>
-      <c r="G42" s="105"/>
+      <c r="G42" s="158"/>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
-      <c r="B43" s="149" t="s">
+      <c r="B43" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="150"/>
-      <c r="D43" s="151"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="120"/>
       <c r="E43" s="44">
         <v>15</v>
       </c>
-      <c r="F43" s="93" t="s">
+      <c r="F43" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G43" s="93"/>
+      <c r="G43" s="88"/>
       <c r="H43" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
-      <c r="B44" s="166" t="s">
+      <c r="B44" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="167"/>
-      <c r="D44" s="168"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
       <c r="E44" s="45">
         <v>10</v>
       </c>
-      <c r="F44" s="93" t="s">
+      <c r="F44" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="93"/>
+      <c r="G44" s="88"/>
       <c r="H44" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="170"/>
-      <c r="D45" s="171"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="148"/>
       <c r="E45" s="30">
         <v>25</v>
       </c>
-      <c r="F45" s="113">
+      <c r="F45" s="149">
         <f>E45*1.1*$E$13</f>
         <v>0</v>
       </c>
-      <c r="G45" s="113"/>
+      <c r="G45" s="149"/>
       <c r="H45" s="46" t="s">
         <v>43</v>
       </c>
@@ -8506,10 +8466,10 @@
       <c r="E46" s="47">
         <v>50</v>
       </c>
-      <c r="F46" s="132" t="s">
+      <c r="F46" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="132"/>
+      <c r="G46" s="150"/>
       <c r="H46" s="48" t="s">
         <v>43</v>
       </c>
@@ -8710,76 +8670,76 @@
         <v>77</v>
       </c>
       <c r="F57" s="56"/>
-      <c r="G57" s="172" t="s">
+      <c r="G57" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="H57" s="172"/>
+      <c r="H57" s="151"/>
       <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
-      <c r="G58" s="156" t="s">
+      <c r="G58" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="H58" s="157"/>
-      <c r="I58" s="158" t="s">
+      <c r="H58" s="135"/>
+      <c r="I58" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="J58" s="159"/>
+      <c r="J58" s="137"/>
     </row>
     <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
-      <c r="G59" s="156" t="s">
+      <c r="G59" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="H59" s="157"/>
-      <c r="I59" s="160"/>
-      <c r="J59" s="161"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="138"/>
+      <c r="J59" s="139"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
-      <c r="G60" s="156" t="s">
+      <c r="G60" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="H60" s="157"/>
-      <c r="I60" s="162"/>
-      <c r="J60" s="163"/>
+      <c r="H60" s="135"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="141"/>
     </row>
     <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
-      <c r="G61" s="164" t="s">
+      <c r="G61" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="H61" s="164"/>
+      <c r="H61" s="142"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G62" s="165" t="s">
+      <c r="G62" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="H62" s="165"/>
+      <c r="H62" s="89"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
     </row>
     <row r="63" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
-      <c r="B63" s="143" t="s">
+      <c r="B63" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="144"/>
-      <c r="J63" s="144"/>
-      <c r="K63" s="144"/>
-      <c r="L63" s="144"/>
-      <c r="M63" s="144"/>
-      <c r="N63" s="144"/>
-      <c r="O63" s="145"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="91"/>
+      <c r="N63" s="91"/>
+      <c r="O63" s="92"/>
     </row>
     <row r="64" spans="1:15" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
@@ -8789,22 +8749,22 @@
     </row>
     <row r="65" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="50"/>
-      <c r="B65" s="135" t="s">
+      <c r="B65" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="178"/>
-      <c r="D65" s="178"/>
-      <c r="E65" s="178"/>
-      <c r="F65" s="178"/>
-      <c r="G65" s="178"/>
-      <c r="H65" s="178"/>
-      <c r="I65" s="178"/>
-      <c r="J65" s="178"/>
-      <c r="K65" s="178"/>
-      <c r="L65" s="178"/>
-      <c r="M65" s="178"/>
-      <c r="N65" s="178"/>
-      <c r="O65" s="179"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="124"/>
+      <c r="J65" s="124"/>
+      <c r="K65" s="124"/>
+      <c r="L65" s="124"/>
+      <c r="M65" s="124"/>
+      <c r="N65" s="124"/>
+      <c r="O65" s="125"/>
     </row>
     <row r="66" spans="1:19" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
@@ -8857,45 +8817,45 @@
       <c r="S67" s="16"/>
     </row>
     <row r="68" spans="1:19" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="180" t="s">
+      <c r="A68" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="181"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
-      <c r="E68" s="181"/>
-      <c r="F68" s="181"/>
-      <c r="G68" s="181"/>
-      <c r="H68" s="181"/>
-      <c r="I68" s="181"/>
-      <c r="J68" s="181"/>
-      <c r="K68" s="181"/>
-      <c r="L68" s="181"/>
-      <c r="M68" s="181"/>
-      <c r="N68" s="181"/>
-      <c r="O68" s="182"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="127"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="127"/>
+      <c r="H68" s="127"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="127"/>
+      <c r="K68" s="127"/>
+      <c r="L68" s="127"/>
+      <c r="M68" s="127"/>
+      <c r="N68" s="127"/>
+      <c r="O68" s="128"/>
       <c r="P68" s="62" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="63"/>
-      <c r="B69" s="183" t="s">
+      <c r="B69" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="184"/>
-      <c r="D69" s="184"/>
-      <c r="E69" s="184"/>
-      <c r="F69" s="184"/>
-      <c r="G69" s="184"/>
-      <c r="H69" s="184"/>
-      <c r="I69" s="184"/>
-      <c r="J69" s="184"/>
-      <c r="K69" s="184"/>
-      <c r="L69" s="184"/>
-      <c r="M69" s="184"/>
-      <c r="N69" s="184"/>
-      <c r="O69" s="184"/>
+      <c r="C69" s="130"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="130"/>
+      <c r="J69" s="130"/>
+      <c r="K69" s="130"/>
+      <c r="L69" s="130"/>
+      <c r="M69" s="130"/>
+      <c r="N69" s="130"/>
+      <c r="O69" s="130"/>
     </row>
     <row r="70" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="64"/>
@@ -8920,53 +8880,53 @@
     </row>
     <row r="71" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
-      <c r="B71" s="121" t="s">
+      <c r="B71" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="122"/>
-      <c r="D71" s="122"/>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
-      <c r="G71" s="122"/>
-      <c r="H71" s="122"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="122"/>
-      <c r="L71" s="122"/>
-      <c r="M71" s="122"/>
-      <c r="N71" s="122"/>
-      <c r="O71" s="123"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="132"/>
+      <c r="F71" s="132"/>
+      <c r="G71" s="132"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="132"/>
+      <c r="J71" s="132"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="132"/>
+      <c r="M71" s="132"/>
+      <c r="N71" s="132"/>
+      <c r="O71" s="133"/>
     </row>
     <row r="72" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="64"/>
-      <c r="B72" s="173" t="s">
+      <c r="B72" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="173"/>
-      <c r="D72" s="173"/>
-      <c r="E72" s="173"/>
-      <c r="F72" s="173"/>
-      <c r="G72" s="173"/>
-      <c r="H72" s="173"/>
-      <c r="I72" s="173"/>
-      <c r="J72" s="173"/>
-      <c r="K72" s="173"/>
-      <c r="L72" s="173"/>
-      <c r="M72" s="173"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="109"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="109"/>
+      <c r="L72" s="109"/>
+      <c r="M72" s="109"/>
       <c r="N72" s="15"/>
     </row>
     <row r="73" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
-      <c r="B73" s="174" t="s">
+      <c r="B73" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="173"/>
-      <c r="D73" s="173"/>
-      <c r="E73" s="149" t="s">
+      <c r="C73" s="109"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="150"/>
-      <c r="G73" s="151"/>
+      <c r="F73" s="119"/>
+      <c r="G73" s="120"/>
       <c r="H73" s="65">
         <v>20</v>
       </c>
@@ -8980,11 +8940,11 @@
       <c r="B74" s="20"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
-      <c r="E74" s="175" t="s">
+      <c r="E74" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="F74" s="176"/>
-      <c r="G74" s="177"/>
+      <c r="F74" s="122"/>
+      <c r="G74" s="123"/>
       <c r="H74" s="66">
         <v>4</v>
       </c>
@@ -8997,11 +8957,11 @@
       <c r="A75" s="21"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="175" t="s">
+      <c r="E75" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="176"/>
-      <c r="G75" s="177"/>
+      <c r="F75" s="122"/>
+      <c r="G75" s="123"/>
       <c r="H75" s="67">
         <v>4</v>
       </c>
@@ -9025,10 +8985,10 @@
       <c r="B77" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D77" s="165" t="s">
+      <c r="D77" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="E77" s="165"/>
+      <c r="E77" s="89"/>
       <c r="F77" s="68"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -9036,10 +8996,10 @@
     </row>
     <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
-      <c r="D78" s="165" t="s">
+      <c r="D78" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="E78" s="165"/>
+      <c r="E78" s="89"/>
       <c r="F78" s="68"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -9047,10 +9007,10 @@
     </row>
     <row r="79" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
-      <c r="D79" s="165" t="s">
+      <c r="D79" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="165"/>
+      <c r="E79" s="89"/>
       <c r="F79" s="68"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -9061,11 +9021,11 @@
       <c r="B80" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="149" t="s">
+      <c r="C80" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="150"/>
-      <c r="E80" s="151"/>
+      <c r="D80" s="119"/>
+      <c r="E80" s="120"/>
       <c r="F80" s="65" t="s">
         <v>42</v>
       </c>
@@ -9077,11 +9037,11 @@
     <row r="81" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="20"/>
-      <c r="C81" s="175" t="s">
+      <c r="C81" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="176"/>
-      <c r="E81" s="177"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="123"/>
       <c r="F81" s="66">
         <v>5</v>
       </c>
@@ -9092,11 +9052,11 @@
     </row>
     <row r="82" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
-      <c r="C82" s="175" t="s">
+      <c r="C82" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="176"/>
-      <c r="E82" s="177"/>
+      <c r="D82" s="122"/>
+      <c r="E82" s="123"/>
       <c r="F82" s="67">
         <v>7</v>
       </c>
@@ -9123,10 +9083,10 @@
       <c r="B84" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="185" t="s">
+      <c r="D84" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="E84" s="185"/>
+      <c r="E84" s="107"/>
       <c r="F84" s="68"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -9134,10 +9094,10 @@
     </row>
     <row r="85" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
-      <c r="D85" s="185" t="s">
+      <c r="D85" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E85" s="185"/>
+      <c r="E85" s="107"/>
       <c r="F85" s="68"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -9145,40 +9105,40 @@
     </row>
     <row r="86" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
-      <c r="B86" s="174" t="s">
+      <c r="B86" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="173"/>
-      <c r="D86" s="173"/>
-      <c r="E86" s="173"/>
-      <c r="F86" s="173"/>
-      <c r="G86" s="173"/>
-      <c r="H86" s="173"/>
-      <c r="I86" s="173"/>
-      <c r="J86" s="173"/>
-      <c r="K86" s="173"/>
-      <c r="L86" s="173"/>
-      <c r="M86" s="173"/>
-      <c r="N86" s="173"/>
-      <c r="O86" s="173"/>
+      <c r="C86" s="109"/>
+      <c r="D86" s="109"/>
+      <c r="E86" s="109"/>
+      <c r="F86" s="109"/>
+      <c r="G86" s="109"/>
+      <c r="H86" s="109"/>
+      <c r="I86" s="109"/>
+      <c r="J86" s="109"/>
+      <c r="K86" s="109"/>
+      <c r="L86" s="109"/>
+      <c r="M86" s="109"/>
+      <c r="N86" s="109"/>
+      <c r="O86" s="109"/>
     </row>
     <row r="87" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
-      <c r="B87" s="173" t="s">
+      <c r="B87" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="C87" s="173"/>
-      <c r="D87" s="173"/>
-      <c r="E87" s="173"/>
-      <c r="F87" s="173"/>
-      <c r="G87" s="173"/>
-      <c r="H87" s="173"/>
-      <c r="I87" s="173"/>
-      <c r="J87" s="173"/>
-      <c r="K87" s="173"/>
-      <c r="L87" s="173"/>
-      <c r="M87" s="173"/>
-      <c r="N87" s="173"/>
+      <c r="C87" s="109"/>
+      <c r="D87" s="109"/>
+      <c r="E87" s="109"/>
+      <c r="F87" s="109"/>
+      <c r="G87" s="109"/>
+      <c r="H87" s="109"/>
+      <c r="I87" s="109"/>
+      <c r="J87" s="109"/>
+      <c r="K87" s="109"/>
+      <c r="L87" s="109"/>
+      <c r="M87" s="109"/>
+      <c r="N87" s="109"/>
       <c r="O87" s="15"/>
     </row>
     <row r="88" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9202,57 +9162,57 @@
       <c r="P88" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="Q88" s="186"/>
-      <c r="R88" s="187"/>
+      <c r="Q88" s="110"/>
+      <c r="R88" s="111"/>
     </row>
     <row r="89" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="71"/>
-      <c r="B89" s="188" t="s">
+      <c r="B89" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="C89" s="189"/>
-      <c r="D89" s="189"/>
-      <c r="E89" s="189"/>
-      <c r="F89" s="189"/>
-      <c r="G89" s="189"/>
-      <c r="H89" s="189"/>
-      <c r="I89" s="189"/>
-      <c r="J89" s="189"/>
-      <c r="K89" s="189"/>
-      <c r="L89" s="189"/>
-      <c r="M89" s="189"/>
-      <c r="N89" s="189"/>
-      <c r="O89" s="190"/>
+      <c r="C89" s="113"/>
+      <c r="D89" s="113"/>
+      <c r="E89" s="113"/>
+      <c r="F89" s="113"/>
+      <c r="G89" s="113"/>
+      <c r="H89" s="113"/>
+      <c r="I89" s="113"/>
+      <c r="J89" s="113"/>
+      <c r="K89" s="113"/>
+      <c r="L89" s="113"/>
+      <c r="M89" s="113"/>
+      <c r="N89" s="113"/>
+      <c r="O89" s="114"/>
     </row>
     <row r="90" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
-      <c r="B90" s="191" t="s">
+      <c r="B90" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="C90" s="192"/>
-      <c r="D90" s="192"/>
-      <c r="E90" s="192"/>
-      <c r="F90" s="192"/>
-      <c r="G90" s="192"/>
-      <c r="H90" s="192"/>
-      <c r="I90" s="192"/>
-      <c r="J90" s="192"/>
-      <c r="K90" s="192"/>
-      <c r="L90" s="192"/>
-      <c r="M90" s="192"/>
-      <c r="N90" s="192"/>
-      <c r="O90" s="193"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="116"/>
+      <c r="H90" s="116"/>
+      <c r="I90" s="116"/>
+      <c r="J90" s="116"/>
+      <c r="K90" s="116"/>
+      <c r="L90" s="116"/>
+      <c r="M90" s="116"/>
+      <c r="N90" s="116"/>
+      <c r="O90" s="117"/>
     </row>
     <row r="91" spans="1:18" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="195" t="s">
+      <c r="C91" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="D91" s="196"/>
-      <c r="E91" s="197"/>
+      <c r="D91" s="97"/>
+      <c r="E91" s="98"/>
       <c r="F91" s="72" t="s">
         <v>112</v>
       </c>
@@ -9265,11 +9225,11 @@
     <row r="92" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="20"/>
-      <c r="C92" s="198" t="s">
+      <c r="C92" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="D92" s="199"/>
-      <c r="E92" s="200"/>
+      <c r="D92" s="100"/>
+      <c r="E92" s="101"/>
       <c r="F92" s="75" t="s">
         <v>114</v>
       </c>
@@ -9323,75 +9283,75 @@
         <v>77</v>
       </c>
       <c r="F95" s="56"/>
-      <c r="G95" s="165" t="s">
+      <c r="G95" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="H95" s="165"/>
+      <c r="H95" s="89"/>
       <c r="J95" s="15"/>
     </row>
     <row r="96" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
-      <c r="G96" s="201" t="s">
+      <c r="G96" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="H96" s="201"/>
-      <c r="I96" s="202" t="s">
+      <c r="H96" s="105"/>
+      <c r="I96" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="J96" s="93"/>
+      <c r="J96" s="88"/>
     </row>
     <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
-      <c r="G97" s="201" t="s">
+      <c r="G97" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="H97" s="201"/>
-      <c r="I97" s="93"/>
-      <c r="J97" s="93"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
     </row>
     <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
-      <c r="G98" s="201" t="s">
+      <c r="G98" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="H98" s="201"/>
-      <c r="I98" s="93"/>
-      <c r="J98" s="93"/>
+      <c r="H98" s="105"/>
+      <c r="I98" s="88"/>
+      <c r="J98" s="88"/>
     </row>
     <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
-      <c r="G99" s="165" t="s">
+      <c r="G99" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="H99" s="165"/>
+      <c r="H99" s="89"/>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
     </row>
     <row r="100" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G100" s="165" t="s">
+      <c r="G100" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="H100" s="165"/>
+      <c r="H100" s="89"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
     </row>
     <row r="101" spans="1:15" s="15" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="143" t="s">
+      <c r="B101" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="C101" s="144"/>
-      <c r="D101" s="144"/>
-      <c r="E101" s="144"/>
-      <c r="F101" s="144"/>
-      <c r="G101" s="144"/>
-      <c r="H101" s="144"/>
-      <c r="I101" s="144"/>
-      <c r="J101" s="144"/>
-      <c r="K101" s="144"/>
-      <c r="L101" s="144"/>
-      <c r="M101" s="144"/>
-      <c r="N101" s="144"/>
-      <c r="O101" s="145"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="91"/>
+      <c r="I101" s="91"/>
+      <c r="J101" s="91"/>
+      <c r="K101" s="91"/>
+      <c r="L101" s="91"/>
+      <c r="M101" s="91"/>
+      <c r="N101" s="91"/>
+      <c r="O101" s="92"/>
     </row>
     <row r="102" spans="1:15" s="15" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="64"/>
@@ -9404,22 +9364,22 @@
     </row>
     <row r="103" spans="1:15" s="15" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="50"/>
-      <c r="B103" s="135" t="s">
+      <c r="B103" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="136"/>
-      <c r="D103" s="136"/>
-      <c r="E103" s="136"/>
-      <c r="F103" s="136"/>
-      <c r="G103" s="136"/>
-      <c r="H103" s="136"/>
-      <c r="I103" s="136"/>
-      <c r="J103" s="136"/>
-      <c r="K103" s="136"/>
-      <c r="L103" s="136"/>
-      <c r="M103" s="136"/>
-      <c r="N103" s="136"/>
-      <c r="O103" s="137"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="94"/>
+      <c r="G103" s="94"/>
+      <c r="H103" s="94"/>
+      <c r="I103" s="94"/>
+      <c r="J103" s="94"/>
+      <c r="K103" s="94"/>
+      <c r="L103" s="94"/>
+      <c r="M103" s="94"/>
+      <c r="N103" s="94"/>
+      <c r="O103" s="95"/>
     </row>
     <row r="104" spans="1:15" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
@@ -9466,425 +9426,374 @@
     </row>
     <row r="108" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
-      <c r="C108" s="194" t="s">
+      <c r="C108" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="D108" s="194"/>
-      <c r="E108" s="194"/>
-      <c r="F108" s="194"/>
-      <c r="G108" s="194"/>
-      <c r="H108" s="194"/>
-      <c r="I108" s="194"/>
-      <c r="J108" s="194"/>
-      <c r="K108" s="93" t="s">
+      <c r="D108" s="207"/>
+      <c r="E108" s="207"/>
+      <c r="F108" s="207"/>
+      <c r="G108" s="207"/>
+      <c r="H108" s="207"/>
+      <c r="I108" s="207"/>
+      <c r="J108" s="207"/>
+      <c r="K108" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="L108" s="93"/>
-      <c r="M108" s="208" t="s">
-        <v>174</v>
-      </c>
+      <c r="L108" s="88"/>
+      <c r="M108" s="83"/>
     </row>
     <row r="109" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
-      <c r="C109" s="205" t="s">
+      <c r="C109" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="D109" s="205"/>
-      <c r="E109" s="205"/>
-      <c r="F109" s="205"/>
-      <c r="G109" s="205"/>
-      <c r="H109" s="205"/>
-      <c r="I109" s="205"/>
-      <c r="J109" s="205"/>
-      <c r="K109" s="93" t="s">
+      <c r="D109" s="87"/>
+      <c r="E109" s="87"/>
+      <c r="F109" s="87"/>
+      <c r="G109" s="87"/>
+      <c r="H109" s="87"/>
+      <c r="I109" s="87"/>
+      <c r="J109" s="87"/>
+      <c r="K109" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="L109" s="93"/>
-      <c r="M109" s="209" t="s">
-        <v>175</v>
-      </c>
+      <c r="L109" s="88"/>
+      <c r="M109" s="84"/>
       <c r="O109" s="80"/>
     </row>
     <row r="110" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
-      <c r="C110" s="203" t="s">
+      <c r="C110" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="D110" s="203"/>
-      <c r="E110" s="203"/>
-      <c r="F110" s="203"/>
-      <c r="G110" s="203"/>
-      <c r="H110" s="203"/>
-      <c r="I110" s="203"/>
-      <c r="J110" s="203"/>
-      <c r="K110" s="204" t="s">
+      <c r="D110" s="87"/>
+      <c r="E110" s="87"/>
+      <c r="F110" s="87"/>
+      <c r="G110" s="87"/>
+      <c r="H110" s="87"/>
+      <c r="I110" s="87"/>
+      <c r="J110" s="87"/>
+      <c r="K110" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="L110" s="204"/>
-      <c r="M110" s="209" t="s">
-        <v>176</v>
-      </c>
+      <c r="L110" s="88"/>
+      <c r="M110" s="84"/>
       <c r="O110" s="80"/>
     </row>
     <row r="111" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
-      <c r="C111" s="203" t="s">
+      <c r="C111" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="203"/>
-      <c r="E111" s="203"/>
-      <c r="F111" s="203"/>
-      <c r="G111" s="203"/>
-      <c r="H111" s="203"/>
-      <c r="I111" s="203"/>
-      <c r="J111" s="203"/>
-      <c r="K111" s="204" t="s">
+      <c r="D111" s="87"/>
+      <c r="E111" s="87"/>
+      <c r="F111" s="87"/>
+      <c r="G111" s="87"/>
+      <c r="H111" s="87"/>
+      <c r="I111" s="87"/>
+      <c r="J111" s="87"/>
+      <c r="K111" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="L111" s="204"/>
-      <c r="M111" s="209" t="s">
-        <v>177</v>
-      </c>
+      <c r="L111" s="88"/>
+      <c r="M111" s="84"/>
       <c r="O111" s="80"/>
     </row>
     <row r="112" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
-      <c r="C112" s="203" t="s">
+      <c r="C112" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="D112" s="203"/>
-      <c r="E112" s="203"/>
-      <c r="F112" s="203"/>
-      <c r="G112" s="203"/>
-      <c r="H112" s="203"/>
-      <c r="I112" s="203"/>
-      <c r="J112" s="203"/>
-      <c r="K112" s="204" t="s">
+      <c r="D112" s="87"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="87"/>
+      <c r="G112" s="87"/>
+      <c r="H112" s="87"/>
+      <c r="I112" s="87"/>
+      <c r="J112" s="87"/>
+      <c r="K112" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="L112" s="204"/>
-      <c r="M112" s="209" t="s">
-        <v>178</v>
-      </c>
+      <c r="L112" s="88"/>
+      <c r="M112" s="84"/>
       <c r="O112" s="80"/>
     </row>
     <row r="113" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
-      <c r="C113" s="205" t="s">
+      <c r="C113" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="D113" s="205"/>
-      <c r="E113" s="205"/>
-      <c r="F113" s="205"/>
-      <c r="G113" s="205"/>
-      <c r="H113" s="205"/>
-      <c r="I113" s="205"/>
-      <c r="J113" s="205"/>
-      <c r="K113" s="93" t="s">
+      <c r="D113" s="87"/>
+      <c r="E113" s="87"/>
+      <c r="F113" s="87"/>
+      <c r="G113" s="87"/>
+      <c r="H113" s="87"/>
+      <c r="I113" s="87"/>
+      <c r="J113" s="87"/>
+      <c r="K113" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="L113" s="93"/>
+      <c r="L113" s="88"/>
     </row>
     <row r="114" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
-      <c r="C114" s="205" t="s">
+      <c r="C114" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="D114" s="205"/>
-      <c r="E114" s="205"/>
-      <c r="F114" s="205"/>
-      <c r="G114" s="205"/>
-      <c r="H114" s="205"/>
-      <c r="I114" s="205"/>
-      <c r="J114" s="205"/>
-      <c r="K114" s="93" t="s">
+      <c r="D114" s="87"/>
+      <c r="E114" s="87"/>
+      <c r="F114" s="87"/>
+      <c r="G114" s="87"/>
+      <c r="H114" s="87"/>
+      <c r="I114" s="87"/>
+      <c r="J114" s="87"/>
+      <c r="K114" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="L114" s="93"/>
+      <c r="L114" s="88"/>
     </row>
     <row r="115" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
-      <c r="C115" s="203" t="s">
+      <c r="C115" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="D115" s="203"/>
-      <c r="E115" s="203"/>
-      <c r="F115" s="203"/>
-      <c r="G115" s="203"/>
-      <c r="H115" s="203"/>
-      <c r="I115" s="203"/>
-      <c r="J115" s="203"/>
-      <c r="K115" s="204" t="s">
+      <c r="D115" s="87"/>
+      <c r="E115" s="87"/>
+      <c r="F115" s="87"/>
+      <c r="G115" s="87"/>
+      <c r="H115" s="87"/>
+      <c r="I115" s="87"/>
+      <c r="J115" s="87"/>
+      <c r="K115" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="L115" s="204"/>
-      <c r="M115" s="209" t="s">
-        <v>179</v>
-      </c>
+      <c r="L115" s="88"/>
+      <c r="M115" s="84"/>
       <c r="O115" s="80"/>
     </row>
     <row r="116" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
-      <c r="C116" s="203" t="s">
+      <c r="C116" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="D116" s="203"/>
-      <c r="E116" s="203"/>
-      <c r="F116" s="203"/>
-      <c r="G116" s="203"/>
-      <c r="H116" s="203"/>
-      <c r="I116" s="203"/>
-      <c r="J116" s="203"/>
-      <c r="K116" s="204" t="s">
+      <c r="D116" s="87"/>
+      <c r="E116" s="87"/>
+      <c r="F116" s="87"/>
+      <c r="G116" s="87"/>
+      <c r="H116" s="87"/>
+      <c r="I116" s="87"/>
+      <c r="J116" s="87"/>
+      <c r="K116" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="L116" s="204"/>
-      <c r="M116" s="209" t="s">
-        <v>180</v>
-      </c>
+      <c r="L116" s="88"/>
+      <c r="M116" s="84"/>
       <c r="O116" s="80"/>
     </row>
     <row r="117" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
-      <c r="C117" s="203" t="s">
+      <c r="C117" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="D117" s="203"/>
-      <c r="E117" s="203"/>
-      <c r="F117" s="203"/>
-      <c r="G117" s="203"/>
-      <c r="H117" s="203"/>
-      <c r="I117" s="203"/>
-      <c r="J117" s="203"/>
-      <c r="K117" s="204" t="s">
+      <c r="D117" s="87"/>
+      <c r="E117" s="87"/>
+      <c r="F117" s="87"/>
+      <c r="G117" s="87"/>
+      <c r="H117" s="87"/>
+      <c r="I117" s="87"/>
+      <c r="J117" s="87"/>
+      <c r="K117" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="L117" s="204"/>
-      <c r="M117" s="209" t="s">
-        <v>181</v>
-      </c>
+      <c r="L117" s="88"/>
+      <c r="M117" s="84"/>
       <c r="O117" s="80"/>
     </row>
     <row r="118" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
-      <c r="C118" s="203" t="s">
+      <c r="C118" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="D118" s="203"/>
-      <c r="E118" s="203"/>
-      <c r="F118" s="203"/>
-      <c r="G118" s="203"/>
-      <c r="H118" s="203"/>
-      <c r="I118" s="203"/>
-      <c r="J118" s="203"/>
-      <c r="K118" s="204" t="s">
+      <c r="D118" s="87"/>
+      <c r="E118" s="87"/>
+      <c r="F118" s="87"/>
+      <c r="G118" s="87"/>
+      <c r="H118" s="87"/>
+      <c r="I118" s="87"/>
+      <c r="J118" s="87"/>
+      <c r="K118" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="L118" s="204"/>
-      <c r="M118" s="209" t="s">
-        <v>182</v>
-      </c>
+      <c r="L118" s="88"/>
+      <c r="M118" s="84"/>
       <c r="O118" s="80"/>
     </row>
     <row r="122" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="206" t="s">
+      <c r="C122" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="D122" s="206"/>
-      <c r="E122" s="206"/>
-      <c r="F122" s="206"/>
-      <c r="G122" s="207" t="s">
+      <c r="D122" s="86"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="H122" s="207"/>
-      <c r="I122" s="207"/>
-      <c r="J122" s="207"/>
+      <c r="H122" s="85"/>
+      <c r="I122" s="85"/>
+      <c r="J122" s="85"/>
     </row>
     <row r="123" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="207" t="s">
+      <c r="C123" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="D123" s="207"/>
-      <c r="E123" s="207"/>
-      <c r="F123" s="207"/>
-      <c r="G123" s="207" t="s">
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="H123" s="207"/>
-      <c r="I123" s="207"/>
-      <c r="J123" s="207"/>
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
     </row>
     <row r="124" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="207" t="s">
+      <c r="C124" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="D124" s="207"/>
-      <c r="E124" s="207"/>
-      <c r="F124" s="207"/>
-      <c r="G124" s="207" t="s">
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
+      <c r="F124" s="85"/>
+      <c r="G124" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="H124" s="207"/>
-      <c r="I124" s="207"/>
-      <c r="J124" s="207"/>
+      <c r="H124" s="85"/>
+      <c r="I124" s="85"/>
+      <c r="J124" s="85"/>
     </row>
     <row r="125" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="207" t="s">
+      <c r="C125" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="D125" s="207"/>
-      <c r="E125" s="207"/>
-      <c r="F125" s="207"/>
-      <c r="G125" s="207" t="s">
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="H125" s="207"/>
-      <c r="I125" s="207"/>
-      <c r="J125" s="207"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
     </row>
     <row r="126" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="207" t="s">
+      <c r="C126" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="D126" s="207"/>
-      <c r="E126" s="207"/>
-      <c r="F126" s="207"/>
-      <c r="G126" s="207" t="s">
+      <c r="D126" s="85"/>
+      <c r="E126" s="85"/>
+      <c r="F126" s="85"/>
+      <c r="G126" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="H126" s="207"/>
-      <c r="I126" s="207"/>
-      <c r="J126" s="207"/>
+      <c r="H126" s="85"/>
+      <c r="I126" s="85"/>
+      <c r="J126" s="85"/>
     </row>
     <row r="127" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="207" t="s">
+      <c r="C127" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="D127" s="207"/>
-      <c r="E127" s="207"/>
-      <c r="F127" s="207"/>
-      <c r="G127" s="207" t="s">
+      <c r="D127" s="85"/>
+      <c r="E127" s="85"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="H127" s="207"/>
-      <c r="I127" s="207"/>
-      <c r="J127" s="207"/>
+      <c r="H127" s="85"/>
+      <c r="I127" s="85"/>
+      <c r="J127" s="85"/>
     </row>
     <row r="128" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="207" t="s">
+      <c r="C128" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="D128" s="207"/>
-      <c r="E128" s="207"/>
-      <c r="F128" s="207"/>
-      <c r="G128" s="207">
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
+      <c r="F128" s="85"/>
+      <c r="G128" s="85">
         <v>20250403</v>
       </c>
-      <c r="H128" s="207"/>
-      <c r="I128" s="207"/>
-      <c r="J128" s="207"/>
+      <c r="H128" s="85"/>
+      <c r="I128" s="85"/>
+      <c r="J128" s="85"/>
     </row>
     <row r="129" spans="3:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="207" t="s">
+      <c r="C129" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="D129" s="207"/>
-      <c r="E129" s="207"/>
-      <c r="F129" s="207"/>
-      <c r="G129" s="207">
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="85">
         <v>20250403</v>
       </c>
-      <c r="H129" s="207"/>
-      <c r="I129" s="207"/>
-      <c r="J129" s="207"/>
+      <c r="H129" s="85"/>
+      <c r="I129" s="85"/>
+      <c r="J129" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="G127:J127"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="G128:J128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="G129:J129"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="G125:J125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="G126:J126"/>
-    <mergeCell ref="C118:J118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="C115:J115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="C116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="C112:J112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="C114:J114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="C109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="C111:J111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="B101:O101"/>
-    <mergeCell ref="B103:O103"/>
-    <mergeCell ref="C108:J108"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:J98"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="B86:O86"/>
-    <mergeCell ref="B87:N87"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="B89:O89"/>
-    <mergeCell ref="B90:O90"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B63:O63"/>
-    <mergeCell ref="B65:O65"/>
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="B69:O69"/>
-    <mergeCell ref="B71:O71"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J60"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="N31:O31"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="B38:O38"/>
@@ -9900,58 +9809,91 @@
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J60"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B63:O63"/>
+    <mergeCell ref="B65:O65"/>
+    <mergeCell ref="A68:O68"/>
+    <mergeCell ref="B69:O69"/>
+    <mergeCell ref="B71:O71"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B86:O86"/>
+    <mergeCell ref="B87:N87"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="B89:O89"/>
+    <mergeCell ref="B90:O90"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="B101:O101"/>
+    <mergeCell ref="B103:O103"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:J98"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="C114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="C111:J111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="C118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="C115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="C116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="G128:J128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="G129:J129"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="G125:J125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="G126:J126"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="67" fitToWidth="2" orientation="portrait" r:id="rId1"/>
